--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EAC0C-DF8A-4030-87C7-0583043E8BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DD43A-14C1-44B8-9741-F945093FB298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
     <sheet name="Component images" sheetId="11" r:id="rId4"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId5"/>
-    <sheet name="Component links" sheetId="8" r:id="rId6"/>
-    <sheet name="Board local files" sheetId="9" r:id="rId7"/>
-    <sheet name="Board links" sheetId="10" r:id="rId8"/>
+    <sheet name="Component oscilloscope" sheetId="12" r:id="rId5"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId6"/>
+    <sheet name="Component links" sheetId="8" r:id="rId7"/>
+    <sheet name="Board local files" sheetId="9" r:id="rId8"/>
+    <sheet name="Board links" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -506,9 +507,6 @@
     <t>VIC-20 Technical Manual</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
-  </si>
-  <si>
     <t>UF8</t>
   </si>
   <si>
@@ -642,9 +640,6 @@
   </si>
   <si>
     <t>CR2</t>
-  </si>
-  <si>
-    <t>Rectifier</t>
   </si>
   <si>
     <t>DBA10B</t>
@@ -762,9 +757,6 @@
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
     <t>44 pin edge</t>
   </si>
   <si>
@@ -774,60 +766,27 @@
     <t>Board layout</t>
   </si>
   <si>
-    <t>Data\Commodore VIC-20\250403\Board layout.jpg</t>
-  </si>
-  <si>
     <t>Kernal ROM</t>
   </si>
   <si>
     <t>SAMS ComputerFacts; VIC-20 Early Version</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
-  </si>
-  <si>
     <t>SAMS ComputerFacts; VIC-20</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\mos_6560_6561_vic.pdf</t>
-  </si>
-  <si>
     <t>MOS 6560/6561 VIC-I technical details</t>
   </si>
   <si>
     <t>MOS 6500 technical details</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\mos_6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6502CPU_Pinout.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\VIC-20 Color-Colour Memory Map.jpg</t>
-  </si>
-  <si>
     <t>VIC-20 memory map (color)</t>
   </si>
   <si>
     <t>VIC-20 memory map (with expanded memory)</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Board local files\VIC-20 memory map basic screen color.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore VIC-20\250403\251027-1of3-IO.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore VIC-20\250403\251027-2of3-CPU-VIC.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore VIC-20\250403\251027-3of3-RAM-ROM.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -855,99 +814,42 @@
     <t>Schematic 251027 RAM &amp; ROM</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\2114.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 2114</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2364.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 2364</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS245.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 74245</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\SN74LS245.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS133.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 74LS133</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\SN54LS133.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\2332.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 2332</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6560.jpg</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/MOS_Technology_VIC</t>
   </si>
   <si>
     <t>MOS Technology VIC</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\555.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for NE555</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\NE555.PDF</t>
-  </si>
-  <si>
     <t>https://www.electronicsforu.com/technology-trends/learn-electronics/555-timer-working-specifications</t>
   </si>
   <si>
     <t>555 Timer IC Pinout, Circuit, Working, and Datasheet</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\4066.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 4066</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\HCF4066B.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS138.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 74LS138</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\74LS138-139.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\6522.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Board local files\mos_6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
     <t>MOS 6522 Preliminary Datasheet</t>
   </si>
   <si>
@@ -961,12 +863,6 @@
   </si>
   <si>
     <t>Datasheet for M58725P</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\M58725P-Mitsubishi.pdf</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\M58725P</t>
   </si>
   <si>
     <t>Color RAM</t>
@@ -996,24 +892,12 @@
     <t>Static RAM</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\74LS04.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 74LS04</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\SN74LS04.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\74LS02.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 74LS02</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\DM74LS02.PDF</t>
-  </si>
-  <si>
     <t>Logic NAND gate</t>
   </si>
   <si>
@@ -1023,45 +907,171 @@
     <t>Logic NOR gate</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\7408.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 7408</t>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component local files\SN7408.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\7406.jpg</t>
-  </si>
-  <si>
     <t>Datasheet for 7406</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component local files\SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 User Port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 Cassette Port.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 Serial.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 Audio-Video.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 Joystick.jpg</t>
-  </si>
-  <si>
-    <t>Data\Commodore shared files\Component images\VIC-20 Expansion.jpg</t>
   </si>
   <si>
     <t>Schematics shows "4.433618 MHz", but every information I can find says the below is true:
 PAL = 8.867236 MHz
 NTSC = 14.31818 MHz</t>
+  </si>
+  <si>
+    <t>The power plug is fully compatible with the C64, so you can use a power supply from a C64.</t>
+  </si>
+  <si>
+    <t>VIC-20 and C64 keyboards are compatible, so they can be interchanged.</t>
+  </si>
+  <si>
+    <t>Bridge rectifier</t>
+  </si>
+  <si>
+    <t>Data/Commodore VIC-20/250403/251027-1of3-IO.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore VIC-20/250403/251027-2of3-CPU-VIC.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore VIC-20/250403/251027-3of3-RAM-ROM.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore VIC-20/250403/Board layout.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 User Port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 Cassette Port.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 Serial.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 Audio-Video.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 Joystick.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/VIC-20 Expansion.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/Power_connector.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6502CPU_Pinout.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6560.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6522.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/M58725P.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/555.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS04.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS02.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS138.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS133.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/74LS245.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/NE555.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN74LS04.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/DM74LS02.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/HCF4066B.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/74LS138-139.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN54LS133.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN7408.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component local files/SN74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/VIC-20 Color-Colour Memory Map.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/VIC-20 memory map basic screen color.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
   </si>
   <si>
     <r>
@@ -1076,17 +1086,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-20</t>
+      <t>2025-April-25</t>
     </r>
   </si>
   <si>
-    <t>Data\Commodore shared files\Component images\Power_connector.jpg</t>
-  </si>
-  <si>
-    <t>The power plug is fully compatible with the C64, so you can use a power supply from a C64.</t>
-  </si>
-  <si>
-    <t>VIC-20 and C64 keyboards are compatible, so they can be interchanged.</t>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Component behaviour</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1286,6 +1299,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1608,7 +1654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1680,7 @@
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1718,10 +1764,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1741,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1764,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1787,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>9</v>
@@ -1903,9 +1949,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,7 +2026,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>132</v>
@@ -1994,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>132</v>
@@ -2008,7 +2054,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>132</v>
@@ -2022,10 +2068,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
@@ -2036,10 +2082,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>16</v>
@@ -2050,10 +2096,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
@@ -2064,10 +2110,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -2078,7 +2124,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>132</v>
@@ -2092,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>132</v>
@@ -2106,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>132</v>
@@ -2123,7 +2169,7 @@
         <v>134</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -2134,7 +2180,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>132</v>
@@ -2148,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>132</v>
@@ -2165,7 +2211,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>16</v>
@@ -2176,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>132</v>
@@ -2193,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>16</v>
@@ -2204,7 +2250,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>132</v>
@@ -2218,7 +2264,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>132</v>
@@ -2232,7 +2278,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>132</v>
@@ -2246,7 +2292,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>132</v>
@@ -2260,7 +2306,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>132</v>
@@ -2274,7 +2320,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>132</v>
@@ -2288,7 +2334,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>132</v>
@@ -2302,7 +2348,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>132</v>
@@ -2316,7 +2362,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>132</v>
@@ -2325,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2333,7 +2379,7 @@
         <v>63</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>132</v>
@@ -2347,7 +2393,7 @@
         <v>97</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>132</v>
@@ -2361,7 +2407,7 @@
         <v>67</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>132</v>
@@ -2375,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>132</v>
@@ -2389,7 +2435,7 @@
         <v>79</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>132</v>
@@ -2417,7 +2463,7 @@
         <v>81</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>132</v>
@@ -2434,7 +2480,7 @@
         <v>135</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>16</v>
@@ -2448,7 +2494,7 @@
         <v>135</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>16</v>
@@ -2459,7 +2505,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>132</v>
@@ -2473,7 +2519,7 @@
         <v>84</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>132</v>
@@ -2487,7 +2533,7 @@
         <v>85</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>141</v>
@@ -2501,7 +2547,7 @@
         <v>86</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>132</v>
@@ -2515,7 +2561,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>132</v>
@@ -2532,7 +2578,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>16</v>
@@ -2543,7 +2589,7 @@
         <v>89</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>132</v>
@@ -2557,7 +2603,7 @@
         <v>90</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>132</v>
@@ -2571,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>132</v>
@@ -2585,7 +2631,7 @@
         <v>92</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>132</v>
@@ -2599,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>132</v>
@@ -2613,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>133</v>
@@ -2627,7 +2673,7 @@
         <v>95</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>132</v>
@@ -2641,7 +2687,7 @@
         <v>96</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>132</v>
@@ -2652,86 +2698,86 @@
     </row>
     <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="D57" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>181</v>
-      </c>
       <c r="C60" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2750,10 +2796,10 @@
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>72</v>
@@ -2762,12 +2808,12 @@
         <v>36</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>114</v>
@@ -2781,7 +2827,7 @@
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>115</v>
@@ -2795,7 +2841,7 @@
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>37</v>
@@ -2809,7 +2855,7 @@
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
@@ -2823,13 +2869,13 @@
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>36</v>
@@ -2837,10 +2883,10 @@
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>69</v>
@@ -2851,10 +2897,10 @@
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>101</v>
@@ -2863,12 +2909,12 @@
         <v>36</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="14">
         <v>6502</v>
@@ -2882,30 +2928,30 @@
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="14">
         <v>6560</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="14">
         <v>6522</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>35</v>
@@ -2914,13 +2960,13 @@
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B75" s="14">
         <v>6522</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>35</v>
@@ -2929,7 +2975,7 @@
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B76" s="14">
         <v>2364</v>
@@ -2941,35 +2987,35 @@
         <v>35</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B77" s="14">
         <v>2364</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B78" s="14">
         <v>2332</v>
@@ -2981,70 +3027,70 @@
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B79" s="14">
         <v>2114</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B80" s="14">
         <v>2114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B81" s="14">
         <v>2114</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3052,16 +3098,16 @@
         <v>30</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3069,27 +3115,27 @@
         <v>31</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B84" s="14">
         <v>555</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>35</v>
@@ -3097,13 +3143,13 @@
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="14">
         <v>7402</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>35</v>
@@ -3111,13 +3157,13 @@
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>35</v>
@@ -3125,13 +3171,13 @@
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>153</v>
-      </c>
       <c r="C87" s="14" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>35</v>
@@ -3139,13 +3185,13 @@
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>35</v>
@@ -3153,13 +3199,13 @@
     </row>
     <row r="89" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>35</v>
@@ -3167,13 +3213,13 @@
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>35</v>
@@ -3181,7 +3227,7 @@
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B91" s="14">
         <v>4066</v>
@@ -3195,19 +3241,19 @@
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>158</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3218,7 +3264,7 @@
         <v>34</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>35</v>
@@ -3226,13 +3272,13 @@
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" s="14">
         <v>7406</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>35</v>
@@ -3240,13 +3286,13 @@
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>35</v>
@@ -3254,13 +3300,13 @@
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>35</v>
@@ -3268,13 +3314,13 @@
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="C97" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>35</v>
@@ -3282,13 +3328,13 @@
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="C98" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>64</v>
@@ -3322,7 +3368,7 @@
         <v>64</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3538,7 +3584,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>97</v>
@@ -3558,7 +3604,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>67</v>
@@ -3578,7 +3624,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>27</v>
@@ -3598,7 +3644,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>79</v>
@@ -3618,7 +3664,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>80</v>
@@ -3638,7 +3684,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>81</v>
@@ -3658,7 +3704,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>82</v>
@@ -3678,7 +3724,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>83</v>
@@ -3698,7 +3744,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>28</v>
@@ -3718,7 +3764,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>84</v>
@@ -3738,7 +3784,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>85</v>
@@ -3758,7 +3804,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>86</v>
@@ -3778,7 +3824,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>87</v>
@@ -3798,7 +3844,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>88</v>
@@ -3818,7 +3864,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>89</v>
@@ -3838,7 +3884,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>90</v>
@@ -3858,7 +3904,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>68</v>
@@ -3878,10 +3924,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C26" s="18">
         <v>1758</v>
@@ -3898,10 +3944,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C27" s="18">
         <v>2822</v>
@@ -3918,10 +3964,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="18">
         <v>3842</v>
@@ -3938,10 +3984,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="18">
         <v>3221</v>
@@ -3958,10 +4004,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="18">
         <v>2430</v>
@@ -3978,10 +4024,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C31" s="18">
         <v>3524</v>
@@ -3998,10 +4044,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="18">
         <v>2833</v>
@@ -4018,10 +4064,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" s="18">
         <v>5253</v>
@@ -4038,10 +4084,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C34" s="18">
         <v>3066</v>
@@ -4058,10 +4104,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C35" s="18">
         <v>2681</v>
@@ -4078,10 +4124,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C36" s="18">
         <v>3043</v>
@@ -4098,7 +4144,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>102</v>
@@ -4118,7 +4164,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>102</v>
@@ -4138,10 +4184,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="18">
         <v>840</v>
@@ -4158,10 +4204,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" s="18">
         <v>821</v>
@@ -4178,10 +4224,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="18">
         <v>2227</v>
@@ -4198,10 +4244,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="18">
         <v>2231</v>
@@ -4218,10 +4264,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" s="18">
         <v>2210</v>
@@ -4238,10 +4284,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="18">
         <v>3388</v>
@@ -4258,10 +4304,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" s="18">
         <v>3132</v>
@@ -4278,10 +4324,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="18">
         <v>3335</v>
@@ -4298,10 +4344,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="18">
         <v>3048</v>
@@ -4318,10 +4364,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="18">
         <v>3030</v>
@@ -4338,7 +4384,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>65</v>
@@ -4358,7 +4404,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>17</v>
@@ -4378,7 +4424,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>18</v>
@@ -4398,7 +4444,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>66</v>
@@ -4418,7 +4464,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>19</v>
@@ -4438,7 +4484,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>20</v>
@@ -4458,7 +4504,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>21</v>
@@ -4478,7 +4524,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>77</v>
@@ -4498,7 +4544,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4518,7 +4564,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>22</v>
@@ -4538,7 +4584,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -4558,7 +4604,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>24</v>
@@ -4578,7 +4624,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>25</v>
@@ -4598,7 +4644,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>26</v>
@@ -4618,7 +4664,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>52</v>
@@ -4638,7 +4684,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>53</v>
@@ -4658,7 +4704,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>55</v>
@@ -4678,7 +4724,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>56</v>
@@ -4698,7 +4744,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>91</v>
@@ -4718,7 +4764,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>93</v>
@@ -4738,7 +4784,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>94</v>
@@ -4758,7 +4804,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>96</v>
@@ -4778,10 +4824,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71" s="18">
         <v>5365</v>
@@ -4798,10 +4844,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" s="18">
         <v>5315</v>
@@ -4818,10 +4864,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="18">
         <v>4567</v>
@@ -4838,10 +4884,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="18">
         <v>4946</v>
@@ -4858,10 +4904,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" s="18">
         <v>4175</v>
@@ -4878,10 +4924,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="18">
         <v>3888</v>
@@ -4898,10 +4944,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="18">
         <v>2596</v>
@@ -4918,10 +4964,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78" s="18">
         <v>3069</v>
@@ -4938,10 +4984,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="18">
         <v>3223</v>
@@ -4958,10 +5004,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="18">
         <v>3242</v>
@@ -4978,10 +5024,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="18">
         <v>1303</v>
@@ -4998,10 +5044,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="18">
         <v>2721</v>
@@ -5018,10 +5064,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="18">
         <v>3156</v>
@@ -5038,10 +5084,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="18">
         <v>810</v>
@@ -5058,10 +5104,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="18">
         <v>2339</v>
@@ -5078,10 +5124,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="18">
         <v>2889</v>
@@ -5098,10 +5144,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="18">
         <v>1640</v>
@@ -5118,10 +5164,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="18">
         <v>2766</v>
@@ -5138,10 +5184,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" s="18">
         <v>1642</v>
@@ -5158,10 +5204,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="18">
         <v>666</v>
@@ -5178,10 +5224,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" s="18">
         <v>1642</v>
@@ -5198,7 +5244,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>98</v>
@@ -5218,7 +5264,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>54</v>
@@ -5238,7 +5284,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>57</v>
@@ -5258,7 +5304,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>58</v>
@@ -5278,7 +5324,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>59</v>
@@ -5298,7 +5344,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>60</v>
@@ -5318,7 +5364,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>61</v>
@@ -5338,7 +5384,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>62</v>
@@ -5358,7 +5404,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>63</v>
@@ -5378,7 +5424,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>92</v>
@@ -5398,7 +5444,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>95</v>
@@ -5418,7 +5464,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>29</v>
@@ -5438,7 +5484,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>29</v>
@@ -5458,7 +5504,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>29</v>
@@ -5478,7 +5524,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>29</v>
@@ -5498,7 +5544,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>30</v>
@@ -5518,7 +5564,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>31</v>
@@ -5538,10 +5584,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" s="18">
         <v>630</v>
@@ -5558,10 +5604,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" s="18">
         <v>978</v>
@@ -5578,10 +5624,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="18">
         <v>1355</v>
@@ -5598,10 +5644,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C112" s="18">
         <v>2013</v>
@@ -5618,10 +5664,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C113" s="18">
         <v>1390</v>
@@ -5638,10 +5684,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C114" s="18">
         <v>5141</v>
@@ -5658,10 +5704,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C115" s="18">
         <v>773</v>
@@ -5678,10 +5724,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C116" s="18">
         <v>2041</v>
@@ -5698,10 +5744,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C117" s="18">
         <v>2651</v>
@@ -5718,10 +5764,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C118" s="18">
         <v>4519</v>
@@ -5738,10 +5784,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C119" s="18">
         <v>5138</v>
@@ -5758,7 +5804,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>65</v>
@@ -5778,7 +5824,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>17</v>
@@ -5798,7 +5844,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>18</v>
@@ -5818,7 +5864,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>66</v>
@@ -5838,7 +5884,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>19</v>
@@ -5858,7 +5904,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>20</v>
@@ -5878,7 +5924,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>21</v>
@@ -5898,7 +5944,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>77</v>
@@ -5918,7 +5964,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>78</v>
@@ -5938,7 +5984,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>22</v>
@@ -5958,7 +6004,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>23</v>
@@ -5978,7 +6024,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>24</v>
@@ -5998,7 +6044,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>25</v>
@@ -6018,7 +6064,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>26</v>
@@ -6038,7 +6084,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>52</v>
@@ -6058,7 +6104,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>53</v>
@@ -6078,7 +6124,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>54</v>
@@ -6098,7 +6144,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>55</v>
@@ -6118,7 +6164,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>56</v>
@@ -6138,7 +6184,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>57</v>
@@ -6158,7 +6204,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>58</v>
@@ -6178,7 +6224,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>59</v>
@@ -6198,7 +6244,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>60</v>
@@ -6218,7 +6264,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>61</v>
@@ -6238,7 +6284,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>62</v>
@@ -6258,7 +6304,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>63</v>
@@ -6278,7 +6324,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>97</v>
@@ -6298,7 +6344,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>67</v>
@@ -6318,7 +6364,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>27</v>
@@ -6338,7 +6384,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>79</v>
@@ -6358,7 +6404,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>80</v>
@@ -6378,7 +6424,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>81</v>
@@ -6398,7 +6444,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>82</v>
@@ -6418,7 +6464,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>83</v>
@@ -6438,7 +6484,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>28</v>
@@ -6458,7 +6504,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>84</v>
@@ -6478,7 +6524,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>85</v>
@@ -6498,7 +6544,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>86</v>
@@ -6518,7 +6564,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>87</v>
@@ -6538,7 +6584,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>88</v>
@@ -6558,7 +6604,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>89</v>
@@ -6578,7 +6624,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>90</v>
@@ -6598,7 +6644,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>91</v>
@@ -6618,7 +6664,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>92</v>
@@ -6638,7 +6684,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>93</v>
@@ -6658,7 +6704,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>94</v>
@@ -6678,7 +6724,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>95</v>
@@ -6698,7 +6744,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>96</v>
@@ -6718,7 +6764,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>68</v>
@@ -6738,10 +6784,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C169" s="18">
         <v>220</v>
@@ -6758,10 +6804,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C170" s="18">
         <v>735</v>
@@ -6778,10 +6824,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C171" s="18">
         <v>2183</v>
@@ -6798,10 +6844,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C172" s="18">
         <v>2256</v>
@@ -6818,10 +6864,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C173" s="18">
         <v>238</v>
@@ -6838,10 +6884,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C174" s="18">
         <v>741</v>
@@ -6858,10 +6904,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C175" s="18">
         <v>1035</v>
@@ -6878,10 +6924,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="18">
         <v>1215</v>
@@ -6898,10 +6944,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C177" s="18">
         <v>2299</v>
@@ -6918,10 +6964,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C178" s="18">
         <v>1378</v>
@@ -6938,10 +6984,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="18">
         <v>2306</v>
@@ -6958,10 +7004,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="18">
         <v>923</v>
@@ -6978,10 +7024,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="18">
         <v>953</v>
@@ -6998,10 +7044,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182" s="18">
         <v>668</v>
@@ -7018,10 +7064,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C183" s="18">
         <v>689</v>
@@ -7038,7 +7084,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>102</v>
@@ -7058,7 +7104,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>29</v>
@@ -7078,7 +7124,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>30</v>
@@ -7098,7 +7144,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>31</v>
@@ -7118,10 +7164,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C188" s="18">
         <v>266</v>
@@ -7138,10 +7184,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="18">
         <v>413</v>
@@ -7158,10 +7204,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C190" s="18">
         <v>570</v>
@@ -7178,10 +7224,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C191" s="18">
         <v>570</v>
@@ -7198,10 +7244,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C192" s="18">
         <v>884</v>
@@ -7218,10 +7264,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C193" s="18">
         <v>1244</v>
@@ -7238,10 +7284,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C194" s="18">
         <v>1382</v>
@@ -7258,10 +7304,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C195" s="18">
         <v>1457</v>
@@ -7278,10 +7324,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C196" s="18">
         <v>1517</v>
@@ -7298,10 +7344,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C197" s="18">
         <v>1788</v>
@@ -7318,10 +7364,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C198" s="18">
         <v>1606</v>
@@ -7338,10 +7384,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="18">
         <v>838</v>
@@ -7358,10 +7404,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C200" s="18">
         <v>570</v>
@@ -7378,10 +7424,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C201" s="18">
         <v>922</v>
@@ -7398,10 +7444,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C202" s="18">
         <v>1260</v>
@@ -7418,10 +7464,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C203" s="18">
         <v>1697</v>
@@ -7438,10 +7484,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C204" s="18">
         <v>748</v>
@@ -7458,10 +7504,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C205" s="18">
         <v>660</v>
@@ -7478,10 +7524,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C206" s="18">
         <v>1154</v>
@@ -7498,10 +7544,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C207" s="18">
         <v>1960</v>
@@ -7518,10 +7564,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C208" s="18">
         <v>1674</v>
@@ -7538,10 +7584,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C209" s="18">
         <v>1810</v>
@@ -7558,10 +7604,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C210" s="18">
         <v>1547</v>
@@ -7578,7 +7624,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>98</v>
@@ -9438,848 +9484,1216 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D2A4B1-8E0B-46C6-8B83-02048610537D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="37"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="E8" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="E15" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="E16" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="E17" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="E18" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="E19" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="E20" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="E21" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="E22" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="E23" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="E24" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="E34" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="14" t="s">
+      <c r="E39" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="39"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="39"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="39"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="39"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="39"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="39"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="39"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="39"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="39"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="39"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="39"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="39"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="39"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="39"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="39"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="39"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="39"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="39"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="39"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="39"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="39"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="39"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="39"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="39"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="39"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="39"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="39"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="39"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="39"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="39"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="39"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="39"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="39"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="39"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="39"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="39"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="39"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="39"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="39"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="39"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="39"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="39"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="39"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="39"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="39"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="39"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="39"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="39"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="39"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="39"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="39"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="39"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="39"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="39"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="39"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="39"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="39"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="39"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="39"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="39"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="39"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-    </row>
-    <row r="109" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="39"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="109" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
-    </row>
-    <row r="110" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="29"/>
+      <c r="C109" s="35"/>
+    </row>
+    <row r="110" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110"/>
-    </row>
-    <row r="111" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
-    </row>
-    <row r="112" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="27"/>
+      <c r="C111" s="41"/>
+    </row>
+    <row r="112" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
-    </row>
-    <row r="113" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="39"/>
+    </row>
+    <row r="114" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="39"/>
+    </row>
+    <row r="115" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
-    </row>
-    <row r="116" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="28"/>
+      <c r="C115" s="42"/>
+    </row>
+    <row r="116" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="39"/>
+    </row>
+    <row r="117" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="39"/>
+    </row>
+    <row r="118" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="39"/>
+    </row>
+    <row r="119" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
-    </row>
-    <row r="120" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="42"/>
+    </row>
+    <row r="120" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="39"/>
+    </row>
+    <row r="121" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="39"/>
+    </row>
+    <row r="122" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="39"/>
+    </row>
+    <row r="123" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="39"/>
+    </row>
+    <row r="124" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="39"/>
+    </row>
+    <row r="125" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="39"/>
+    </row>
+    <row r="126" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="39"/>
+    </row>
+    <row r="127" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="39"/>
+    </row>
+    <row r="128" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="39"/>
+    </row>
+    <row r="129" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="39"/>
+    </row>
+    <row r="130" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="39"/>
+    </row>
+    <row r="131" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="39"/>
+    </row>
+    <row r="132" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="39"/>
+    </row>
+    <row r="133" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="39"/>
+    </row>
+    <row r="134" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="39"/>
+    </row>
+    <row r="135" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="39"/>
+    </row>
+    <row r="136" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="39"/>
+    </row>
+    <row r="137" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="39"/>
+    </row>
+    <row r="138" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="39"/>
+    </row>
+    <row r="139" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="39"/>
+    </row>
+    <row r="140" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="39"/>
+    </row>
+    <row r="141" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="39"/>
+    </row>
+    <row r="142" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="39"/>
+    </row>
+    <row r="143" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="39"/>
+    </row>
+    <row r="144" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="39"/>
+    </row>
+    <row r="145" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="39"/>
+    </row>
+    <row r="146" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="39"/>
+    </row>
+    <row r="147" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="39"/>
+    </row>
+    <row r="148" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="39"/>
+    </row>
+    <row r="149" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="39"/>
+    </row>
+    <row r="150" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="39"/>
+    </row>
+    <row r="151" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="39"/>
+    </row>
+    <row r="152" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="39"/>
+    </row>
+    <row r="153" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="39"/>
+    </row>
+    <row r="154" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="39"/>
+    </row>
+    <row r="155" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="39"/>
+    </row>
+    <row r="156" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="39"/>
+    </row>
+    <row r="157" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="39"/>
+    </row>
+    <row r="158" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="39"/>
+    </row>
+    <row r="159" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="39"/>
+    </row>
+    <row r="160" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="39"/>
+    </row>
+    <row r="161" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="39"/>
+    </row>
+    <row r="162" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="39"/>
+    </row>
+    <row r="163" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="39"/>
+    </row>
+    <row r="164" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="39"/>
+    </row>
+    <row r="165" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="39"/>
+    </row>
+    <row r="166" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="39"/>
+    </row>
+    <row r="167" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="39"/>
+    </row>
+    <row r="168" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="39"/>
+    </row>
+    <row r="169" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="39"/>
+    </row>
+    <row r="170" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="39"/>
+    </row>
+    <row r="171" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="39"/>
+    </row>
+    <row r="172" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="39"/>
+    </row>
+    <row r="173" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="39"/>
+    </row>
+    <row r="174" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="39"/>
+    </row>
+    <row r="175" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="39"/>
+    </row>
+    <row r="176" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="39"/>
+    </row>
+    <row r="177" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="39"/>
+    </row>
+    <row r="178" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="39"/>
+    </row>
+    <row r="179" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="39"/>
+    </row>
+    <row r="180" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="39"/>
+    </row>
+    <row r="181" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="39"/>
+    </row>
+    <row r="182" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="39"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{02566617-EB54-406B-9075-DC98AF034C96}"/>
@@ -10290,13 +10704,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE779F5-CD59-45E8-A9AB-DFA16E5A5277}">
+  <dimension ref="A1:F198"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="E77" s="14"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="E82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="E83" s="14"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="E95" s="14"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="14"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="14"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="14"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="14"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="14"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="14"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="14"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="14"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="14"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="39"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="39"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="39"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="39"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="39"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{05F6F7B8-B24E-4B89-BB30-63D17A5C8CA5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10360,189 +11818,189 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10550,10 +12008,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10561,98 +12019,98 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10660,54 +12118,54 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -10901,7 +12359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C29"/>
@@ -10964,46 +12422,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11036,7 +12494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C31"/>
@@ -11105,57 +12563,57 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>238</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11166,7 +12624,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11206,7 +12664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C30"/>
@@ -11270,10 +12728,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11281,10 +12739,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11295,7 +12753,7 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DD43A-14C1-44B8-9741-F945093FB298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04F25C-0AA5-4DB0-B682-DE68F947B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="4" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="8" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -790,9 +790,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>https://www.zimmers.net/anonftp/pub/cbm/schematics/computers/vic20/index.html</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/VIC-20</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
   </si>
   <si>
     <t>Zimmers; Commodore VIC-20</t>
-  </si>
-  <si>
-    <t>My Old Computer; Commodore VIC-20</t>
   </si>
   <si>
     <t>Schematic 251027 I/O</t>
@@ -1100,6 +1094,18 @@
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/vic20/</t>
+  </si>
+  <si>
+    <t>Reddit; VIC-20</t>
+  </si>
+  <si>
+    <t>https://www.zimmers.net/anonftp/pub/cbm/schematics/computers/vic20/</t>
+  </si>
+  <si>
+    <t>My Old Computer; Commodore VIC-20 (Cost Reduced)</t>
   </si>
 </sst>
 </file>
@@ -1297,9 +1303,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1332,6 +1335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1680,7 +1686,7 @@
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1729,12 +1735,12 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
@@ -1764,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1787,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1810,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -1836,7 +1842,7 @@
         <v>229</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>9</v>
@@ -2718,7 +2724,7 @@
         <v>190</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>218</v>
@@ -2808,7 +2814,7 @@
         <v>36</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2909,7 +2915,7 @@
         <v>36</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2987,7 +2993,7 @@
         <v>35</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>222</v>
@@ -3007,7 +3013,7 @@
         <v>35</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>223</v>
@@ -3027,7 +3033,7 @@
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>224</v>
@@ -3041,16 +3047,16 @@
         <v>2114</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3061,16 +3067,16 @@
         <v>2114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3081,16 +3087,16 @@
         <v>2114</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3101,13 +3107,13 @@
         <v>212</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>212</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3155,7 @@
         <v>7402</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>35</v>
@@ -3177,7 +3183,7 @@
         <v>152</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>35</v>
@@ -3247,7 +3253,7 @@
         <v>157</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>35</v>
@@ -3264,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>35</v>
@@ -3368,7 +3374,7 @@
         <v>64</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3584,7 +3590,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>97</v>
@@ -3604,7 +3610,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>67</v>
@@ -3624,7 +3630,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>27</v>
@@ -3644,7 +3650,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>79</v>
@@ -3664,7 +3670,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>80</v>
@@ -3684,7 +3690,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>81</v>
@@ -3704,7 +3710,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>82</v>
@@ -3724,7 +3730,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>83</v>
@@ -3744,7 +3750,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>28</v>
@@ -3764,7 +3770,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>84</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>85</v>
@@ -3804,7 +3810,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>86</v>
@@ -3824,7 +3830,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>87</v>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>88</v>
@@ -3864,7 +3870,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>89</v>
@@ -3884,7 +3890,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>90</v>
@@ -3904,7 +3910,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>68</v>
@@ -3924,7 +3930,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>207</v>
@@ -3944,7 +3950,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>198</v>
@@ -3964,7 +3970,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>189</v>
@@ -3984,7 +3990,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>192</v>
@@ -4004,7 +4010,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>184</v>
@@ -4024,7 +4030,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>197</v>
@@ -4044,7 +4050,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>186</v>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>206</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>187</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>185</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>195</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>102</v>
@@ -4164,7 +4170,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>102</v>
@@ -4184,7 +4190,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>181</v>
@@ -4204,7 +4210,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>183</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>170</v>
@@ -4244,7 +4250,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>170</v>
@@ -4264,7 +4270,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>170</v>
@@ -4284,7 +4290,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>170</v>
@@ -4304,7 +4310,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>204</v>
@@ -4324,7 +4330,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>153</v>
@@ -4344,7 +4350,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>201</v>
@@ -4364,7 +4370,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>203</v>
@@ -4384,7 +4390,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>65</v>
@@ -4404,7 +4410,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>17</v>
@@ -4424,7 +4430,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>18</v>
@@ -4444,7 +4450,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>66</v>
@@ -4464,7 +4470,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>19</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>20</v>
@@ -4504,7 +4510,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>21</v>
@@ -4524,7 +4530,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>77</v>
@@ -4544,7 +4550,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>22</v>
@@ -4584,7 +4590,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -4604,7 +4610,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>24</v>
@@ -4624,7 +4630,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>25</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>26</v>
@@ -4664,7 +4670,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>52</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>53</v>
@@ -4704,7 +4710,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>55</v>
@@ -4724,7 +4730,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>56</v>
@@ -4744,7 +4750,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>91</v>
@@ -4764,7 +4770,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>93</v>
@@ -4784,7 +4790,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>94</v>
@@ -4804,7 +4810,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>96</v>
@@ -4824,7 +4830,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>173</v>
@@ -4844,7 +4850,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>171</v>
@@ -4864,7 +4870,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>174</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>179</v>
@@ -4904,7 +4910,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>170</v>
@@ -4924,7 +4930,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>166</v>
@@ -4944,7 +4950,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>158</v>
@@ -4964,7 +4970,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>158</v>
@@ -4984,7 +4990,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>158</v>
@@ -5004,7 +5010,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>158</v>
@@ -5024,7 +5030,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>153</v>
@@ -5044,7 +5050,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>153</v>
@@ -5064,7 +5070,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>153</v>
@@ -5084,7 +5090,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>151</v>
@@ -5104,7 +5110,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>151</v>
@@ -5124,7 +5130,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>151</v>
@@ -5144,7 +5150,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>149</v>
@@ -5164,7 +5170,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>156</v>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>150</v>
@@ -5204,7 +5210,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>147</v>
@@ -5224,7 +5230,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>145</v>
@@ -5244,7 +5250,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>98</v>
@@ -5264,7 +5270,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>54</v>
@@ -5284,7 +5290,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>57</v>
@@ -5304,7 +5310,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>58</v>
@@ -5324,7 +5330,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>59</v>
@@ -5344,7 +5350,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>60</v>
@@ -5364,7 +5370,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>61</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>62</v>
@@ -5404,7 +5410,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>63</v>
@@ -5424,7 +5430,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>92</v>
@@ -5444,7 +5450,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>95</v>
@@ -5464,7 +5470,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>29</v>
@@ -5484,7 +5490,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>29</v>
@@ -5504,7 +5510,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>29</v>
@@ -5524,7 +5530,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>29</v>
@@ -5544,7 +5550,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>30</v>
@@ -5564,7 +5570,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>31</v>
@@ -5584,7 +5590,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>153</v>
@@ -5604,7 +5610,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>153</v>
@@ -5624,7 +5630,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>151</v>
@@ -5644,7 +5650,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>208</v>
@@ -5664,7 +5670,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>209</v>
@@ -5684,7 +5690,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>213</v>
@@ -5704,7 +5710,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>216</v>
@@ -5724,7 +5730,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>210</v>
@@ -5744,7 +5750,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>211</v>
@@ -5764,7 +5770,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>214</v>
@@ -5784,7 +5790,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>215</v>
@@ -9495,7 +9501,7 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -9506,19 +9512,19 @@
         <v>142</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
@@ -9527,7 +9533,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="G4" s="14"/>
@@ -9537,7 +9543,7 @@
         <v>128</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="G5" s="14"/>
@@ -9545,7 +9551,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
@@ -9554,7 +9560,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
@@ -9563,10 +9569,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>331</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>0</v>
@@ -9580,12 +9586,12 @@
         <v>184</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9593,12 +9599,12 @@
         <v>197</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9606,12 +9612,12 @@
         <v>186</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9619,12 +9625,12 @@
         <v>173</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9632,12 +9638,12 @@
         <v>171</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9645,12 +9651,12 @@
         <v>206</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9658,12 +9664,12 @@
         <v>187</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -9671,12 +9677,12 @@
         <v>147</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9684,12 +9690,12 @@
         <v>166</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9697,12 +9703,12 @@
         <v>181</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9710,12 +9716,12 @@
         <v>183</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9723,12 +9729,12 @@
         <v>214</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9736,12 +9742,12 @@
         <v>215</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9749,12 +9755,12 @@
         <v>213</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9762,12 +9768,12 @@
         <v>211</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9775,12 +9781,12 @@
         <v>216</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9788,12 +9794,12 @@
         <v>210</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9801,12 +9807,12 @@
         <v>30</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="39"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9814,12 +9820,12 @@
         <v>31</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -9827,12 +9833,12 @@
         <v>204</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="39"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -9840,12 +9846,12 @@
         <v>153</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="39"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -9853,12 +9859,12 @@
         <v>151</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="39"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -9866,12 +9872,12 @@
         <v>209</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="39"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -9879,12 +9885,12 @@
         <v>208</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="39"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -9892,12 +9898,12 @@
         <v>201</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="39"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -9905,12 +9911,12 @@
         <v>203</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="39"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -9918,12 +9924,12 @@
         <v>156</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="39"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9931,12 +9937,12 @@
         <v>29</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="39"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -9944,12 +9950,12 @@
         <v>170</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="39"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -9957,12 +9963,12 @@
         <v>149</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -9970,12 +9976,12 @@
         <v>150</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -9983,487 +9989,487 @@
         <v>145</v>
       </c>
       <c r="B40" s="18"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="39"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="39"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="39"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="39"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="39"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="39"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="39"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="39"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="39"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="39"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="39"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="39"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="39"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="39"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="39"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="39"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="39"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="39"/>
+      <c r="C66" s="38"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="39"/>
+      <c r="C67" s="38"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="39"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="39"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="39"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="39"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="39"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="39"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="39"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="39"/>
+      <c r="C78" s="38"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="39"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="39"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="39"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="39"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="39"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="39"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="39"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="39"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="39"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="39"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="39"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="39"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="39"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="39"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="39"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="39"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="39"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="39"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="39"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="39"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="39"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="39"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="39"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="39"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="39"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="39"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="39"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="39"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="39"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
     </row>
     <row r="109" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
-      <c r="C109" s="35"/>
+      <c r="C109" s="34"/>
     </row>
     <row r="110" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110"/>
@@ -10473,7 +10479,7 @@
     <row r="111" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
-      <c r="C111" s="41"/>
+      <c r="C111" s="40"/>
     </row>
     <row r="112" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
@@ -10481,218 +10487,218 @@
       <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="39"/>
+      <c r="C113" s="38"/>
     </row>
     <row r="114" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="39"/>
+      <c r="C114" s="38"/>
     </row>
     <row r="115" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
-      <c r="C115" s="42"/>
+      <c r="C115" s="41"/>
     </row>
     <row r="116" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="39"/>
+      <c r="C116" s="38"/>
     </row>
     <row r="117" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="39"/>
+      <c r="C117" s="38"/>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="39"/>
+      <c r="C118" s="38"/>
     </row>
     <row r="119" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="42"/>
+      <c r="C119" s="41"/>
     </row>
     <row r="120" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="39"/>
+      <c r="C120" s="38"/>
     </row>
     <row r="121" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="39"/>
+      <c r="C121" s="38"/>
     </row>
     <row r="122" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="39"/>
+      <c r="C122" s="38"/>
     </row>
     <row r="123" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="39"/>
+      <c r="C123" s="38"/>
     </row>
     <row r="124" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="39"/>
+      <c r="C124" s="38"/>
     </row>
     <row r="125" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="39"/>
+      <c r="C125" s="38"/>
     </row>
     <row r="126" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="39"/>
+      <c r="C126" s="38"/>
     </row>
     <row r="127" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="39"/>
+      <c r="C127" s="38"/>
     </row>
     <row r="128" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="39"/>
+      <c r="C128" s="38"/>
     </row>
     <row r="129" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="39"/>
+      <c r="C129" s="38"/>
     </row>
     <row r="130" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="39"/>
+      <c r="C130" s="38"/>
     </row>
     <row r="131" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="39"/>
+      <c r="C131" s="38"/>
     </row>
     <row r="132" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="39"/>
+      <c r="C132" s="38"/>
     </row>
     <row r="133" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="39"/>
+      <c r="C133" s="38"/>
     </row>
     <row r="134" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="39"/>
+      <c r="C134" s="38"/>
     </row>
     <row r="135" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="39"/>
+      <c r="C135" s="38"/>
     </row>
     <row r="136" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="39"/>
+      <c r="C136" s="38"/>
     </row>
     <row r="137" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="39"/>
+      <c r="C137" s="38"/>
     </row>
     <row r="138" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="39"/>
+      <c r="C138" s="38"/>
     </row>
     <row r="139" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="39"/>
+      <c r="C139" s="38"/>
     </row>
     <row r="140" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="39"/>
+      <c r="C140" s="38"/>
     </row>
     <row r="141" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="39"/>
+      <c r="C141" s="38"/>
     </row>
     <row r="142" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="39"/>
+      <c r="C142" s="38"/>
     </row>
     <row r="143" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="39"/>
+      <c r="C143" s="38"/>
     </row>
     <row r="144" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="39"/>
+      <c r="C144" s="38"/>
     </row>
     <row r="145" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="39"/>
+      <c r="C145" s="38"/>
     </row>
     <row r="146" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="39"/>
+      <c r="C146" s="38"/>
     </row>
     <row r="147" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="39"/>
+      <c r="C147" s="38"/>
     </row>
     <row r="148" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="39"/>
+      <c r="C148" s="38"/>
     </row>
     <row r="149" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="39"/>
+      <c r="C149" s="38"/>
     </row>
     <row r="150" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="39"/>
+      <c r="C150" s="38"/>
     </row>
     <row r="151" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="39"/>
+      <c r="C151" s="38"/>
     </row>
     <row r="152" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="39"/>
+      <c r="C152" s="38"/>
     </row>
     <row r="153" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="39"/>
+      <c r="C153" s="38"/>
     </row>
     <row r="154" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="39"/>
+      <c r="C154" s="38"/>
     </row>
     <row r="155" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="39"/>
+      <c r="C155" s="38"/>
     </row>
     <row r="156" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="39"/>
+      <c r="C156" s="38"/>
     </row>
     <row r="157" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="39"/>
+      <c r="C157" s="38"/>
     </row>
     <row r="158" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="39"/>
+      <c r="C158" s="38"/>
     </row>
     <row r="159" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="39"/>
+      <c r="C159" s="38"/>
     </row>
     <row r="160" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="39"/>
+      <c r="C160" s="38"/>
     </row>
     <row r="161" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="39"/>
+      <c r="C161" s="38"/>
     </row>
     <row r="162" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="39"/>
+      <c r="C162" s="38"/>
     </row>
     <row r="163" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="39"/>
+      <c r="C163" s="38"/>
     </row>
     <row r="164" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="39"/>
+      <c r="C164" s="38"/>
     </row>
     <row r="165" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="39"/>
+      <c r="C165" s="38"/>
     </row>
     <row r="166" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="39"/>
+      <c r="C166" s="38"/>
     </row>
     <row r="167" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="39"/>
+      <c r="C167" s="38"/>
     </row>
     <row r="168" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="39"/>
+      <c r="C168" s="38"/>
     </row>
     <row r="169" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="39"/>
+      <c r="C169" s="38"/>
     </row>
     <row r="170" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="39"/>
+      <c r="C170" s="38"/>
     </row>
     <row r="171" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="39"/>
+      <c r="C171" s="38"/>
     </row>
     <row r="172" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="39"/>
+      <c r="C172" s="38"/>
     </row>
     <row r="173" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="39"/>
+      <c r="C173" s="38"/>
     </row>
     <row r="174" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="39"/>
+      <c r="C174" s="38"/>
     </row>
     <row r="175" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="39"/>
+      <c r="C175" s="38"/>
     </row>
     <row r="176" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="39"/>
+      <c r="C176" s="38"/>
     </row>
     <row r="177" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="39"/>
+      <c r="C177" s="38"/>
     </row>
     <row r="178" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="39"/>
+      <c r="C178" s="38"/>
     </row>
     <row r="179" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="39"/>
+      <c r="C179" s="38"/>
     </row>
     <row r="180" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="39"/>
+      <c r="C180" s="38"/>
     </row>
     <row r="181" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="39"/>
+      <c r="C181" s="38"/>
     </row>
     <row r="182" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="39"/>
+      <c r="C182" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10707,7 +10713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE779F5-CD59-45E8-A9AB-DFA16E5A5277}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10723,22 +10729,22 @@
         <v>142</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10746,8 +10752,8 @@
         <v>124</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
@@ -10756,25 +10762,25 @@
         <v>128</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -10782,160 +10788,160 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="25" t="s">
         <v>333</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="25" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="39"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="39"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="39"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="39"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="39"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="39"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="39"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="39"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="39"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
@@ -11247,145 +11253,145 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="39"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="39"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="39"/>
+      <c r="C99" s="38"/>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="39"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="39"/>
+      <c r="C101" s="38"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="39"/>
+      <c r="C102" s="38"/>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="39"/>
+      <c r="C103" s="38"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="39"/>
+      <c r="C104" s="38"/>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="39"/>
+      <c r="C105" s="38"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="39"/>
+      <c r="C106" s="38"/>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="39"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="39"/>
+      <c r="C108" s="38"/>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="39"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="39"/>
+      <c r="C110" s="38"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="39"/>
+      <c r="C111" s="38"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="39"/>
+      <c r="C112" s="38"/>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="39"/>
+      <c r="C113" s="38"/>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="39"/>
+      <c r="C114" s="38"/>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="39"/>
+      <c r="C115" s="38"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="39"/>
+      <c r="C116" s="38"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="39"/>
+      <c r="C117" s="38"/>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="39"/>
+      <c r="C118" s="38"/>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="39"/>
+      <c r="C119" s="38"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="39"/>
+      <c r="C120" s="38"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -11583,103 +11589,103 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="39"/>
+      <c r="C169" s="38"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="39"/>
+      <c r="C170" s="38"/>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="39"/>
+      <c r="C171" s="38"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="39"/>
+      <c r="C172" s="38"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="39"/>
+      <c r="C173" s="38"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="39"/>
+      <c r="C174" s="38"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="39"/>
+      <c r="C175" s="38"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="39"/>
+      <c r="C176" s="38"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="39"/>
+      <c r="C177" s="38"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="39"/>
+      <c r="C178" s="38"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="39"/>
+      <c r="C179" s="38"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="39"/>
+      <c r="C180" s="38"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="39"/>
+      <c r="C181" s="38"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="39"/>
+      <c r="C182" s="38"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="39"/>
+      <c r="C183" s="38"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="39"/>
+      <c r="C184" s="38"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
@@ -11824,7 +11830,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11835,7 +11841,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11846,7 +11852,7 @@
         <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11857,7 +11863,7 @@
         <v>226</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -11868,7 +11874,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11879,7 +11885,7 @@
         <v>226</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11890,7 +11896,7 @@
         <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11901,7 +11907,7 @@
         <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11909,10 +11915,10 @@
         <v>181</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11920,10 +11926,10 @@
         <v>183</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11934,7 +11940,7 @@
         <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11942,10 +11948,10 @@
         <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11953,10 +11959,10 @@
         <v>215</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11964,10 +11970,10 @@
         <v>213</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -11975,10 +11981,10 @@
         <v>211</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -11986,10 +11992,10 @@
         <v>216</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -11997,10 +12003,10 @@
         <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12008,10 +12014,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12019,10 +12025,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12030,10 +12036,10 @@
         <v>204</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12041,10 +12047,10 @@
         <v>153</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12052,10 +12058,10 @@
         <v>151</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12063,10 +12069,10 @@
         <v>209</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12074,10 +12080,10 @@
         <v>208</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12085,10 +12091,10 @@
         <v>201</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12096,10 +12102,10 @@
         <v>203</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12107,10 +12113,10 @@
         <v>156</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12118,10 +12124,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12129,10 +12135,10 @@
         <v>170</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12140,10 +12146,10 @@
         <v>149</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12151,10 +12157,10 @@
         <v>150</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12162,10 +12168,10 @@
         <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -12425,10 +12431,10 @@
         <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12436,10 +12442,10 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12447,10 +12453,10 @@
         <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12458,10 +12464,10 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12569,7 +12575,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12580,7 +12586,7 @@
         <v>232</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12591,7 +12597,7 @@
         <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12602,7 +12608,7 @@
         <v>235</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12613,7 +12619,7 @@
         <v>236</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12624,7 +12630,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12669,9 +12675,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12728,10 +12734,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12739,10 +12745,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12753,7 +12759,7 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12800,6 +12806,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
+        <v>334</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
     </row>
@@ -12819,7 +12836,10 @@
       <c r="A30" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{4BAE391D-D770-4093-A2F6-D0EEB4B62063}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04F25C-0AA5-4DB0-B682-DE68F947B393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4871BBE2-BD27-4548-870E-14C63DF5FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="4" activeTab="8" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1068,6 +1068,30 @@
     <t>Data/Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
   </si>
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Component behaviour</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/vic20/</t>
+  </si>
+  <si>
+    <t>Reddit; VIC-20</t>
+  </si>
+  <si>
+    <t>https://www.zimmers.net/anonftp/pub/cbm/schematics/computers/vic20/</t>
+  </si>
+  <si>
+    <t>My Old Computer; Commodore VIC-20 (Cost Reduced)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1080,32 +1104,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-25</t>
+      <t>2025-May-14</t>
     </r>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>Component behaviour</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/vic20/</t>
-  </si>
-  <si>
-    <t>Reddit; VIC-20</t>
-  </si>
-  <si>
-    <t>https://www.zimmers.net/anonftp/pub/cbm/schematics/computers/vic20/</t>
-  </si>
-  <si>
-    <t>My Old Computer; Commodore VIC-20 (Cost Reduced)</t>
   </si>
 </sst>
 </file>
@@ -1658,9 +1658,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -9569,10 +9569,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>330</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>331</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>0</v>
@@ -10776,7 +10776,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="36"/>
@@ -10788,14 +10788,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>330</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>331</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -12675,9 +12675,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12737,7 +12737,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12745,7 +12745,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
@@ -12756,21 +12756,21 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12811,10 +12811,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4871BBE2-BD27-4548-870E-14C63DF5FF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33236C47-1E7F-4543-B536-91979D720865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -954,9 +954,6 @@
     <t>Data/Commodore shared files/Component images/Power_connector.jpg</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/6502CPU_Pinout.jpg</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component images/6560.jpg</t>
   </si>
   <si>
@@ -972,9 +969,6 @@
     <t>Data/Commodore shared files/Component images/2114.jpg</t>
   </si>
   <si>
-    <t>Data/Commodore shared files/Component images/M58725P.jpg</t>
-  </si>
-  <si>
     <t>Data/Commodore shared files/Component images/555.jpg</t>
   </si>
   <si>
@@ -1090,6 +1084,12 @@
   </si>
   <si>
     <t>My Old Computer; Commodore VIC-20 (Cost Reduced)</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/6502.jpg</t>
+  </si>
+  <si>
+    <t>Data/Commodore shared files/Component images/58725P.jpg</t>
   </si>
   <si>
     <r>
@@ -1104,7 +1104,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-14</t>
+      <t>2025-May-31</t>
     </r>
   </si>
 </sst>
@@ -9494,7 +9494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9569,10 +9569,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>0</v>
@@ -9682,7 +9682,7 @@
         <v>107</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -9695,7 +9695,7 @@
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -9708,7 +9708,7 @@
         <v>107</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9721,7 +9721,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9734,7 +9734,7 @@
         <v>107</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9747,7 +9747,7 @@
         <v>107</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9760,7 +9760,7 @@
         <v>107</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9773,7 +9773,7 @@
         <v>107</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9786,7 +9786,7 @@
         <v>107</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -9799,7 +9799,7 @@
         <v>107</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9812,7 +9812,7 @@
         <v>107</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9825,7 +9825,7 @@
         <v>107</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -9838,7 +9838,7 @@
         <v>107</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -9851,7 +9851,7 @@
         <v>107</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -9864,7 +9864,7 @@
         <v>107</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -9877,7 +9877,7 @@
         <v>107</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -9890,7 +9890,7 @@
         <v>107</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -9903,7 +9903,7 @@
         <v>107</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -9916,7 +9916,7 @@
         <v>107</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -9929,7 +9929,7 @@
         <v>107</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9942,7 +9942,7 @@
         <v>107</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -9955,7 +9955,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -9968,7 +9968,7 @@
         <v>107</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -9981,7 +9981,7 @@
         <v>107</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>107</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10713,7 +10713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE779F5-CD59-45E8-A9AB-DFA16E5A5277}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10776,7 +10778,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="36"/>
@@ -10788,14 +10790,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -11759,8 +11761,8 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11830,7 +11832,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11841,7 +11843,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11852,7 +11854,7 @@
         <v>226</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11863,7 +11865,7 @@
         <v>226</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -11874,7 +11876,7 @@
         <v>226</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11885,7 +11887,7 @@
         <v>226</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11896,7 +11898,7 @@
         <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11907,7 +11909,7 @@
         <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11918,7 +11920,7 @@
         <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11929,7 +11931,7 @@
         <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11940,7 +11942,7 @@
         <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11951,7 +11953,7 @@
         <v>245</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11962,7 +11964,7 @@
         <v>245</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11973,7 +11975,7 @@
         <v>248</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -11984,7 +11986,7 @@
         <v>244</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -11995,7 +11997,7 @@
         <v>244</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -12006,7 +12008,7 @@
         <v>244</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12017,7 +12019,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12028,7 +12030,7 @@
         <v>260</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12039,7 +12041,7 @@
         <v>251</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12050,7 +12052,7 @@
         <v>269</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12061,7 +12063,7 @@
         <v>270</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12072,7 +12074,7 @@
         <v>254</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12083,7 +12085,7 @@
         <v>255</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12094,7 +12096,7 @@
         <v>255</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12105,7 +12107,7 @@
         <v>255</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12116,7 +12118,7 @@
         <v>247</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12127,7 +12129,7 @@
         <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12138,7 +12140,7 @@
         <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12149,7 +12151,7 @@
         <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12160,7 +12162,7 @@
         <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12171,7 +12173,7 @@
         <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -12575,7 +12577,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12586,7 +12588,7 @@
         <v>232</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12597,7 +12599,7 @@
         <v>231</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12608,7 +12610,7 @@
         <v>235</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12619,7 +12621,7 @@
         <v>236</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12630,7 +12632,7 @@
         <v>144</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12737,7 +12739,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12745,7 +12747,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
         <v>239</v>
@@ -12811,10 +12813,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33236C47-1E7F-4543-B536-91979D720865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F88FF1-54AB-4FB9-955E-6CABFF456E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="337">
   <si>
     <t>Name</t>
   </si>
@@ -377,9 +377,6 @@
   <si>
     <t>Short one-liner description
 (one short line only!)</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
   <si>
     <t>Schematic name</t>
@@ -1104,7 +1101,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-May-31</t>
+      <t>2025-June-10</t>
     </r>
   </si>
 </sst>
@@ -1218,7 +1215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1280,9 +1277,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1656,7 +1650,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1665,212 +1659,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>124</v>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>125</v>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="C8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>113</v>
+      <c r="C9" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
         <v>0.3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.6</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -1882,7 +1853,7 @@
       <c r="A21"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
@@ -1900,7 +1871,7 @@
       <c r="A27"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
@@ -1915,7 +1886,7 @@
       <c r="A32"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
@@ -1927,7 +1898,7 @@
       <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
@@ -1940,7 +1911,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" location="worksheet-board-schematics" xr:uid="{FBAF2CBA-7F52-4CB8-8875-2D47DBF17579}"/>
@@ -1973,25 +1944,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>126</v>
+      <c r="A5" s="29" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,10 +2003,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -2046,10 +2017,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -2060,10 +2031,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -2074,10 +2045,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
@@ -2088,10 +2059,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>16</v>
@@ -2102,10 +2073,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
@@ -2116,10 +2087,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -2130,10 +2101,10 @@
         <v>77</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -2144,10 +2115,10 @@
         <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -2158,10 +2129,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -2172,10 +2143,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -2186,10 +2157,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>16</v>
@@ -2200,10 +2171,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>16</v>
@@ -2217,7 +2188,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>16</v>
@@ -2228,10 +2199,10 @@
         <v>52</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -2245,7 +2216,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>16</v>
@@ -2256,10 +2227,10 @@
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
@@ -2270,10 +2241,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>16</v>
@@ -2284,10 +2255,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -2298,10 +2269,10 @@
         <v>57</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>16</v>
@@ -2312,10 +2283,10 @@
         <v>58</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -2326,10 +2297,10 @@
         <v>59</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>16</v>
@@ -2340,10 +2311,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -2354,10 +2325,10 @@
         <v>61</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -2368,16 +2339,16 @@
         <v>62</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>237</v>
+      <c r="E33" s="25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2385,10 +2356,10 @@
         <v>63</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>16</v>
@@ -2399,10 +2370,10 @@
         <v>97</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>16</v>
@@ -2413,10 +2384,10 @@
         <v>67</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -2427,10 +2398,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>16</v>
@@ -2441,10 +2412,10 @@
         <v>79</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -2458,7 +2429,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>16</v>
@@ -2469,10 +2440,10 @@
         <v>81</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>16</v>
@@ -2483,10 +2454,10 @@
         <v>82</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>16</v>
@@ -2497,10 +2468,10 @@
         <v>83</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>16</v>
@@ -2511,10 +2482,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>16</v>
@@ -2525,10 +2496,10 @@
         <v>84</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -2539,10 +2510,10 @@
         <v>85</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>16</v>
@@ -2553,10 +2524,10 @@
         <v>86</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>16</v>
@@ -2567,10 +2538,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>16</v>
@@ -2584,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>16</v>
@@ -2595,10 +2566,10 @@
         <v>89</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>16</v>
@@ -2609,10 +2580,10 @@
         <v>90</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>16</v>
@@ -2623,10 +2594,10 @@
         <v>91</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>16</v>
@@ -2637,10 +2608,10 @@
         <v>92</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>16</v>
@@ -2651,10 +2622,10 @@
         <v>93</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>16</v>
@@ -2665,10 +2636,10 @@
         <v>94</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>16</v>
@@ -2679,10 +2650,10 @@
         <v>95</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>16</v>
@@ -2693,10 +2664,10 @@
         <v>96</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>16</v>
@@ -2704,86 +2675,86 @@
     </row>
     <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="D57" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>180</v>
-      </c>
       <c r="C60" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>196</v>
-      </c>
       <c r="C62" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2802,10 +2773,10 @@
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>72</v>
@@ -2814,15 +2785,15 @@
         <v>36</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>74</v>
@@ -2833,10 +2804,10 @@
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>70</v>
@@ -2847,7 +2818,7 @@
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>37</v>
@@ -2861,13 +2832,13 @@
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>36</v>
@@ -2875,13 +2846,13 @@
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>36</v>
@@ -2889,10 +2860,10 @@
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>69</v>
@@ -2903,10 +2874,10 @@
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>101</v>
@@ -2915,12 +2886,12 @@
         <v>36</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="14">
         <v>6502</v>
@@ -2934,30 +2905,30 @@
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="14">
         <v>6560</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="14">
         <v>6522</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>35</v>
@@ -2966,13 +2937,13 @@
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="14">
         <v>6522</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>35</v>
@@ -2981,47 +2952,47 @@
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" s="14">
         <v>2364</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B77" s="14">
         <v>2364</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B78" s="14">
         <v>2332</v>
@@ -3033,70 +3004,70 @@
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="14">
         <v>2114</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B80" s="14">
         <v>2114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B81" s="14">
         <v>2114</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3104,16 +3075,16 @@
         <v>30</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3121,27 +3092,27 @@
         <v>31</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="14">
         <v>555</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>35</v>
@@ -3149,13 +3120,13 @@
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="14">
         <v>7402</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>35</v>
@@ -3163,13 +3134,13 @@
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>35</v>
@@ -3177,13 +3148,13 @@
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>152</v>
-      </c>
       <c r="C87" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>35</v>
@@ -3191,13 +3162,13 @@
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>35</v>
@@ -3205,13 +3176,13 @@
     </row>
     <row r="89" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>35</v>
@@ -3219,13 +3190,13 @@
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>35</v>
@@ -3233,7 +3204,7 @@
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B91" s="14">
         <v>4066</v>
@@ -3247,19 +3218,19 @@
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3270,7 +3241,7 @@
         <v>34</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>35</v>
@@ -3278,13 +3249,13 @@
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94" s="14">
         <v>7406</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>35</v>
@@ -3292,13 +3263,13 @@
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>35</v>
@@ -3306,13 +3277,13 @@
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>35</v>
@@ -3320,13 +3291,13 @@
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>146</v>
-      </c>
       <c r="C97" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>35</v>
@@ -3334,13 +3305,13 @@
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>64</v>
@@ -3351,7 +3322,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>103</v>
@@ -3374,7 +3345,7 @@
         <v>64</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3386,7 +3357,7 @@
       <c r="A104"/>
     </row>
     <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="27"/>
+      <c r="A105" s="26"/>
     </row>
     <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3396,7 +3367,7 @@
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="28"/>
+      <c r="A111" s="27"/>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3406,20 +3377,20 @@
     </row>
     <row r="116" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28"/>
+      <c r="A117" s="27"/>
     </row>
     <row r="118" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="28"/>
+      <c r="A121" s="27"/>
     </row>
     <row r="122" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="28"/>
+      <c r="A126" s="27"/>
     </row>
     <row r="127" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3506,12 +3477,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3525,8 +3496,8 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3537,8 +3508,8 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>127</v>
+      <c r="A5" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3570,7 +3541,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -3590,7 +3561,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>97</v>
@@ -3610,7 +3581,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>67</v>
@@ -3630,7 +3601,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>27</v>
@@ -3650,7 +3621,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>79</v>
@@ -3670,7 +3641,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>80</v>
@@ -3690,7 +3661,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>81</v>
@@ -3710,7 +3681,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>82</v>
@@ -3730,7 +3701,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>83</v>
@@ -3750,7 +3721,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>28</v>
@@ -3770,7 +3741,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>84</v>
@@ -3790,7 +3761,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>85</v>
@@ -3810,7 +3781,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>86</v>
@@ -3830,7 +3801,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>87</v>
@@ -3850,7 +3821,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>88</v>
@@ -3870,7 +3841,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>89</v>
@@ -3890,7 +3861,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>90</v>
@@ -3910,7 +3881,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>68</v>
@@ -3930,10 +3901,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="18">
         <v>1758</v>
@@ -3950,10 +3921,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="18">
         <v>2822</v>
@@ -3970,10 +3941,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="18">
         <v>3842</v>
@@ -3990,10 +3961,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="18">
         <v>3221</v>
@@ -4010,10 +3981,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="18">
         <v>2430</v>
@@ -4030,10 +4001,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="18">
         <v>3524</v>
@@ -4050,10 +4021,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="18">
         <v>2833</v>
@@ -4070,10 +4041,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="18">
         <v>5253</v>
@@ -4090,10 +4061,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="18">
         <v>3066</v>
@@ -4110,10 +4081,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="18">
         <v>2681</v>
@@ -4130,10 +4101,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="18">
         <v>3043</v>
@@ -4150,7 +4121,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>102</v>
@@ -4170,7 +4141,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>102</v>
@@ -4190,10 +4161,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="18">
         <v>840</v>
@@ -4210,10 +4181,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="18">
         <v>821</v>
@@ -4230,10 +4201,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="18">
         <v>2227</v>
@@ -4250,10 +4221,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="18">
         <v>2231</v>
@@ -4270,10 +4241,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="18">
         <v>2210</v>
@@ -4290,10 +4261,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="18">
         <v>3388</v>
@@ -4310,10 +4281,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="18">
         <v>3132</v>
@@ -4330,10 +4301,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="18">
         <v>3335</v>
@@ -4350,10 +4321,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="18">
         <v>3048</v>
@@ -4370,10 +4341,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="18">
         <v>3030</v>
@@ -4390,7 +4361,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>65</v>
@@ -4410,7 +4381,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>17</v>
@@ -4430,7 +4401,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>18</v>
@@ -4450,7 +4421,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>66</v>
@@ -4470,7 +4441,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>19</v>
@@ -4490,7 +4461,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>20</v>
@@ -4510,7 +4481,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>21</v>
@@ -4530,7 +4501,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>77</v>
@@ -4550,7 +4521,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>78</v>
@@ -4570,7 +4541,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>22</v>
@@ -4590,7 +4561,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -4610,7 +4581,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>24</v>
@@ -4630,7 +4601,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>25</v>
@@ -4650,7 +4621,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>26</v>
@@ -4670,7 +4641,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>52</v>
@@ -4690,7 +4661,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>53</v>
@@ -4710,7 +4681,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>55</v>
@@ -4730,7 +4701,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>56</v>
@@ -4750,7 +4721,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>91</v>
@@ -4770,7 +4741,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>93</v>
@@ -4790,7 +4761,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>94</v>
@@ -4810,7 +4781,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>96</v>
@@ -4830,10 +4801,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C71" s="18">
         <v>5365</v>
@@ -4850,10 +4821,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" s="18">
         <v>5315</v>
@@ -4870,10 +4841,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="18">
         <v>4567</v>
@@ -4890,10 +4861,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" s="18">
         <v>4946</v>
@@ -4910,10 +4881,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" s="18">
         <v>4175</v>
@@ -4930,10 +4901,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="18">
         <v>3888</v>
@@ -4950,10 +4921,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="18">
         <v>2596</v>
@@ -4970,10 +4941,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="18">
         <v>3069</v>
@@ -4990,10 +4961,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="18">
         <v>3223</v>
@@ -5010,10 +4981,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="18">
         <v>3242</v>
@@ -5030,10 +5001,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="18">
         <v>1303</v>
@@ -5050,10 +5021,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="18">
         <v>2721</v>
@@ -5070,10 +5041,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="18">
         <v>3156</v>
@@ -5090,10 +5061,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="18">
         <v>810</v>
@@ -5110,10 +5081,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="18">
         <v>2339</v>
@@ -5130,10 +5101,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="18">
         <v>2889</v>
@@ -5150,10 +5121,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="18">
         <v>1640</v>
@@ -5170,10 +5141,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="18">
         <v>2766</v>
@@ -5190,10 +5161,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="18">
         <v>1642</v>
@@ -5210,10 +5181,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="18">
         <v>666</v>
@@ -5230,10 +5201,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="18">
         <v>1642</v>
@@ -5250,7 +5221,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>98</v>
@@ -5270,7 +5241,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>54</v>
@@ -5290,7 +5261,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>57</v>
@@ -5310,7 +5281,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>58</v>
@@ -5330,7 +5301,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>59</v>
@@ -5350,7 +5321,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>60</v>
@@ -5370,7 +5341,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>61</v>
@@ -5390,7 +5361,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>62</v>
@@ -5410,7 +5381,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>63</v>
@@ -5430,7 +5401,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>92</v>
@@ -5450,7 +5421,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>95</v>
@@ -5470,7 +5441,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>29</v>
@@ -5490,7 +5461,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>29</v>
@@ -5510,7 +5481,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>29</v>
@@ -5530,7 +5501,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>29</v>
@@ -5550,7 +5521,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>30</v>
@@ -5570,7 +5541,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>31</v>
@@ -5590,10 +5561,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" s="18">
         <v>630</v>
@@ -5610,10 +5581,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="18">
         <v>978</v>
@@ -5630,10 +5601,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="18">
         <v>1355</v>
@@ -5650,10 +5621,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C112" s="18">
         <v>2013</v>
@@ -5670,10 +5641,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C113" s="18">
         <v>1390</v>
@@ -5690,10 +5661,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C114" s="18">
         <v>5141</v>
@@ -5710,10 +5681,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="18">
         <v>773</v>
@@ -5730,10 +5701,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C116" s="18">
         <v>2041</v>
@@ -5750,10 +5721,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117" s="18">
         <v>2651</v>
@@ -5770,10 +5741,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" s="18">
         <v>4519</v>
@@ -5790,10 +5761,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" s="18">
         <v>5138</v>
@@ -5810,7 +5781,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>65</v>
@@ -5830,7 +5801,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>17</v>
@@ -5850,7 +5821,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>18</v>
@@ -5870,7 +5841,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>66</v>
@@ -5890,7 +5861,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>19</v>
@@ -5910,7 +5881,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>20</v>
@@ -5930,7 +5901,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>21</v>
@@ -5950,7 +5921,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>77</v>
@@ -5970,7 +5941,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>78</v>
@@ -5990,7 +5961,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>22</v>
@@ -6010,7 +5981,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>23</v>
@@ -6030,7 +6001,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>24</v>
@@ -6050,7 +6021,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>25</v>
@@ -6070,7 +6041,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>26</v>
@@ -6090,7 +6061,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>52</v>
@@ -6110,7 +6081,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>53</v>
@@ -6130,7 +6101,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>54</v>
@@ -6150,7 +6121,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>55</v>
@@ -6170,7 +6141,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>56</v>
@@ -6190,7 +6161,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>57</v>
@@ -6210,7 +6181,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>58</v>
@@ -6230,7 +6201,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>59</v>
@@ -6250,7 +6221,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>60</v>
@@ -6270,7 +6241,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>61</v>
@@ -6290,7 +6261,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>62</v>
@@ -6310,7 +6281,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>63</v>
@@ -6330,7 +6301,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>97</v>
@@ -6350,7 +6321,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>67</v>
@@ -6370,7 +6341,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>27</v>
@@ -6390,7 +6361,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>79</v>
@@ -6410,7 +6381,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>80</v>
@@ -6430,7 +6401,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>81</v>
@@ -6450,7 +6421,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>82</v>
@@ -6470,7 +6441,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>83</v>
@@ -6490,7 +6461,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>28</v>
@@ -6510,7 +6481,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>84</v>
@@ -6530,7 +6501,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>85</v>
@@ -6550,7 +6521,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>86</v>
@@ -6570,7 +6541,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>87</v>
@@ -6590,7 +6561,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>88</v>
@@ -6610,7 +6581,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>89</v>
@@ -6630,7 +6601,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>90</v>
@@ -6650,7 +6621,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>91</v>
@@ -6670,7 +6641,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>92</v>
@@ -6690,7 +6661,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>93</v>
@@ -6710,7 +6681,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>94</v>
@@ -6730,7 +6701,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>95</v>
@@ -6750,7 +6721,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>96</v>
@@ -6770,7 +6741,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>68</v>
@@ -6790,10 +6761,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C169" s="18">
         <v>220</v>
@@ -6810,10 +6781,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C170" s="18">
         <v>735</v>
@@ -6830,10 +6801,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C171" s="18">
         <v>2183</v>
@@ -6850,10 +6821,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="18">
         <v>2256</v>
@@ -6870,10 +6841,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C173" s="18">
         <v>238</v>
@@ -6890,10 +6861,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C174" s="18">
         <v>741</v>
@@ -6910,10 +6881,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C175" s="18">
         <v>1035</v>
@@ -6930,10 +6901,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="18">
         <v>1215</v>
@@ -6950,10 +6921,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C177" s="18">
         <v>2299</v>
@@ -6970,10 +6941,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" s="18">
         <v>1378</v>
@@ -6990,10 +6961,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C179" s="18">
         <v>2306</v>
@@ -7010,10 +6981,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C180" s="18">
         <v>923</v>
@@ -7030,10 +7001,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C181" s="18">
         <v>953</v>
@@ -7050,10 +7021,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" s="18">
         <v>668</v>
@@ -7070,10 +7041,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C183" s="18">
         <v>689</v>
@@ -7090,7 +7061,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>102</v>
@@ -7110,7 +7081,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>29</v>
@@ -7130,7 +7101,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>30</v>
@@ -7150,7 +7121,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>31</v>
@@ -7170,10 +7141,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" s="18">
         <v>266</v>
@@ -7190,10 +7161,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" s="18">
         <v>413</v>
@@ -7210,10 +7181,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C190" s="18">
         <v>570</v>
@@ -7230,10 +7201,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C191" s="18">
         <v>570</v>
@@ -7250,10 +7221,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C192" s="18">
         <v>884</v>
@@ -7270,10 +7241,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C193" s="18">
         <v>1244</v>
@@ -7290,10 +7261,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C194" s="18">
         <v>1382</v>
@@ -7310,10 +7281,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C195" s="18">
         <v>1457</v>
@@ -7330,10 +7301,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" s="18">
         <v>1517</v>
@@ -7350,10 +7321,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197" s="18">
         <v>1788</v>
@@ -7370,10 +7341,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" s="18">
         <v>1606</v>
@@ -7390,10 +7361,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C199" s="18">
         <v>838</v>
@@ -7410,10 +7381,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C200" s="18">
         <v>570</v>
@@ -7430,10 +7401,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C201" s="18">
         <v>922</v>
@@ -7450,10 +7421,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C202" s="18">
         <v>1260</v>
@@ -7470,10 +7441,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C203" s="18">
         <v>1697</v>
@@ -7490,10 +7461,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C204" s="18">
         <v>748</v>
@@ -7510,10 +7481,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C205" s="18">
         <v>660</v>
@@ -7530,10 +7501,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C206" s="18">
         <v>1154</v>
@@ -7550,10 +7521,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C207" s="18">
         <v>1960</v>
@@ -7570,10 +7541,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208" s="18">
         <v>1674</v>
@@ -7590,10 +7561,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C209" s="18">
         <v>1810</v>
@@ -7610,10 +7581,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C210" s="18">
         <v>1547</v>
@@ -7630,7 +7601,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>98</v>
@@ -9470,13 +9441,13 @@
       <c r="F471" s="18"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A473" s="27"/>
+      <c r="A473" s="26"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A476" s="27"/>
+      <c r="A476" s="26"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A479" s="27"/>
+      <c r="A479" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9501,7 +9472,7 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="75.109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
@@ -9509,41 +9480,41 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="32"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="32"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="33"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="G5" s="14"/>
@@ -9551,7 +9522,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
@@ -9560,246 +9531,246 @@
         <v>108</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="C7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="14"/>
-      <c r="C16" s="38"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="38"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9807,12 +9778,12 @@
         <v>30</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9820,116 +9791,116 @@
         <v>31</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="38"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="38"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="38"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="38"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9937,539 +9908,539 @@
         <v>29</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="38"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="38"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="33"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="33"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="18"/>
-      <c r="C40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="39"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="39"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="39"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="39"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="38"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="38"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="38"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="38"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="38"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="38"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="38"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="38"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="38"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="38"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="38"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="38"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="38"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="38"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="38"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="38"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="38"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="38"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="38"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="38"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="38"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="38"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="38"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="38"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="38"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="38"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="38"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="38"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="38"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="38"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="38"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="38"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="38"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="38"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="38"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="38"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="38"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="38"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="38"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="38"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="38"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="38"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="38"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="38"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="38"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="38"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="38"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="38"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="38"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="38"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="38"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="38"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="38"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="38"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="38"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="38"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="38"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="38"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="38"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="38"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="38"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
     </row>
     <row r="109" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="34"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="33"/>
     </row>
     <row r="110" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110"/>
@@ -10477,9 +10448,9 @@
       <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="40"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="39"/>
     </row>
     <row r="112" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112"/>
@@ -10487,218 +10458,218 @@
       <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="38"/>
+      <c r="C113" s="37"/>
     </row>
     <row r="114" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="38"/>
+      <c r="C114" s="37"/>
     </row>
     <row r="115" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="41"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="40"/>
     </row>
     <row r="116" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="38"/>
+      <c r="C116" s="37"/>
     </row>
     <row r="117" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="38"/>
+      <c r="C117" s="37"/>
     </row>
     <row r="118" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="38"/>
+      <c r="C118" s="37"/>
     </row>
     <row r="119" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="41"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="40"/>
     </row>
     <row r="120" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="38"/>
+      <c r="C120" s="37"/>
     </row>
     <row r="121" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="38"/>
+      <c r="C121" s="37"/>
     </row>
     <row r="122" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="38"/>
+      <c r="C122" s="37"/>
     </row>
     <row r="123" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="38"/>
+      <c r="C123" s="37"/>
     </row>
     <row r="124" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="38"/>
+      <c r="C124" s="37"/>
     </row>
     <row r="125" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="38"/>
+      <c r="C125" s="37"/>
     </row>
     <row r="126" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="38"/>
+      <c r="C126" s="37"/>
     </row>
     <row r="127" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="38"/>
+      <c r="C127" s="37"/>
     </row>
     <row r="128" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="38"/>
+      <c r="C128" s="37"/>
     </row>
     <row r="129" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="38"/>
+      <c r="C129" s="37"/>
     </row>
     <row r="130" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="38"/>
+      <c r="C130" s="37"/>
     </row>
     <row r="131" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="38"/>
+      <c r="C131" s="37"/>
     </row>
     <row r="132" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="38"/>
+      <c r="C132" s="37"/>
     </row>
     <row r="133" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="38"/>
+      <c r="C133" s="37"/>
     </row>
     <row r="134" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="38"/>
+      <c r="C134" s="37"/>
     </row>
     <row r="135" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="38"/>
+      <c r="C135" s="37"/>
     </row>
     <row r="136" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="38"/>
+      <c r="C136" s="37"/>
     </row>
     <row r="137" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="38"/>
+      <c r="C137" s="37"/>
     </row>
     <row r="138" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="38"/>
+      <c r="C138" s="37"/>
     </row>
     <row r="139" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="38"/>
+      <c r="C139" s="37"/>
     </row>
     <row r="140" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="38"/>
+      <c r="C140" s="37"/>
     </row>
     <row r="141" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="38"/>
+      <c r="C141" s="37"/>
     </row>
     <row r="142" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="38"/>
+      <c r="C142" s="37"/>
     </row>
     <row r="143" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="38"/>
+      <c r="C143" s="37"/>
     </row>
     <row r="144" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="38"/>
+      <c r="C144" s="37"/>
     </row>
     <row r="145" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="38"/>
+      <c r="C145" s="37"/>
     </row>
     <row r="146" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="38"/>
+      <c r="C146" s="37"/>
     </row>
     <row r="147" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="38"/>
+      <c r="C147" s="37"/>
     </row>
     <row r="148" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="38"/>
+      <c r="C148" s="37"/>
     </row>
     <row r="149" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="38"/>
+      <c r="C149" s="37"/>
     </row>
     <row r="150" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="38"/>
+      <c r="C150" s="37"/>
     </row>
     <row r="151" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="38"/>
+      <c r="C151" s="37"/>
     </row>
     <row r="152" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="38"/>
+      <c r="C152" s="37"/>
     </row>
     <row r="153" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="38"/>
+      <c r="C153" s="37"/>
     </row>
     <row r="154" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="38"/>
+      <c r="C154" s="37"/>
     </row>
     <row r="155" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="38"/>
+      <c r="C155" s="37"/>
     </row>
     <row r="156" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="38"/>
+      <c r="C156" s="37"/>
     </row>
     <row r="157" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="38"/>
+      <c r="C157" s="37"/>
     </row>
     <row r="158" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="38"/>
+      <c r="C158" s="37"/>
     </row>
     <row r="159" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="38"/>
+      <c r="C159" s="37"/>
     </row>
     <row r="160" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="38"/>
+      <c r="C160" s="37"/>
     </row>
     <row r="161" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="38"/>
+      <c r="C161" s="37"/>
     </row>
     <row r="162" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="38"/>
+      <c r="C162" s="37"/>
     </row>
     <row r="163" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="38"/>
+      <c r="C163" s="37"/>
     </row>
     <row r="164" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="38"/>
+      <c r="C164" s="37"/>
     </row>
     <row r="165" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="38"/>
+      <c r="C165" s="37"/>
     </row>
     <row r="166" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="38"/>
+      <c r="C166" s="37"/>
     </row>
     <row r="167" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="38"/>
+      <c r="C167" s="37"/>
     </row>
     <row r="168" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="38"/>
+      <c r="C168" s="37"/>
     </row>
     <row r="169" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="38"/>
+      <c r="C169" s="37"/>
     </row>
     <row r="170" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="38"/>
+      <c r="C170" s="37"/>
     </row>
     <row r="171" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="38"/>
+      <c r="C171" s="37"/>
     </row>
     <row r="172" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="38"/>
+      <c r="C172" s="37"/>
     </row>
     <row r="173" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="38"/>
+      <c r="C173" s="37"/>
     </row>
     <row r="174" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="38"/>
+      <c r="C174" s="37"/>
     </row>
     <row r="175" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="38"/>
+      <c r="C175" s="37"/>
     </row>
     <row r="176" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="38"/>
+      <c r="C176" s="37"/>
     </row>
     <row r="177" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="38"/>
+      <c r="C177" s="37"/>
     </row>
     <row r="178" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="38"/>
+      <c r="C178" s="37"/>
     </row>
     <row r="179" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="38"/>
+      <c r="C179" s="37"/>
     </row>
     <row r="180" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="38"/>
+      <c r="C180" s="37"/>
     </row>
     <row r="181" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="38"/>
+      <c r="C181" s="37"/>
     </row>
     <row r="182" spans="3:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="38"/>
+      <c r="C182" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10728,222 +10699,222 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="24" t="s">
         <v>329</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="25" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="38"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="38"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="38"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="38"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="38"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="38"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="38"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="38"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
@@ -11255,145 +11226,145 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="38"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="38"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="38"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="38"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="38"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="38"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="38"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="38"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="38"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="38"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="38"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="38"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="38"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="38"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="38"/>
+      <c r="C111" s="37"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="38"/>
+      <c r="C112" s="37"/>
       <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="38"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="38"/>
+      <c r="C114" s="37"/>
       <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="38"/>
+      <c r="C115" s="37"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="38"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="38"/>
+      <c r="C117" s="37"/>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="38"/>
+      <c r="C118" s="37"/>
       <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="38"/>
+      <c r="C119" s="37"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="38"/>
+      <c r="C120" s="37"/>
       <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -11591,103 +11562,103 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" s="38"/>
+      <c r="C169" s="37"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="38"/>
+      <c r="C170" s="37"/>
       <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="38"/>
+      <c r="C171" s="37"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="38"/>
+      <c r="C172" s="37"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-      <c r="C173" s="38"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-      <c r="C174" s="38"/>
+      <c r="C174" s="37"/>
       <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-      <c r="C175" s="38"/>
+      <c r="C175" s="37"/>
       <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" s="38"/>
+      <c r="C176" s="37"/>
       <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-      <c r="C177" s="38"/>
+      <c r="C177" s="37"/>
       <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="38"/>
+      <c r="C178" s="37"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-      <c r="C179" s="38"/>
+      <c r="C179" s="37"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="38"/>
+      <c r="C180" s="37"/>
       <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
-      <c r="C181" s="38"/>
+      <c r="C181" s="37"/>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="38"/>
+      <c r="C182" s="37"/>
       <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="38"/>
+      <c r="C183" s="37"/>
       <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="38"/>
+      <c r="C184" s="37"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
     </row>
@@ -11774,12 +11745,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -11788,15 +11759,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>129</v>
+      <c r="A5" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11826,189 +11797,189 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12016,10 +11987,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12027,98 +11998,98 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12126,54 +12097,54 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -12335,19 +12306,19 @@
       <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="26"/>
+      <c r="A93" s="25"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
+      <c r="A97" s="26"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
+      <c r="A101" s="26"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="28"/>
+      <c r="A104" s="27"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
@@ -12386,25 +12357,25 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>130</v>
+      <c r="A5" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -12430,62 +12401,62 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
@@ -12521,12 +12492,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12534,15 +12505,15 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>130</v>
+      <c r="A5" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12571,57 +12542,57 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12629,10 +12600,10 @@
         <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12640,19 +12611,19 @@
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
@@ -12691,24 +12662,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>124</v>
+      <c r="A4" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>131</v>
+      <c r="A5" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12736,10 +12707,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>333</v>
+        <v>239</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12747,10 +12718,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12758,7 +12729,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -12769,10 +12740,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12780,7 +12751,7 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -12791,10 +12762,10 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12813,26 +12784,26 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F88FF1-54AB-4FB9-955E-6CABFF456E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5ECC0-B917-4ED9-B188-6612ED8688A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5ECC0-B917-4ED9-B188-6612ED8688A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4BD9FD-9426-4287-92AC-F24A23AB083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Component highlights" sheetId="6" r:id="rId3"/>
     <sheet name="Component images" sheetId="11" r:id="rId4"/>
-    <sheet name="Component oscilloscope" sheetId="12" r:id="rId5"/>
-    <sheet name="Component local files" sheetId="7" r:id="rId6"/>
-    <sheet name="Component links" sheetId="8" r:id="rId7"/>
-    <sheet name="Board local files" sheetId="9" r:id="rId8"/>
-    <sheet name="Board links" sheetId="10" r:id="rId9"/>
+    <sheet name="Component local files" sheetId="7" r:id="rId5"/>
+    <sheet name="Component links" sheetId="8" r:id="rId6"/>
+    <sheet name="Board local files" sheetId="9" r:id="rId7"/>
+    <sheet name="Board links" sheetId="10" r:id="rId8"/>
+    <sheet name="Credits" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Ressources</t>
   </si>
   <si>
     <t>Troubleshooting</t>
@@ -748,9 +745,6 @@
 $8000-$8FFF</t>
   </si>
   <si>
-    <t>Ressoures</t>
-  </si>
-  <si>
     <t>PET/VIC-20/C64 Port Pinouts</t>
   </si>
   <si>
@@ -1065,12 +1059,6 @@
     <t>Pin</t>
   </si>
   <si>
-    <t>Component behaviour</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
     <t>https://www.reddit.com/r/vic20/</t>
   </si>
   <si>
@@ -1087,6 +1075,12 @@
   </si>
   <si>
     <t>Data/Commodore shared files/Component images/58725P.jpg</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Resoures</t>
   </si>
   <si>
     <r>
@@ -1101,8 +1095,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-June-10</t>
+      <t>2025-June-13</t>
     </r>
+  </si>
+  <si>
+    <t>Board credits</t>
+  </si>
+  <si>
+    <t>Sub-category</t>
+  </si>
+  <si>
+    <t>Name or handle</t>
+  </si>
+  <si>
+    <t>Contact (email or web page)</t>
+  </si>
+  <si>
+    <t>Board labelling</t>
+  </si>
+  <si>
+    <t>Dennis Helligsø</t>
+  </si>
+  <si>
+    <t>dennis@commodore-repair-toolbox.dk</t>
+  </si>
+  <si>
+    <t>Excel data</t>
+  </si>
+  <si>
+    <t>Oscilloscope imaging</t>
+  </si>
+  <si>
+    <t>No measurements yet, but PAL will for sure come later, and hopefully someone will also do the NTSC measurements</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-board-local-files</t>
+  </si>
+  <si>
+    <t>https://github.com/HovKlan-DH/Commodore-Repair-Toolbox/wiki/Documentation#worksheet-credits</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>NTSC</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1333,6 +1369,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1652,9 +1689,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,17 +1705,17 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1691,7 +1728,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1701,7 +1738,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1719,11 +1756,11 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -1731,10 +1768,10 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>10</v>
@@ -1743,18 +1780,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1771,10 +1808,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1791,10 +1828,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1811,10 +1848,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -1913,22 +1950,19 @@
   <mergeCells count="1">
     <mergeCell ref="C8:F8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" location="worksheet-board-schematics" xr:uid="{FBAF2CBA-7F52-4CB8-8875-2D47DBF17579}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,38 +1971,39 @@
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -1977,8 +2012,9 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
@@ -1991,196 +2027,212 @@
       <c r="D8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>110</v>
+      <c r="E8" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -2188,710 +2240,760 @@
         <v>40</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="F33" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="D57" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="14" t="s">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="D62" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="1"/>
+      <c r="G64" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="1"/>
+      <c r="G71" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="14">
         <v>6502</v>
@@ -2902,97 +3004,103 @@
       <c r="D72" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" s="14">
         <v>6560</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" s="14">
         <v>6522</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="14">
         <v>6522</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B76" s="14">
         <v>2364</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E76" s="1"/>
+      <c r="F76" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" s="14">
         <v>2364</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E77" s="1"/>
+      <c r="F77" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B78" s="14">
         <v>2332</v>
@@ -3003,237 +3111,252 @@
       <c r="D78" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="14">
         <v>2114</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E79" s="1"/>
+      <c r="F79" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B80" s="14">
         <v>2114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E80" s="1"/>
+      <c r="F80" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B81" s="14">
         <v>2114</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="1"/>
+      <c r="F81" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="1"/>
+      <c r="F82" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="1"/>
+      <c r="F83" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="14">
         <v>555</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" s="14">
         <v>7402</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="C87" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B91" s="14">
         <v>4066</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>156</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="1"/>
+      <c r="F92" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>29</v>
       </c>
@@ -3241,217 +3364,623 @@
         <v>34</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94" s="14">
         <v>7406</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>145</v>
-      </c>
       <c r="C97" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="D98" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D99" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D100" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103"/>
-    </row>
-    <row r="104" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104"/>
-    </row>
-    <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="26"/>
-    </row>
-    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109"/>
-    </row>
-    <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27"/>
-    </row>
-    <row r="112" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115"/>
-    </row>
-    <row r="116" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27"/>
-    </row>
-    <row r="118" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27"/>
-    </row>
-    <row r="122" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="27"/>
-    </row>
-    <row r="127" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="14"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="14"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="14"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="14"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="14"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="14"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E225" s="14"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="14"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E227" s="14"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E228" s="14"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E229" s="14"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="14"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="14"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E233" s="14"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E234" s="14"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="14"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="14"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="14"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="14"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="14"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="14"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="14"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E242" s="14"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E243" s="14"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E244" s="14"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E245" s="14"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E246" s="14"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E247" s="14"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E248" s="14"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="14"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E250" s="14"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="14"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E252" s="14"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E254" s="14"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="14"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E256" s="14"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257" s="14"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258" s="14"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259" s="14"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260" s="14"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E262" s="14"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E263" s="14"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E264" s="14"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E265" s="14"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E266" s="14"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E267" s="14"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E268" s="14"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E269" s="14"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E270" s="14"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E271" s="14"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E272" s="14"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E273" s="14"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E274" s="14"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E275" s="14"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E276" s="14"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E277" s="14"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E278" s="14"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E279" s="14"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E280" s="14"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E281" s="14"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E282" s="14"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E283" s="14"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E284" s="14"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E285" s="14"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E286" s="14"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E287" s="14"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E288" s="14"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E289" s="14"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E290" s="14"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E291" s="14"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E292" s="14"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E293" s="14"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E294" s="14"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E295" s="14"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E296" s="14"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E297" s="14"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E298" s="14"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E299" s="14"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E300" s="14"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E301" s="14"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F100">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G100">
     <sortCondition ref="A9:A100"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-components" xr:uid="{0CDB809B-742A-4C45-B49C-E8039FD05EFC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3462,7 +3991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3477,12 +4006,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3497,7 +4026,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -3509,7 +4038,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3531,7 +4060,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -3541,7 +4070,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -3561,10 +4090,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="18">
         <v>2924</v>
@@ -3581,10 +4110,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="18">
         <v>620</v>
@@ -3601,7 +4130,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>27</v>
@@ -3621,10 +4150,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="18">
         <v>3606</v>
@@ -3641,10 +4170,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="18">
         <v>4013</v>
@@ -3661,10 +4190,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="18">
         <v>4206</v>
@@ -3681,10 +4210,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="18">
         <v>3333</v>
@@ -3701,10 +4230,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="18">
         <v>3610</v>
@@ -3721,7 +4250,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>28</v>
@@ -3741,10 +4270,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="18">
         <v>4121</v>
@@ -3761,10 +4290,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="18">
         <v>3883</v>
@@ -3781,10 +4310,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="18">
         <v>5092</v>
@@ -3801,10 +4330,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="18">
         <v>2838</v>
@@ -3821,10 +4350,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="18">
         <v>2955</v>
@@ -3841,10 +4370,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="18">
         <v>2461</v>
@@ -3861,10 +4390,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="18">
         <v>3283</v>
@@ -3881,10 +4410,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="18">
         <v>4876</v>
@@ -3901,10 +4430,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="18">
         <v>1758</v>
@@ -3921,10 +4450,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="18">
         <v>2822</v>
@@ -3941,10 +4470,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="18">
         <v>3842</v>
@@ -3961,10 +4490,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="18">
         <v>3221</v>
@@ -3981,10 +4510,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C30" s="18">
         <v>2430</v>
@@ -4001,10 +4530,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="18">
         <v>3524</v>
@@ -4021,10 +4550,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="18">
         <v>2833</v>
@@ -4041,10 +4570,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C33" s="18">
         <v>5253</v>
@@ -4061,10 +4590,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="18">
         <v>3066</v>
@@ -4081,10 +4610,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="18">
         <v>2681</v>
@@ -4101,10 +4630,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="18">
         <v>3043</v>
@@ -4121,10 +4650,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="18">
         <v>3199</v>
@@ -4141,10 +4670,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="18">
         <v>3196</v>
@@ -4161,10 +4690,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="18">
         <v>840</v>
@@ -4181,10 +4710,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="18">
         <v>821</v>
@@ -4201,10 +4730,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="18">
         <v>2227</v>
@@ -4221,10 +4750,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="18">
         <v>2231</v>
@@ -4241,10 +4770,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="18">
         <v>2210</v>
@@ -4261,10 +4790,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="18">
         <v>3388</v>
@@ -4281,10 +4810,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="18">
         <v>3132</v>
@@ -4301,10 +4830,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="18">
         <v>3335</v>
@@ -4321,10 +4850,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="18">
         <v>3048</v>
@@ -4341,10 +4870,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C48" s="18">
         <v>3030</v>
@@ -4361,10 +4890,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="18">
         <v>961</v>
@@ -4381,7 +4910,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>17</v>
@@ -4401,7 +4930,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>18</v>
@@ -4421,10 +4950,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="18">
         <v>2608</v>
@@ -4441,7 +4970,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>19</v>
@@ -4461,7 +4990,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>20</v>
@@ -4481,7 +5010,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>21</v>
@@ -4501,10 +5030,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="18">
         <v>4029</v>
@@ -4521,10 +5050,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="18">
         <v>4081</v>
@@ -4541,7 +5070,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>22</v>
@@ -4561,7 +5090,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -4581,7 +5110,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>24</v>
@@ -4601,7 +5130,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>25</v>
@@ -4621,7 +5150,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B62" s="18" t="s">
         <v>26</v>
@@ -4641,10 +5170,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="18">
         <v>4640</v>
@@ -4661,10 +5190,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="18">
         <v>4593</v>
@@ -4681,10 +5210,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="18">
         <v>4344</v>
@@ -4701,10 +5230,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="18">
         <v>4487</v>
@@ -4721,10 +5250,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" s="18">
         <v>2988</v>
@@ -4741,10 +5270,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="18">
         <v>1444</v>
@@ -4761,10 +5290,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="18">
         <v>2931</v>
@@ -4781,10 +5310,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="18">
         <v>2909</v>
@@ -4801,10 +5330,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C71" s="18">
         <v>5365</v>
@@ -4821,10 +5350,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" s="18">
         <v>5315</v>
@@ -4841,10 +5370,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" s="18">
         <v>4567</v>
@@ -4861,10 +5390,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" s="18">
         <v>4946</v>
@@ -4881,10 +5410,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="18">
         <v>4175</v>
@@ -4901,10 +5430,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" s="18">
         <v>3888</v>
@@ -4921,10 +5450,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="18">
         <v>2596</v>
@@ -4941,10 +5470,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="18">
         <v>3069</v>
@@ -4961,10 +5490,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="18">
         <v>3223</v>
@@ -4981,10 +5510,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="18">
         <v>3242</v>
@@ -5001,10 +5530,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="18">
         <v>1303</v>
@@ -5021,10 +5550,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="18">
         <v>2721</v>
@@ -5041,10 +5570,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="18">
         <v>3156</v>
@@ -5061,10 +5590,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" s="18">
         <v>810</v>
@@ -5081,10 +5610,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="18">
         <v>2339</v>
@@ -5101,10 +5630,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="18">
         <v>2889</v>
@@ -5121,10 +5650,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="18">
         <v>1640</v>
@@ -5141,10 +5670,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="18">
         <v>2766</v>
@@ -5161,10 +5690,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C89" s="18">
         <v>1642</v>
@@ -5181,10 +5710,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="18">
         <v>666</v>
@@ -5201,10 +5730,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C91" s="18">
         <v>1642</v>
@@ -5221,10 +5750,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="18">
         <v>2701</v>
@@ -5241,10 +5770,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="18">
         <v>2734</v>
@@ -5261,10 +5790,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="18">
         <v>870</v>
@@ -5281,10 +5810,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="18">
         <v>2114</v>
@@ -5301,10 +5830,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="18">
         <v>3362</v>
@@ -5321,10 +5850,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="18">
         <v>1481</v>
@@ -5341,10 +5870,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="18">
         <v>4697</v>
@@ -5361,10 +5890,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" s="18">
         <v>5322</v>
@@ -5381,10 +5910,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C100" s="18">
         <v>5319</v>
@@ -5401,10 +5930,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="18">
         <v>3980</v>
@@ -5421,10 +5950,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="18">
         <v>2285</v>
@@ -5441,7 +5970,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>29</v>
@@ -5461,7 +5990,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>29</v>
@@ -5481,7 +6010,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>29</v>
@@ -5501,7 +6030,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>29</v>
@@ -5521,7 +6050,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>30</v>
@@ -5541,7 +6070,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>31</v>
@@ -5561,10 +6090,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="18">
         <v>630</v>
@@ -5581,10 +6110,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="18">
         <v>978</v>
@@ -5601,10 +6130,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" s="18">
         <v>1355</v>
@@ -5621,10 +6150,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C112" s="18">
         <v>2013</v>
@@ -5641,10 +6170,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C113" s="18">
         <v>1390</v>
@@ -5661,10 +6190,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="18">
         <v>5141</v>
@@ -5681,10 +6210,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C115" s="18">
         <v>773</v>
@@ -5701,10 +6230,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" s="18">
         <v>2041</v>
@@ -5721,10 +6250,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C117" s="18">
         <v>2651</v>
@@ -5741,10 +6270,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C118" s="18">
         <v>4519</v>
@@ -5761,10 +6290,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C119" s="18">
         <v>5138</v>
@@ -5781,10 +6310,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" s="18">
         <v>1963</v>
@@ -5801,7 +6330,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>17</v>
@@ -5821,7 +6350,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>18</v>
@@ -5841,10 +6370,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C123" s="18">
         <v>1020</v>
@@ -5861,7 +6390,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>19</v>
@@ -5881,7 +6410,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>20</v>
@@ -5901,7 +6430,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>21</v>
@@ -5921,10 +6450,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C127" s="18">
         <v>1197</v>
@@ -5941,10 +6470,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C128" s="18">
         <v>867</v>
@@ -5961,7 +6490,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>22</v>
@@ -5981,7 +6510,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>23</v>
@@ -6001,7 +6530,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>24</v>
@@ -6021,7 +6550,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>25</v>
@@ -6041,7 +6570,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>26</v>
@@ -6061,10 +6590,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C134" s="18">
         <v>988</v>
@@ -6081,10 +6610,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C135" s="18">
         <v>1014</v>
@@ -6101,10 +6630,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C136" s="18">
         <v>565</v>
@@ -6121,10 +6650,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C137" s="18">
         <v>2328</v>
@@ -6141,10 +6670,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C138" s="18">
         <v>2296</v>
@@ -6161,10 +6690,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="18">
         <v>721</v>
@@ -6181,10 +6710,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140" s="18">
         <v>639</v>
@@ -6201,10 +6730,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141" s="18">
         <v>239</v>
@@ -6221,10 +6750,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142" s="18">
         <v>821</v>
@@ -6241,10 +6770,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C143" s="18">
         <v>1720</v>
@@ -6261,10 +6790,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C144" s="18">
         <v>1836</v>
@@ -6281,10 +6810,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C145" s="18">
         <v>948</v>
@@ -6301,10 +6830,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C146" s="18">
         <v>1858</v>
@@ -6321,10 +6850,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" s="18">
         <v>387</v>
@@ -6341,7 +6870,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>27</v>
@@ -6361,10 +6890,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C149" s="18">
         <v>2238</v>
@@ -6381,10 +6910,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C150" s="18">
         <v>2098</v>
@@ -6401,10 +6930,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="18">
         <v>2088</v>
@@ -6421,10 +6950,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="18">
         <v>2190</v>
@@ -6441,10 +6970,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C153" s="18">
         <v>2220</v>
@@ -6461,7 +6990,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>28</v>
@@ -6481,10 +7010,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C155" s="18">
         <v>2236</v>
@@ -6501,10 +7030,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C156" s="18">
         <v>2110</v>
@@ -6521,10 +7050,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C157" s="18">
         <v>2097</v>
@@ -6541,10 +7070,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C158" s="18">
         <v>566</v>
@@ -6561,10 +7090,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C159" s="18">
         <v>576</v>
@@ -6581,10 +7110,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C160" s="18">
         <v>658</v>
@@ -6601,10 +7130,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="18">
         <v>851</v>
@@ -6621,10 +7150,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C162" s="18">
         <v>1644</v>
@@ -6641,10 +7170,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C163" s="18">
         <v>388</v>
@@ -6661,10 +7190,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C164" s="18">
         <v>1178</v>
@@ -6681,10 +7210,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C165" s="18">
         <v>1176</v>
@@ -6701,10 +7230,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C166" s="18">
         <v>1599</v>
@@ -6721,10 +7250,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C167" s="18">
         <v>1159</v>
@@ -6741,10 +7270,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168" s="18">
         <v>2159</v>
@@ -6761,10 +7290,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C169" s="18">
         <v>220</v>
@@ -6781,10 +7310,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C170" s="18">
         <v>735</v>
@@ -6801,10 +7330,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="18">
         <v>2183</v>
@@ -6821,10 +7350,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C172" s="18">
         <v>2256</v>
@@ -6841,10 +7370,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" s="18">
         <v>238</v>
@@ -6861,10 +7390,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C174" s="18">
         <v>741</v>
@@ -6881,10 +7410,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C175" s="18">
         <v>1035</v>
@@ -6901,10 +7430,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C176" s="18">
         <v>1215</v>
@@ -6921,10 +7450,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177" s="18">
         <v>2299</v>
@@ -6941,10 +7470,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C178" s="18">
         <v>1378</v>
@@ -6961,10 +7490,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C179" s="18">
         <v>2306</v>
@@ -6981,10 +7510,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="18">
         <v>923</v>
@@ -7001,10 +7530,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="18">
         <v>953</v>
@@ -7021,10 +7550,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" s="18">
         <v>668</v>
@@ -7041,10 +7570,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C183" s="18">
         <v>689</v>
@@ -7061,10 +7590,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C184" s="18">
         <v>2264</v>
@@ -7081,7 +7610,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>29</v>
@@ -7101,7 +7630,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>30</v>
@@ -7121,7 +7650,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>31</v>
@@ -7141,10 +7670,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188" s="18">
         <v>266</v>
@@ -7161,10 +7690,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" s="18">
         <v>413</v>
@@ -7181,10 +7710,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C190" s="18">
         <v>570</v>
@@ -7201,10 +7730,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="18">
         <v>570</v>
@@ -7221,10 +7750,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" s="18">
         <v>884</v>
@@ -7241,10 +7770,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C193" s="18">
         <v>1244</v>
@@ -7261,10 +7790,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C194" s="18">
         <v>1382</v>
@@ -7281,10 +7810,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C195" s="18">
         <v>1457</v>
@@ -7301,10 +7830,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B196" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C196" s="18">
         <v>1517</v>
@@ -7321,10 +7850,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" s="18">
         <v>1788</v>
@@ -7341,10 +7870,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198" s="18">
         <v>1606</v>
@@ -7361,10 +7890,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" s="18">
         <v>838</v>
@@ -7381,10 +7910,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B200" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C200" s="18">
         <v>570</v>
@@ -7401,10 +7930,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C201" s="18">
         <v>922</v>
@@ -7421,10 +7950,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B202" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C202" s="18">
         <v>1260</v>
@@ -7441,10 +7970,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C203" s="18">
         <v>1697</v>
@@ -7461,10 +7990,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C204" s="18">
         <v>748</v>
@@ -7481,10 +8010,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205" s="18">
         <v>660</v>
@@ -7501,10 +8030,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C206" s="18">
         <v>1154</v>
@@ -7521,10 +8050,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C207" s="18">
         <v>1960</v>
@@ -7541,10 +8070,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C208" s="18">
         <v>1674</v>
@@ -7561,10 +8090,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C209" s="18">
         <v>1810</v>
@@ -7581,10 +8110,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C210" s="18">
         <v>1547</v>
@@ -7601,10 +8130,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C211" s="18">
         <v>1280</v>
@@ -9450,11 +9979,8 @@
       <c r="A479" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-highlights" xr:uid="{6D903EE2-BB0D-4F11-A229-F149F21A4BD3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9465,7 +9991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9480,14 +10006,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="31"/>
@@ -9501,7 +10027,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="33"/>
@@ -9511,7 +10037,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="34"/>
@@ -9528,7 +10054,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="35"/>
@@ -9540,10 +10066,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>0</v>
@@ -9554,223 +10080,223 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="37"/>
       <c r="D9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="37"/>
       <c r="D10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="37"/>
       <c r="D11" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="37"/>
       <c r="D12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="37"/>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="37"/>
       <c r="D14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="32"/>
       <c r="D15" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="37"/>
       <c r="D16" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="37"/>
       <c r="D17" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="37"/>
       <c r="D18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="37"/>
       <c r="D19" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="37"/>
       <c r="D20" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="37"/>
       <c r="D21" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="37"/>
       <c r="D22" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="37"/>
       <c r="D23" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="37"/>
       <c r="D24" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="37"/>
       <c r="D25" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -9780,10 +10306,10 @@
       <c r="B26" s="14"/>
       <c r="C26" s="37"/>
       <c r="D26" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -9793,114 +10319,114 @@
       <c r="B27" s="14"/>
       <c r="C27" s="37"/>
       <c r="D27" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="37"/>
       <c r="D28" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="37"/>
       <c r="D29" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="37"/>
       <c r="D30" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="37"/>
       <c r="D31" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="37"/>
       <c r="D32" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="37"/>
       <c r="D33" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="37"/>
       <c r="D34" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="37"/>
       <c r="D35" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9910,62 +10436,62 @@
       <c r="B36" s="14"/>
       <c r="C36" s="37"/>
       <c r="D36" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="37"/>
       <c r="D37" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="32"/>
       <c r="D38" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="32"/>
       <c r="D39" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="32"/>
       <c r="D40" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -10672,1068 +11198,19 @@
       <c r="C182" s="37"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{02566617-EB54-406B-9075-DC98AF034C96}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE779F5-CD59-45E8-A9AB-DFA16E5A5277}">
-  <dimension ref="A1:F198"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="89.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="E51" s="14"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="E53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="E54" s="14"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="E58" s="14"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="E94" s="14"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="14"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="14"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="14"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="14"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="14"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="14"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="14"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="14"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="14"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="14"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="14"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="14"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="14"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="14"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="14"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="14"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="14"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="14"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="14"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="14"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="14"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="14"/>
-      <c r="B147" s="14"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="14"/>
-      <c r="B148" s="14"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="14"/>
-      <c r="B154" s="14"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="14"/>
-      <c r="B156" s="14"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="14"/>
-      <c r="B157" s="14"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="14"/>
-      <c r="B162" s="14"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="14"/>
-      <c r="B163" s="14"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="14"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="14"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="14"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="14"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="14"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="14"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="14"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="14"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="14"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="14"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="14"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="14"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="14"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="14"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="14"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="14"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="14"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="14"/>
-      <c r="B186" s="14"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="14"/>
-      <c r="B187" s="14"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-images" xr:uid="{05F6F7B8-B24E-4B89-BB30-63D17A5C8CA5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11745,12 +11222,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -11760,14 +11237,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11797,189 +11274,189 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -11987,10 +11464,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -11998,98 +11475,98 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12097,54 +11574,54 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -12330,22 +11807,19 @@
       <c r="A107" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-local-files" xr:uid="{09E8DBCC-06DF-4644-93DC-D1E2A242F9C4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9014B11-7294-4050-ABF4-8B4EFBD7F103}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12357,12 +11831,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12370,12 +11844,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -12401,46 +11875,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12465,22 +11939,19 @@
       <c r="A29" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-links" xr:uid="{7E009504-7970-4653-B068-BC5DF09B6916}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DEE13-8567-47C0-98EF-B4590CF5D2FE}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12492,12 +11963,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12506,14 +11977,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12542,68 +12013,68 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12635,22 +12106,19 @@
       <c r="A31" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" location="worksheet-component-links" xr:uid="{7F4E4B1B-1F9F-4625-89F8-080D3B87445D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787D0651-AC56-4C79-A3A0-381B16C48D1E}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12662,24 +12130,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12704,90 +12172,90 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -12815,4 +12283,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53726BA2-5941-4360-BE7C-51934790BF29}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="4" max="4" width="48.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{30D23A26-B313-4BDA-B341-48EB50A3FC09}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{4DA0D69F-EE7E-41C3-97B8-7DF211486483}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA3286-CFCE-45E9-A8A9-F8BE1830E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC4B64-3331-4028-AD2F-665B4330AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="352">
   <si>
     <t>Name</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>Crystal oscillator</t>
-  </si>
-  <si>
-    <t>FreqGen</t>
   </si>
   <si>
     <t>Power</t>
@@ -698,9 +695,6 @@
     <t>UD2</t>
   </si>
   <si>
-    <t>M58725P</t>
-  </si>
-  <si>
     <t>UD7</t>
   </si>
   <si>
@@ -890,11 +884,6 @@
     <t>Datasheet for 7406</t>
   </si>
   <si>
-    <t>Schematics shows "4.433618 MHz", but every information I can find says the below is true:
-PAL = 8.867236 MHz
-NTSC = 14.31818 MHz</t>
-  </si>
-  <si>
     <t>The power plug is fully compatible with the C64, so you can use a power supply from a C64.</t>
   </si>
   <si>
@@ -1121,6 +1110,24 @@
   </si>
   <si>
     <t>Video chip (NTSC)</t>
+  </si>
+  <si>
+    <t>Expected oscilloscope reading</t>
+  </si>
+  <si>
+    <t>No measurements yet - can anyone help with this?</t>
+  </si>
+  <si>
+    <t>M58725</t>
+  </si>
+  <si>
+    <t>8.867236 MHz</t>
+  </si>
+  <si>
+    <t>14.31818 MHz</t>
+  </si>
+  <si>
+    <t>Schematics shows "4.433618 MHz", so I am in doubts if MHz is correct for this component?</t>
   </si>
   <si>
     <r>
@@ -1135,14 +1142,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-11</t>
+      <t>2025-July-13</t>
     </r>
-  </si>
-  <si>
-    <t>Expected oscilloscope reading</t>
-  </si>
-  <si>
-    <t>No measurements yet - can anyone help with this?</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1246,6 +1247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1261,7 +1268,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1368,9 +1375,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1388,6 +1392,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1708,7 +1718,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1724,17 +1734,17 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1747,7 +1757,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1757,7 +1767,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1775,22 +1785,22 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>10</v>
@@ -1799,18 +1809,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1827,10 +1837,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1847,10 +1857,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1867,10 +1877,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -1979,9 +1989,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,12 +2007,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2010,12 +2020,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2045,10 +2055,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2056,10 +2066,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
@@ -2071,10 +2081,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
@@ -2086,10 +2096,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>16</v>
@@ -2101,10 +2111,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
@@ -2116,10 +2126,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>16</v>
@@ -2131,10 +2141,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
@@ -2146,10 +2156,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>16</v>
@@ -2161,10 +2171,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
@@ -2176,10 +2186,10 @@
         <v>76</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>16</v>
@@ -2191,10 +2201,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
@@ -2206,10 +2216,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>16</v>
@@ -2221,10 +2231,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>16</v>
@@ -2236,10 +2246,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>16</v>
@@ -2254,7 +2264,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>16</v>
@@ -2266,10 +2276,10 @@
         <v>50</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>16</v>
@@ -2284,7 +2294,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>16</v>
@@ -2296,10 +2306,10 @@
         <v>52</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>16</v>
@@ -2311,10 +2321,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>16</v>
@@ -2326,10 +2336,10 @@
         <v>54</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>16</v>
@@ -2341,10 +2351,10 @@
         <v>55</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>16</v>
@@ -2356,10 +2366,10 @@
         <v>56</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>16</v>
@@ -2371,10 +2381,10 @@
         <v>57</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>16</v>
@@ -2386,10 +2396,10 @@
         <v>58</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>16</v>
@@ -2401,10 +2411,10 @@
         <v>59</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>16</v>
@@ -2416,17 +2426,17 @@
         <v>60</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2434,10 +2444,10 @@
         <v>61</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>16</v>
@@ -2449,10 +2459,10 @@
         <v>95</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>16</v>
@@ -2464,10 +2474,10 @@
         <v>65</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
@@ -2479,10 +2489,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>16</v>
@@ -2494,10 +2504,10 @@
         <v>77</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>16</v>
@@ -2512,7 +2522,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>16</v>
@@ -2524,10 +2534,10 @@
         <v>79</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>16</v>
@@ -2539,10 +2549,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>16</v>
@@ -2554,10 +2564,10 @@
         <v>81</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>16</v>
@@ -2569,10 +2579,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>16</v>
@@ -2584,10 +2594,10 @@
         <v>82</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>16</v>
@@ -2599,10 +2609,10 @@
         <v>83</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>16</v>
@@ -2614,10 +2624,10 @@
         <v>84</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>16</v>
@@ -2629,10 +2639,10 @@
         <v>85</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>16</v>
@@ -2647,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>16</v>
@@ -2659,10 +2669,10 @@
         <v>87</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>16</v>
@@ -2674,10 +2684,10 @@
         <v>88</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>16</v>
@@ -2689,10 +2699,10 @@
         <v>89</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>16</v>
@@ -2704,10 +2714,10 @@
         <v>90</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>16</v>
@@ -2719,10 +2729,10 @@
         <v>91</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>16</v>
@@ -2734,10 +2744,10 @@
         <v>92</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>16</v>
@@ -2749,10 +2759,10 @@
         <v>93</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>16</v>
@@ -2764,10 +2774,10 @@
         <v>94</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>16</v>
@@ -2776,91 +2786,91 @@
     </row>
     <row r="57" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="D57" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="C58" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>177</v>
-      </c>
       <c r="C60" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>193</v>
-      </c>
       <c r="C62" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -2881,10 +2891,10 @@
     </row>
     <row r="64" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>70</v>
@@ -2896,10 +2906,10 @@
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>72</v>
@@ -2911,10 +2921,10 @@
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>68</v>
@@ -2926,7 +2936,7 @@
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>37</v>
@@ -2941,13 +2951,13 @@
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>36</v>
@@ -2956,13 +2966,13 @@
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>36</v>
@@ -2971,10 +2981,10 @@
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>67</v>
@@ -2986,13 +2996,13 @@
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>36</v>
@@ -3001,7 +3011,7 @@
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="14">
         <v>6502</v>
@@ -3016,53 +3026,53 @@
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" s="14">
         <v>6561</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="14">
         <v>6560</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="14">
         <v>6522</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>35</v>
@@ -3071,13 +3081,13 @@
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B76" s="14">
         <v>6522</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>35</v>
@@ -3086,43 +3096,43 @@
     </row>
     <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B77" s="14">
         <v>2364</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B78" s="14">
         <v>2364</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" s="14">
         <v>2332</v>
@@ -3135,61 +3145,61 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B80" s="14">
         <v>2114</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B81" s="14">
         <v>2114</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="14">
         <v>2114</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3197,17 +3207,17 @@
         <v>30</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3215,28 +3225,28 @@
         <v>31</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="14">
         <v>555</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>35</v>
@@ -3245,13 +3255,13 @@
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" s="14">
         <v>7402</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>35</v>
@@ -3260,13 +3270,13 @@
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>35</v>
@@ -3275,13 +3285,13 @@
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="C88" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>35</v>
@@ -3290,13 +3300,13 @@
     </row>
     <row r="89" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>35</v>
@@ -3305,13 +3315,13 @@
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>35</v>
@@ -3320,13 +3330,13 @@
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>35</v>
@@ -3335,13 +3345,13 @@
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B92" s="14">
         <v>4066</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>35</v>
@@ -3350,20 +3360,20 @@
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="C93" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3374,7 +3384,7 @@
         <v>34</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>35</v>
@@ -3383,13 +3393,13 @@
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" s="14">
         <v>7406</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>35</v>
@@ -3398,129 +3408,147 @@
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>143</v>
-      </c>
       <c r="C98" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="41"/>
+    <row r="104" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="41"/>
+    <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
+    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="41"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="41"/>
+    <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="40"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25"/>
       <c r="E112" s="1"/>
     </row>
@@ -3534,7 +3562,7 @@
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="41"/>
+      <c r="A116" s="40"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3650,12 +3678,12 @@
     </row>
     <row r="153" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E153" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="154" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E154" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3997,8 +4025,8 @@
   <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4015,20 +4043,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="17"/>
       <c r="C3" s="30"/>
       <c r="D3" s="14"/>
@@ -4036,7 +4064,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="31"/>
@@ -4046,7 +4074,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="32"/>
@@ -4055,7 +4083,7 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="17"/>
       <c r="C6" s="30"/>
       <c r="D6" s="14"/>
@@ -4063,7 +4091,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="33"/>
@@ -4077,278 +4105,278 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="34"/>
       <c r="D9" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="34"/>
       <c r="D10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="34"/>
       <c r="D11" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="34"/>
       <c r="D12" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="34"/>
       <c r="D13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="34"/>
       <c r="D14" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="34"/>
       <c r="D15" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>184</v>
+      <c r="A16" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="30"/>
       <c r="D16" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="34"/>
       <c r="D17" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="34"/>
       <c r="D18" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="34"/>
       <c r="D19" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="34"/>
       <c r="D20" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="34"/>
       <c r="D21" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="34"/>
       <c r="D22" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="34"/>
       <c r="D23" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="34"/>
       <c r="D24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="34"/>
       <c r="D25" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="34"/>
       <c r="D26" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4358,10 +4386,10 @@
       <c r="B27" s="14"/>
       <c r="C27" s="34"/>
       <c r="D27" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4371,114 +4399,114 @@
       <c r="B28" s="14"/>
       <c r="C28" s="34"/>
       <c r="D28" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="34"/>
       <c r="D29" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="34"/>
       <c r="D30" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="34"/>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="34"/>
       <c r="D32" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="34"/>
       <c r="D33" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="34"/>
       <c r="D34" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="34"/>
       <c r="D35" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="34"/>
       <c r="D36" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4488,76 +4516,76 @@
       <c r="B37" s="14"/>
       <c r="C37" s="34"/>
       <c r="D37" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="34"/>
       <c r="D38" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
-        <v>146</v>
+      <c r="A39" s="45" t="s">
+        <v>145</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="30"/>
       <c r="D39" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
-        <v>147</v>
+      <c r="A40" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="30"/>
       <c r="D40" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="46" t="s">
-        <v>142</v>
+      <c r="A41" s="45" t="s">
+        <v>141</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="30"/>
       <c r="D41" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
         <v>96</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="30"/>
       <c r="D42" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42" s="14"/>
-      <c r="G42" s="1" t="s">
-        <v>271</v>
+      <c r="G42" s="46" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5030,21 +5058,21 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="41"/>
+      <c r="A111" s="40"/>
       <c r="B111"/>
       <c r="C111" s="4"/>
       <c r="E111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
+      <c r="A112" s="41"/>
       <c r="B112" s="24"/>
       <c r="C112" s="36"/>
       <c r="E112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="41"/>
+      <c r="A113" s="40"/>
       <c r="B113"/>
       <c r="C113" s="4"/>
       <c r="E113" s="1"/>
@@ -5405,1132 +5433,1132 @@
       <c r="G183" s="1"/>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E202" s="43"/>
+      <c r="E202" s="42"/>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E203" s="43"/>
+      <c r="E203" s="42"/>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E204" s="43"/>
+      <c r="E204" s="42"/>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E205" s="43"/>
+      <c r="E205" s="42"/>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E206" s="43"/>
+      <c r="E206" s="42"/>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E207" s="43"/>
+      <c r="E207" s="42"/>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E208" s="43"/>
+      <c r="E208" s="42"/>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E218" s="43"/>
+      <c r="E218" s="42"/>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E220" s="43"/>
+      <c r="E220" s="42"/>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E222" s="44"/>
+      <c r="E222" s="43"/>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E223" s="43"/>
+      <c r="E223" s="42"/>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E224" s="43"/>
+      <c r="E224" s="42"/>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E225" s="43"/>
+      <c r="E225" s="42"/>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E226" s="43"/>
+      <c r="E226" s="42"/>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E227" s="43"/>
+      <c r="E227" s="42"/>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E228" s="45"/>
+      <c r="E228" s="44"/>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E229" s="43"/>
+      <c r="E229" s="42"/>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E230" s="43"/>
+      <c r="E230" s="42"/>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E231" s="43"/>
+      <c r="E231" s="42"/>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E232" s="43"/>
+      <c r="E232" s="42"/>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E233" s="43"/>
+      <c r="E233" s="42"/>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E234" s="43"/>
+      <c r="E234" s="42"/>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E235" s="43"/>
+      <c r="E235" s="42"/>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E236" s="43"/>
+      <c r="E236" s="42"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E237" s="43"/>
+      <c r="E237" s="42"/>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E238" s="43"/>
+      <c r="E238" s="42"/>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E239" s="43"/>
+      <c r="E239" s="42"/>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E240" s="43"/>
+      <c r="E240" s="42"/>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E241" s="43"/>
+      <c r="E241" s="42"/>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E242" s="43"/>
+      <c r="E242" s="42"/>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E243" s="43"/>
+      <c r="E243" s="42"/>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E244" s="43"/>
+      <c r="E244" s="42"/>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E245" s="43"/>
+      <c r="E245" s="42"/>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E246" s="43"/>
+      <c r="E246" s="42"/>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E247" s="43"/>
+      <c r="E247" s="42"/>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E248" s="43"/>
+      <c r="E248" s="42"/>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E249" s="43"/>
+      <c r="E249" s="42"/>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E250" s="43"/>
+      <c r="E250" s="42"/>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E251" s="43"/>
+      <c r="E251" s="42"/>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E252" s="43"/>
+      <c r="E252" s="42"/>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E253" s="43"/>
+      <c r="E253" s="42"/>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E254" s="43"/>
+      <c r="E254" s="42"/>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E255" s="43"/>
+      <c r="E255" s="42"/>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E256" s="43"/>
+      <c r="E256" s="42"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E257" s="43"/>
+      <c r="E257" s="42"/>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E258" s="43"/>
+      <c r="E258" s="42"/>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E259" s="43"/>
+      <c r="E259" s="42"/>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E260" s="43"/>
+      <c r="E260" s="42"/>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E261" s="43"/>
+      <c r="E261" s="42"/>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E262" s="43"/>
+      <c r="E262" s="42"/>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="43"/>
+      <c r="E263" s="42"/>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E264" s="43"/>
+      <c r="E264" s="42"/>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E265" s="43"/>
+      <c r="E265" s="42"/>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E266" s="43"/>
+      <c r="E266" s="42"/>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E267" s="43"/>
+      <c r="E267" s="42"/>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E275" s="43"/>
+      <c r="E275" s="42"/>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E327" s="43"/>
+      <c r="E327" s="42"/>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E346" s="43"/>
+      <c r="E346" s="42"/>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E347" s="43"/>
+      <c r="E347" s="42"/>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E350" s="43"/>
+      <c r="E350" s="42"/>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E351" s="43"/>
+      <c r="E351" s="42"/>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E352" s="43"/>
+      <c r="E352" s="42"/>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E353" s="43"/>
+      <c r="E353" s="42"/>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E354" s="43"/>
+      <c r="E354" s="42"/>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E355" s="43"/>
+      <c r="E355" s="42"/>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E361" s="43"/>
+      <c r="E361" s="42"/>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E362" s="43"/>
+      <c r="E362" s="42"/>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E363" s="43"/>
+      <c r="E363" s="42"/>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E364" s="43"/>
+      <c r="E364" s="42"/>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E365" s="43"/>
+      <c r="E365" s="42"/>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E366" s="43"/>
+      <c r="E366" s="42"/>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E367" s="43"/>
+      <c r="E367" s="42"/>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E369" s="43"/>
+      <c r="E369" s="42"/>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E370" s="43"/>
+      <c r="E370" s="42"/>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E371" s="43"/>
+      <c r="E371" s="42"/>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E372" s="43"/>
+      <c r="E372" s="42"/>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E376" s="43"/>
+      <c r="E376" s="42"/>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E383" s="43"/>
+      <c r="E383" s="42"/>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E387" s="43"/>
+      <c r="E387" s="42"/>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E398" s="43"/>
+      <c r="E398" s="42"/>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E408" s="43"/>
+      <c r="E408" s="42"/>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E429" s="43"/>
+      <c r="E429" s="42"/>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E438" s="43"/>
+      <c r="E438" s="42"/>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E446" s="43"/>
+      <c r="E446" s="42"/>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E455" s="43"/>
+      <c r="E455" s="42"/>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E463" s="43"/>
+      <c r="E463" s="42"/>
     </row>
     <row r="471" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E471" s="43"/>
+      <c r="E471" s="42"/>
     </row>
     <row r="478" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E478" s="43"/>
+      <c r="E478" s="42"/>
     </row>
     <row r="494" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E494" s="44"/>
+      <c r="E494" s="43"/>
     </row>
     <row r="495" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E495" s="44"/>
+      <c r="E495" s="43"/>
     </row>
     <row r="498" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E498" s="44"/>
+      <c r="E498" s="43"/>
     </row>
     <row r="499" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E499" s="43"/>
+      <c r="E499" s="42"/>
     </row>
     <row r="512" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E512" s="43"/>
+      <c r="E512" s="42"/>
     </row>
     <row r="524" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E524" s="43"/>
+      <c r="E524" s="42"/>
     </row>
     <row r="528" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E528" s="43"/>
+      <c r="E528" s="42"/>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E529" s="43"/>
+      <c r="E529" s="42"/>
     </row>
     <row r="530" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E530" s="43"/>
+      <c r="E530" s="42"/>
     </row>
     <row r="531" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E531" s="43"/>
+      <c r="E531" s="42"/>
     </row>
     <row r="532" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E532" s="43"/>
+      <c r="E532" s="42"/>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E533" s="43"/>
+      <c r="E533" s="42"/>
     </row>
     <row r="534" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E534" s="43"/>
+      <c r="E534" s="42"/>
     </row>
     <row r="535" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E535" s="43"/>
+      <c r="E535" s="42"/>
     </row>
     <row r="536" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E536" s="43"/>
+      <c r="E536" s="42"/>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E537" s="43"/>
+      <c r="E537" s="42"/>
     </row>
     <row r="538" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E538" s="43"/>
+      <c r="E538" s="42"/>
     </row>
     <row r="539" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E539" s="43"/>
+      <c r="E539" s="42"/>
     </row>
     <row r="540" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E540" s="43"/>
+      <c r="E540" s="42"/>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E541" s="43"/>
+      <c r="E541" s="42"/>
     </row>
     <row r="542" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E542" s="43"/>
+      <c r="E542" s="42"/>
     </row>
     <row r="543" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E543" s="43"/>
+      <c r="E543" s="42"/>
     </row>
     <row r="544" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E544" s="43"/>
+      <c r="E544" s="42"/>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E545" s="43"/>
+      <c r="E545" s="42"/>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E546" s="43"/>
+      <c r="E546" s="42"/>
     </row>
     <row r="547" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E547" s="43"/>
+      <c r="E547" s="42"/>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E548" s="43"/>
+      <c r="E548" s="42"/>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E549" s="43"/>
+      <c r="E549" s="42"/>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E550" s="43"/>
+      <c r="E550" s="42"/>
     </row>
     <row r="551" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E551" s="43"/>
+      <c r="E551" s="42"/>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E566" s="43"/>
+      <c r="E566" s="42"/>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E568" s="43"/>
+      <c r="E568" s="42"/>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E569" s="43"/>
+      <c r="E569" s="42"/>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E570" s="43"/>
+      <c r="E570" s="42"/>
     </row>
     <row r="571" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E571" s="43"/>
+      <c r="E571" s="42"/>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E572" s="43"/>
+      <c r="E572" s="42"/>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E573" s="43"/>
+      <c r="E573" s="42"/>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E574" s="43"/>
+      <c r="E574" s="42"/>
     </row>
     <row r="575" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E575" s="43"/>
+      <c r="E575" s="42"/>
     </row>
     <row r="576" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E576" s="43"/>
+      <c r="E576" s="42"/>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E577" s="43"/>
+      <c r="E577" s="42"/>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E578" s="43"/>
+      <c r="E578" s="42"/>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E579" s="43"/>
+      <c r="E579" s="42"/>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E580" s="43"/>
+      <c r="E580" s="42"/>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E581" s="43"/>
+      <c r="E581" s="42"/>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E582" s="43"/>
+      <c r="E582" s="42"/>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E583" s="43"/>
+      <c r="E583" s="42"/>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E584" s="43"/>
+      <c r="E584" s="42"/>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E585" s="43"/>
+      <c r="E585" s="42"/>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E586" s="43"/>
+      <c r="E586" s="42"/>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E587" s="43"/>
+      <c r="E587" s="42"/>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E588" s="43"/>
+      <c r="E588" s="42"/>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E589" s="43"/>
+      <c r="E589" s="42"/>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E590" s="43"/>
+      <c r="E590" s="42"/>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E591" s="43"/>
+      <c r="E591" s="42"/>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E592" s="43"/>
+      <c r="E592" s="42"/>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E593" s="43"/>
+      <c r="E593" s="42"/>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E594" s="43"/>
+      <c r="E594" s="42"/>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E595" s="43"/>
+      <c r="E595" s="42"/>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E596" s="43"/>
+      <c r="E596" s="42"/>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E597" s="43"/>
+      <c r="E597" s="42"/>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E598" s="43"/>
+      <c r="E598" s="42"/>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E599" s="43"/>
+      <c r="E599" s="42"/>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E600" s="43"/>
+      <c r="E600" s="42"/>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E601" s="43"/>
+      <c r="E601" s="42"/>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E602" s="43"/>
+      <c r="E602" s="42"/>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E603" s="43"/>
+      <c r="E603" s="42"/>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E604" s="43"/>
+      <c r="E604" s="42"/>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E605" s="43"/>
+      <c r="E605" s="42"/>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E606" s="43"/>
+      <c r="E606" s="42"/>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E607" s="43"/>
+      <c r="E607" s="42"/>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E608" s="43"/>
+      <c r="E608" s="42"/>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E609" s="43"/>
+      <c r="E609" s="42"/>
     </row>
     <row r="610" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E610" s="43"/>
+      <c r="E610" s="42"/>
     </row>
     <row r="611" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E611" s="43"/>
+      <c r="E611" s="42"/>
     </row>
     <row r="612" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E612" s="43"/>
+      <c r="E612" s="42"/>
     </row>
     <row r="613" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E613" s="43"/>
+      <c r="E613" s="42"/>
     </row>
     <row r="614" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E614" s="43"/>
+      <c r="E614" s="42"/>
     </row>
     <row r="615" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E615" s="43"/>
+      <c r="E615" s="42"/>
     </row>
     <row r="617" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E617" s="43"/>
+      <c r="E617" s="42"/>
     </row>
     <row r="618" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E618" s="43"/>
+      <c r="E618" s="42"/>
     </row>
     <row r="619" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E619" s="43"/>
+      <c r="E619" s="42"/>
     </row>
     <row r="620" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E620" s="43"/>
+      <c r="E620" s="42"/>
     </row>
     <row r="621" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E621" s="43"/>
+      <c r="E621" s="42"/>
     </row>
     <row r="622" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E622" s="43"/>
+      <c r="E622" s="42"/>
     </row>
     <row r="623" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E623" s="43"/>
+      <c r="E623" s="42"/>
     </row>
     <row r="624" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E624" s="43"/>
+      <c r="E624" s="42"/>
     </row>
     <row r="625" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E625" s="43"/>
+      <c r="E625" s="42"/>
     </row>
     <row r="626" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E626" s="43"/>
+      <c r="E626" s="42"/>
     </row>
     <row r="627" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E627" s="43"/>
+      <c r="E627" s="42"/>
     </row>
     <row r="628" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E628" s="43"/>
+      <c r="E628" s="42"/>
     </row>
     <row r="629" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E629" s="43"/>
+      <c r="E629" s="42"/>
     </row>
     <row r="630" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E630" s="43"/>
+      <c r="E630" s="42"/>
     </row>
     <row r="631" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E631" s="43"/>
+      <c r="E631" s="42"/>
     </row>
     <row r="632" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E632" s="43"/>
+      <c r="E632" s="42"/>
     </row>
     <row r="633" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E633" s="43"/>
+      <c r="E633" s="42"/>
     </row>
     <row r="634" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E634" s="43"/>
+      <c r="E634" s="42"/>
     </row>
     <row r="635" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E635" s="43"/>
+      <c r="E635" s="42"/>
     </row>
     <row r="636" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E636" s="43"/>
+      <c r="E636" s="42"/>
     </row>
     <row r="637" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E637" s="43"/>
+      <c r="E637" s="42"/>
     </row>
     <row r="638" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E638" s="43"/>
+      <c r="E638" s="42"/>
     </row>
     <row r="639" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E639" s="43"/>
+      <c r="E639" s="42"/>
     </row>
     <row r="640" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E640" s="43"/>
+      <c r="E640" s="42"/>
     </row>
     <row r="641" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E641" s="43"/>
+      <c r="E641" s="42"/>
     </row>
     <row r="642" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E642" s="43"/>
+      <c r="E642" s="42"/>
     </row>
     <row r="643" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E643" s="43"/>
+      <c r="E643" s="42"/>
     </row>
     <row r="644" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E644" s="43"/>
+      <c r="E644" s="42"/>
     </row>
     <row r="645" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E645" s="43"/>
+      <c r="E645" s="42"/>
     </row>
     <row r="646" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E646" s="43"/>
+      <c r="E646" s="42"/>
     </row>
     <row r="647" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E647" s="43"/>
+      <c r="E647" s="42"/>
     </row>
     <row r="648" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E648" s="43"/>
+      <c r="E648" s="42"/>
     </row>
     <row r="649" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E649" s="43"/>
+      <c r="E649" s="42"/>
     </row>
     <row r="650" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E650" s="43"/>
+      <c r="E650" s="42"/>
     </row>
     <row r="651" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E651" s="43"/>
+      <c r="E651" s="42"/>
     </row>
     <row r="652" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E652" s="43"/>
+      <c r="E652" s="42"/>
     </row>
     <row r="653" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E653" s="43"/>
+      <c r="E653" s="42"/>
     </row>
     <row r="654" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E654" s="43"/>
+      <c r="E654" s="42"/>
     </row>
     <row r="655" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E655" s="43"/>
+      <c r="E655" s="42"/>
     </row>
     <row r="656" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E656" s="43"/>
+      <c r="E656" s="42"/>
     </row>
     <row r="657" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E657" s="43"/>
+      <c r="E657" s="42"/>
     </row>
     <row r="658" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E658" s="43"/>
+      <c r="E658" s="42"/>
     </row>
     <row r="659" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E659" s="43"/>
+      <c r="E659" s="42"/>
     </row>
     <row r="660" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E660" s="43"/>
+      <c r="E660" s="42"/>
     </row>
     <row r="661" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E661" s="43"/>
+      <c r="E661" s="42"/>
     </row>
     <row r="662" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E662" s="43"/>
+      <c r="E662" s="42"/>
     </row>
     <row r="663" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E663" s="43"/>
+      <c r="E663" s="42"/>
     </row>
     <row r="664" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E664" s="43"/>
+      <c r="E664" s="42"/>
     </row>
     <row r="674" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E674" s="43"/>
+      <c r="E674" s="42"/>
     </row>
     <row r="704" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E704" s="43"/>
+      <c r="E704" s="42"/>
     </row>
     <row r="714" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E714" s="43"/>
+      <c r="E714" s="42"/>
     </row>
     <row r="725" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E725" s="43"/>
+      <c r="E725" s="42"/>
     </row>
     <row r="726" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E726" s="43"/>
+      <c r="E726" s="42"/>
     </row>
     <row r="727" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E727" s="43"/>
+      <c r="E727" s="42"/>
     </row>
     <row r="728" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E728" s="43"/>
+      <c r="E728" s="42"/>
     </row>
     <row r="729" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E729" s="43"/>
+      <c r="E729" s="42"/>
     </row>
     <row r="730" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E730" s="43"/>
+      <c r="E730" s="42"/>
     </row>
     <row r="731" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E731" s="43"/>
+      <c r="E731" s="42"/>
     </row>
     <row r="732" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E732" s="43"/>
+      <c r="E732" s="42"/>
     </row>
     <row r="733" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E733" s="43"/>
+      <c r="E733" s="42"/>
     </row>
     <row r="734" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E734" s="43"/>
+      <c r="E734" s="42"/>
     </row>
     <row r="735" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E735" s="43"/>
+      <c r="E735" s="42"/>
     </row>
     <row r="736" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E736" s="43"/>
+      <c r="E736" s="42"/>
     </row>
     <row r="737" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E737" s="43"/>
+      <c r="E737" s="42"/>
     </row>
     <row r="738" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E738" s="43"/>
+      <c r="E738" s="42"/>
     </row>
     <row r="739" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E739" s="43"/>
+      <c r="E739" s="42"/>
     </row>
     <row r="740" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E740" s="43"/>
+      <c r="E740" s="42"/>
     </row>
     <row r="742" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E742" s="43"/>
+      <c r="E742" s="42"/>
     </row>
     <row r="743" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E743" s="43"/>
+      <c r="E743" s="42"/>
     </row>
     <row r="744" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E744" s="43"/>
+      <c r="E744" s="42"/>
     </row>
     <row r="745" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E745" s="43"/>
+      <c r="E745" s="42"/>
     </row>
     <row r="746" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E746" s="43"/>
+      <c r="E746" s="42"/>
     </row>
     <row r="747" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E747" s="43"/>
+      <c r="E747" s="42"/>
     </row>
     <row r="748" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E748" s="43"/>
+      <c r="E748" s="42"/>
     </row>
     <row r="749" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E749" s="43"/>
+      <c r="E749" s="42"/>
     </row>
     <row r="750" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E750" s="43"/>
+      <c r="E750" s="42"/>
     </row>
     <row r="751" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E751" s="43"/>
+      <c r="E751" s="42"/>
     </row>
     <row r="752" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E752" s="43"/>
+      <c r="E752" s="42"/>
     </row>
     <row r="753" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E753" s="43"/>
+      <c r="E753" s="42"/>
     </row>
     <row r="754" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E754" s="43"/>
+      <c r="E754" s="42"/>
     </row>
     <row r="755" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E755" s="43"/>
+      <c r="E755" s="42"/>
     </row>
     <row r="758" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E758" s="43"/>
+      <c r="E758" s="42"/>
     </row>
     <row r="762" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E762" s="43"/>
+      <c r="E762" s="42"/>
     </row>
     <row r="763" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E763" s="43"/>
+      <c r="E763" s="42"/>
     </row>
     <row r="764" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E764" s="43"/>
+      <c r="E764" s="42"/>
     </row>
     <row r="765" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E765" s="43"/>
+      <c r="E765" s="42"/>
     </row>
     <row r="768" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E768" s="43"/>
+      <c r="E768" s="42"/>
     </row>
     <row r="769" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E769" s="43"/>
+      <c r="E769" s="42"/>
     </row>
     <row r="770" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E770" s="43"/>
+      <c r="E770" s="42"/>
     </row>
     <row r="771" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E771" s="43"/>
+      <c r="E771" s="42"/>
     </row>
     <row r="774" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E774" s="43"/>
+      <c r="E774" s="42"/>
     </row>
     <row r="775" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E775" s="43"/>
+      <c r="E775" s="42"/>
     </row>
     <row r="776" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E776" s="43"/>
+      <c r="E776" s="42"/>
     </row>
     <row r="777" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E777" s="43"/>
+      <c r="E777" s="42"/>
     </row>
     <row r="778" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E778" s="43"/>
+      <c r="E778" s="42"/>
     </row>
     <row r="779" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E779" s="43"/>
+      <c r="E779" s="42"/>
     </row>
     <row r="780" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E780" s="43"/>
+      <c r="E780" s="42"/>
     </row>
     <row r="781" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E781" s="43"/>
+      <c r="E781" s="42"/>
     </row>
     <row r="782" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E782" s="43"/>
+      <c r="E782" s="42"/>
     </row>
     <row r="783" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E783" s="43"/>
+      <c r="E783" s="42"/>
     </row>
     <row r="784" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E784" s="43"/>
+      <c r="E784" s="42"/>
     </row>
     <row r="785" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E785" s="43"/>
+      <c r="E785" s="42"/>
     </row>
     <row r="786" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E786" s="43"/>
+      <c r="E786" s="42"/>
     </row>
     <row r="787" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E787" s="43"/>
+      <c r="E787" s="42"/>
     </row>
     <row r="789" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E789" s="43"/>
+      <c r="E789" s="42"/>
     </row>
     <row r="790" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E790" s="43"/>
+      <c r="E790" s="42"/>
     </row>
     <row r="791" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E791" s="43"/>
+      <c r="E791" s="42"/>
     </row>
     <row r="792" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E792" s="43"/>
+      <c r="E792" s="42"/>
     </row>
     <row r="793" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E793" s="43"/>
+      <c r="E793" s="42"/>
     </row>
     <row r="794" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E794" s="43"/>
+      <c r="E794" s="42"/>
     </row>
     <row r="795" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E795" s="43"/>
+      <c r="E795" s="42"/>
     </row>
     <row r="796" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E796" s="43"/>
+      <c r="E796" s="42"/>
     </row>
     <row r="797" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E797" s="43"/>
+      <c r="E797" s="42"/>
     </row>
     <row r="798" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E798" s="43"/>
+      <c r="E798" s="42"/>
     </row>
     <row r="799" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E799" s="43"/>
+      <c r="E799" s="42"/>
     </row>
     <row r="800" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E800" s="43"/>
+      <c r="E800" s="42"/>
     </row>
     <row r="801" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E801" s="43"/>
+      <c r="E801" s="42"/>
     </row>
     <row r="802" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E802" s="43"/>
+      <c r="E802" s="42"/>
     </row>
     <row r="804" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E804" s="43"/>
+      <c r="E804" s="42"/>
     </row>
     <row r="805" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E805" s="43"/>
+      <c r="E805" s="42"/>
     </row>
     <row r="806" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E806" s="43"/>
+      <c r="E806" s="42"/>
     </row>
     <row r="807" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E807" s="43"/>
+      <c r="E807" s="42"/>
     </row>
     <row r="808" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E808" s="43"/>
+      <c r="E808" s="42"/>
     </row>
     <row r="809" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E809" s="43"/>
+      <c r="E809" s="42"/>
     </row>
     <row r="810" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E810" s="43"/>
+      <c r="E810" s="42"/>
     </row>
     <row r="811" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E811" s="43"/>
+      <c r="E811" s="42"/>
     </row>
     <row r="812" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E812" s="43"/>
+      <c r="E812" s="42"/>
     </row>
     <row r="813" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E813" s="43"/>
+      <c r="E813" s="42"/>
     </row>
     <row r="814" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E814" s="43"/>
+      <c r="E814" s="42"/>
     </row>
     <row r="815" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E815" s="43"/>
+      <c r="E815" s="42"/>
     </row>
     <row r="816" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E816" s="43"/>
+      <c r="E816" s="42"/>
     </row>
     <row r="817" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E817" s="43"/>
+      <c r="E817" s="42"/>
     </row>
     <row r="819" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E819" s="43"/>
+      <c r="E819" s="42"/>
     </row>
     <row r="820" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E820" s="43"/>
+      <c r="E820" s="42"/>
     </row>
     <row r="821" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E821" s="43"/>
+      <c r="E821" s="42"/>
     </row>
     <row r="822" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E822" s="43"/>
+      <c r="E822" s="42"/>
     </row>
     <row r="823" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E823" s="43"/>
+      <c r="E823" s="42"/>
     </row>
     <row r="824" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E824" s="43"/>
+      <c r="E824" s="42"/>
     </row>
     <row r="825" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E825" s="43"/>
+      <c r="E825" s="42"/>
     </row>
     <row r="826" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E826" s="43"/>
+      <c r="E826" s="42"/>
     </row>
     <row r="827" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E827" s="43"/>
+      <c r="E827" s="42"/>
     </row>
     <row r="828" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E828" s="43"/>
+      <c r="E828" s="42"/>
     </row>
     <row r="829" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E829" s="43"/>
+      <c r="E829" s="42"/>
     </row>
     <row r="830" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E830" s="43"/>
+      <c r="E830" s="42"/>
     </row>
     <row r="831" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E831" s="43"/>
+      <c r="E831" s="42"/>
     </row>
     <row r="832" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E832" s="43"/>
+      <c r="E832" s="42"/>
     </row>
     <row r="833" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E833" s="43"/>
+      <c r="E833" s="42"/>
     </row>
     <row r="834" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E834" s="43"/>
+      <c r="E834" s="42"/>
     </row>
     <row r="835" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E835" s="43"/>
+      <c r="E835" s="42"/>
     </row>
     <row r="836" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E836" s="43"/>
+      <c r="E836" s="42"/>
     </row>
     <row r="837" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E837" s="43"/>
+      <c r="E837" s="42"/>
     </row>
     <row r="838" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E838" s="43"/>
+      <c r="E838" s="42"/>
     </row>
     <row r="839" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E839" s="43"/>
+      <c r="E839" s="42"/>
     </row>
     <row r="840" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E840" s="43"/>
+      <c r="E840" s="42"/>
     </row>
     <row r="841" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E841" s="43"/>
+      <c r="E841" s="42"/>
     </row>
     <row r="842" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E842" s="43"/>
+      <c r="E842" s="42"/>
     </row>
     <row r="843" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E843" s="43"/>
+      <c r="E843" s="42"/>
     </row>
     <row r="844" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E844" s="43"/>
+      <c r="E844" s="42"/>
     </row>
     <row r="845" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E845" s="43"/>
+      <c r="E845" s="42"/>
     </row>
     <row r="846" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E846" s="43"/>
+      <c r="E846" s="42"/>
     </row>
     <row r="848" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E848" s="43"/>
+      <c r="E848" s="42"/>
     </row>
     <row r="861" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E861" s="43"/>
+      <c r="E861" s="42"/>
     </row>
     <row r="875" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E875" s="43"/>
+      <c r="E875" s="42"/>
     </row>
     <row r="877" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E877" s="43"/>
+      <c r="E877" s="42"/>
     </row>
     <row r="890" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E890" s="43"/>
+      <c r="E890" s="42"/>
     </row>
     <row r="904" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E904" s="43"/>
+      <c r="E904" s="42"/>
     </row>
     <row r="906" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E906" s="43"/>
+      <c r="E906" s="42"/>
     </row>
     <row r="919" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E919" s="43"/>
+      <c r="E919" s="42"/>
     </row>
     <row r="933" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E933" s="43"/>
+      <c r="E933" s="42"/>
     </row>
     <row r="936" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E936" s="43"/>
+      <c r="E936" s="42"/>
     </row>
     <row r="937" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E937" s="43"/>
+      <c r="E937" s="42"/>
     </row>
     <row r="938" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E938" s="43"/>
+      <c r="E938" s="42"/>
     </row>
     <row r="939" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E939" s="43"/>
+      <c r="E939" s="42"/>
     </row>
     <row r="940" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E940" s="43"/>
+      <c r="E940" s="42"/>
     </row>
     <row r="941" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E941" s="43"/>
+      <c r="E941" s="42"/>
     </row>
     <row r="942" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E942" s="43"/>
+      <c r="E942" s="42"/>
     </row>
     <row r="943" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E943" s="43"/>
+      <c r="E943" s="42"/>
     </row>
     <row r="944" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E944" s="43"/>
+      <c r="E944" s="42"/>
     </row>
     <row r="945" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E945" s="43"/>
+      <c r="E945" s="42"/>
     </row>
     <row r="946" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E946" s="43"/>
+      <c r="E946" s="42"/>
     </row>
     <row r="947" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E947" s="43"/>
+      <c r="E947" s="42"/>
     </row>
     <row r="948" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E948" s="43"/>
+      <c r="E948" s="42"/>
     </row>
     <row r="949" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E949" s="43"/>
+      <c r="E949" s="42"/>
     </row>
     <row r="958" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E958" s="43"/>
+      <c r="E958" s="42"/>
     </row>
     <row r="975" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E975" s="43"/>
+      <c r="E975" s="42"/>
     </row>
     <row r="992" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E992" s="43"/>
+      <c r="E992" s="42"/>
     </row>
     <row r="1009" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1009" s="43"/>
+      <c r="E1009" s="42"/>
     </row>
     <row r="1026" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1026" s="43"/>
+      <c r="E1026" s="42"/>
     </row>
     <row r="1043" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1043" s="43"/>
+      <c r="E1043" s="42"/>
     </row>
     <row r="1060" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1060" s="43"/>
+      <c r="E1060" s="42"/>
     </row>
     <row r="1077" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1077" s="43"/>
+      <c r="E1077" s="42"/>
     </row>
     <row r="1094" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1094" s="43"/>
+      <c r="E1094" s="42"/>
     </row>
     <row r="1111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1111" s="43"/>
+      <c r="E1111" s="42"/>
     </row>
     <row r="1128" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1128" s="43"/>
+      <c r="E1128" s="42"/>
     </row>
     <row r="1145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1145" s="43"/>
+      <c r="E1145" s="42"/>
     </row>
     <row r="1162" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1162" s="43"/>
+      <c r="E1162" s="42"/>
     </row>
     <row r="1179" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1179" s="43"/>
+      <c r="E1179" s="42"/>
     </row>
     <row r="1196" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1196" s="43"/>
+      <c r="E1196" s="42"/>
     </row>
     <row r="1213" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1213" s="43"/>
+      <c r="E1213" s="42"/>
     </row>
     <row r="1236" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1236" s="43"/>
+      <c r="E1236" s="42"/>
     </row>
     <row r="1257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1257" s="43"/>
+      <c r="E1257" s="42"/>
     </row>
     <row r="1272" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1272" s="43"/>
+      <c r="E1272" s="42"/>
     </row>
     <row r="1287" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1287" s="43"/>
+      <c r="E1287" s="42"/>
     </row>
     <row r="1302" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1302" s="43"/>
+      <c r="E1302" s="42"/>
     </row>
     <row r="1318" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1318" s="43"/>
+      <c r="E1318" s="42"/>
     </row>
     <row r="1326" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1326" s="43"/>
+      <c r="E1326" s="42"/>
     </row>
     <row r="1354" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1354" s="43"/>
+      <c r="E1354" s="42"/>
     </row>
     <row r="1362" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1362" s="43"/>
+      <c r="E1362" s="42"/>
     </row>
     <row r="1369" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1369" s="43"/>
+      <c r="E1369" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6560,12 +6588,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6580,7 +6608,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -6592,7 +6620,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -6614,7 +6642,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -6624,7 +6652,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
@@ -6644,7 +6672,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>95</v>
@@ -6664,7 +6692,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>65</v>
@@ -6684,7 +6712,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>27</v>
@@ -6704,7 +6732,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>77</v>
@@ -6724,7 +6752,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>78</v>
@@ -6744,7 +6772,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>79</v>
@@ -6764,7 +6792,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>80</v>
@@ -6784,7 +6812,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>81</v>
@@ -6804,7 +6832,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>28</v>
@@ -6824,7 +6852,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>82</v>
@@ -6844,7 +6872,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>83</v>
@@ -6864,7 +6892,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>84</v>
@@ -6884,7 +6912,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>85</v>
@@ -6904,7 +6932,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>86</v>
@@ -6924,7 +6952,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>87</v>
@@ -6944,7 +6972,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>88</v>
@@ -6964,7 +6992,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>66</v>
@@ -6984,10 +7012,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="17">
         <v>1758</v>
@@ -7004,10 +7032,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="17">
         <v>2822</v>
@@ -7024,10 +7052,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="17">
         <v>3842</v>
@@ -7044,10 +7072,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="17">
         <v>3221</v>
@@ -7064,10 +7092,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="17">
         <v>2430</v>
@@ -7084,10 +7112,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="17">
         <v>3524</v>
@@ -7104,10 +7132,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="17">
         <v>2833</v>
@@ -7124,10 +7152,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" s="17">
         <v>5253</v>
@@ -7144,10 +7172,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="17">
         <v>3066</v>
@@ -7164,10 +7192,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="17">
         <v>2681</v>
@@ -7184,10 +7212,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="17">
         <v>3043</v>
@@ -7204,10 +7232,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="17">
         <v>3199</v>
@@ -7224,10 +7252,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="17">
         <v>3196</v>
@@ -7244,10 +7272,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="17">
         <v>840</v>
@@ -7264,10 +7292,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="17">
         <v>821</v>
@@ -7284,10 +7312,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="17">
         <v>2227</v>
@@ -7304,10 +7332,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="17">
         <v>2231</v>
@@ -7324,10 +7352,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" s="17">
         <v>2210</v>
@@ -7344,10 +7372,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C44" s="17">
         <v>3388</v>
@@ -7364,10 +7392,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="17">
         <v>3132</v>
@@ -7384,10 +7412,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" s="17">
         <v>3335</v>
@@ -7404,10 +7432,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="17">
         <v>3048</v>
@@ -7424,10 +7452,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="17">
         <v>3030</v>
@@ -7444,7 +7472,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>63</v>
@@ -7464,7 +7492,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>17</v>
@@ -7484,7 +7512,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>18</v>
@@ -7504,7 +7532,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>64</v>
@@ -7524,7 +7552,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>19</v>
@@ -7544,7 +7572,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>20</v>
@@ -7564,7 +7592,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -7584,7 +7612,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>75</v>
@@ -7604,7 +7632,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>76</v>
@@ -7624,7 +7652,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>22</v>
@@ -7644,7 +7672,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>23</v>
@@ -7664,7 +7692,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>24</v>
@@ -7684,7 +7712,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>25</v>
@@ -7704,7 +7732,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>26</v>
@@ -7724,7 +7752,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>50</v>
@@ -7744,7 +7772,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>51</v>
@@ -7764,7 +7792,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>53</v>
@@ -7784,7 +7812,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>54</v>
@@ -7804,7 +7832,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>89</v>
@@ -7824,7 +7852,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>91</v>
@@ -7844,7 +7872,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>92</v>
@@ -7864,7 +7892,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>94</v>
@@ -7884,10 +7912,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C71" s="17">
         <v>5365</v>
@@ -7904,10 +7932,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="17">
         <v>5315</v>
@@ -7924,10 +7952,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="17">
         <v>4567</v>
@@ -7944,10 +7972,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C74" s="17">
         <v>4946</v>
@@ -7964,10 +7992,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="17">
         <v>4175</v>
@@ -7984,10 +8012,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C76" s="17">
         <v>3888</v>
@@ -8004,10 +8032,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="17">
         <v>2596</v>
@@ -8024,10 +8052,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="17">
         <v>3069</v>
@@ -8044,10 +8072,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="17">
         <v>3223</v>
@@ -8064,10 +8092,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="17">
         <v>3242</v>
@@ -8084,10 +8112,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="17">
         <v>1303</v>
@@ -8104,10 +8132,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="17">
         <v>2721</v>
@@ -8124,10 +8152,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="17">
         <v>3156</v>
@@ -8144,10 +8172,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="17">
         <v>810</v>
@@ -8164,10 +8192,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="17">
         <v>2339</v>
@@ -8184,10 +8212,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="17">
         <v>2889</v>
@@ -8204,10 +8232,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" s="17">
         <v>1640</v>
@@ -8224,10 +8252,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="17">
         <v>2766</v>
@@ -8244,10 +8272,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="17">
         <v>1642</v>
@@ -8264,10 +8292,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="17">
         <v>666</v>
@@ -8284,10 +8312,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C91" s="17">
         <v>1642</v>
@@ -8304,7 +8332,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>96</v>
@@ -8324,7 +8352,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>52</v>
@@ -8344,7 +8372,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>55</v>
@@ -8364,7 +8392,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>56</v>
@@ -8384,7 +8412,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>57</v>
@@ -8404,7 +8432,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>58</v>
@@ -8424,7 +8452,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>59</v>
@@ -8444,7 +8472,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>60</v>
@@ -8464,7 +8492,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>61</v>
@@ -8484,7 +8512,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>90</v>
@@ -8504,7 +8532,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>93</v>
@@ -8524,7 +8552,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>29</v>
@@ -8544,7 +8572,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>29</v>
@@ -8564,7 +8592,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>29</v>
@@ -8584,7 +8612,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>29</v>
@@ -8604,7 +8632,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>30</v>
@@ -8624,7 +8652,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>31</v>
@@ -8644,10 +8672,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="17">
         <v>630</v>
@@ -8664,10 +8692,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110" s="17">
         <v>978</v>
@@ -8684,10 +8712,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="17">
         <v>1355</v>
@@ -8704,10 +8732,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C112" s="17">
         <v>2013</v>
@@ -8724,10 +8752,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113" s="17">
         <v>1390</v>
@@ -8744,10 +8772,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C114" s="17">
         <v>5141</v>
@@ -8764,10 +8792,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C115" s="17">
         <v>773</v>
@@ -8784,10 +8812,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C116" s="17">
         <v>2041</v>
@@ -8804,10 +8832,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C117" s="17">
         <v>2651</v>
@@ -8824,10 +8852,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" s="17">
         <v>4519</v>
@@ -8844,10 +8872,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C119" s="17">
         <v>5138</v>
@@ -8864,7 +8892,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>63</v>
@@ -8884,7 +8912,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>17</v>
@@ -8904,7 +8932,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>18</v>
@@ -8924,7 +8952,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>64</v>
@@ -8944,7 +8972,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>19</v>
@@ -8964,7 +8992,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>20</v>
@@ -8984,7 +9012,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>21</v>
@@ -9004,7 +9032,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>75</v>
@@ -9024,7 +9052,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>76</v>
@@ -9044,7 +9072,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>22</v>
@@ -9064,7 +9092,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>23</v>
@@ -9084,7 +9112,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>24</v>
@@ -9104,7 +9132,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>25</v>
@@ -9124,7 +9152,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>26</v>
@@ -9144,7 +9172,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>50</v>
@@ -9164,7 +9192,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>51</v>
@@ -9184,7 +9212,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>52</v>
@@ -9204,7 +9232,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>53</v>
@@ -9224,7 +9252,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>54</v>
@@ -9244,7 +9272,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>55</v>
@@ -9264,7 +9292,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>56</v>
@@ -9284,7 +9312,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B141" s="17" t="s">
         <v>57</v>
@@ -9304,7 +9332,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>58</v>
@@ -9324,7 +9352,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>59</v>
@@ -9344,7 +9372,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>60</v>
@@ -9364,7 +9392,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B145" s="17" t="s">
         <v>61</v>
@@ -9384,7 +9412,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>95</v>
@@ -9404,7 +9432,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>65</v>
@@ -9424,7 +9452,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>27</v>
@@ -9444,7 +9472,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>77</v>
@@ -9464,7 +9492,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>78</v>
@@ -9484,7 +9512,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>79</v>
@@ -9504,7 +9532,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>80</v>
@@ -9524,7 +9552,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>81</v>
@@ -9544,7 +9572,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>28</v>
@@ -9564,7 +9592,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>82</v>
@@ -9584,7 +9612,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>83</v>
@@ -9604,7 +9632,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B157" s="17" t="s">
         <v>84</v>
@@ -9624,7 +9652,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>85</v>
@@ -9644,7 +9672,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>86</v>
@@ -9664,7 +9692,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B160" s="17" t="s">
         <v>87</v>
@@ -9684,7 +9712,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B161" s="17" t="s">
         <v>88</v>
@@ -9704,7 +9732,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>89</v>
@@ -9724,7 +9752,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>90</v>
@@ -9744,7 +9772,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>91</v>
@@ -9764,7 +9792,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>92</v>
@@ -9784,7 +9812,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>93</v>
@@ -9804,7 +9832,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>94</v>
@@ -9824,7 +9852,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>66</v>
@@ -9844,10 +9872,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C169" s="17">
         <v>220</v>
@@ -9864,10 +9892,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C170" s="17">
         <v>735</v>
@@ -9884,10 +9912,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C171" s="17">
         <v>2183</v>
@@ -9904,10 +9932,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C172" s="17">
         <v>2256</v>
@@ -9924,10 +9952,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C173" s="17">
         <v>238</v>
@@ -9944,10 +9972,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C174" s="17">
         <v>741</v>
@@ -9964,10 +9992,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" s="17">
         <v>1035</v>
@@ -9984,10 +10012,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C176" s="17">
         <v>1215</v>
@@ -10004,10 +10032,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="17">
         <v>2299</v>
@@ -10024,10 +10052,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C178" s="17">
         <v>1378</v>
@@ -10044,10 +10072,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C179" s="17">
         <v>2306</v>
@@ -10064,10 +10092,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C180" s="17">
         <v>923</v>
@@ -10084,10 +10112,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="17">
         <v>953</v>
@@ -10104,10 +10132,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" s="17">
         <v>668</v>
@@ -10124,10 +10152,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="17">
         <v>689</v>
@@ -10144,10 +10172,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C184" s="17">
         <v>2264</v>
@@ -10164,7 +10192,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>29</v>
@@ -10184,7 +10212,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>30</v>
@@ -10204,7 +10232,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B187" s="17" t="s">
         <v>31</v>
@@ -10224,10 +10252,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="17">
         <v>266</v>
@@ -10244,10 +10272,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="17">
         <v>413</v>
@@ -10264,10 +10292,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="17">
         <v>570</v>
@@ -10284,10 +10312,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C191" s="17">
         <v>570</v>
@@ -10304,10 +10332,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C192" s="17">
         <v>884</v>
@@ -10324,10 +10352,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C193" s="17">
         <v>1244</v>
@@ -10344,10 +10372,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C194" s="17">
         <v>1382</v>
@@ -10364,10 +10392,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C195" s="17">
         <v>1457</v>
@@ -10384,10 +10412,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C196" s="17">
         <v>1517</v>
@@ -10404,10 +10432,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197" s="17">
         <v>1788</v>
@@ -10424,10 +10452,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" s="17">
         <v>1606</v>
@@ -10444,10 +10472,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" s="17">
         <v>838</v>
@@ -10464,10 +10492,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B200" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C200" s="17">
         <v>570</v>
@@ -10484,10 +10512,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C201" s="17">
         <v>922</v>
@@ -10504,10 +10532,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C202" s="17">
         <v>1260</v>
@@ -10524,10 +10552,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C203" s="17">
         <v>1697</v>
@@ -10544,10 +10572,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C204" s="17">
         <v>748</v>
@@ -10564,10 +10592,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205" s="17">
         <v>660</v>
@@ -10584,10 +10612,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C206" s="17">
         <v>1154</v>
@@ -10604,10 +10632,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C207" s="17">
         <v>1960</v>
@@ -10624,10 +10652,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B208" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C208" s="17">
         <v>1674</v>
@@ -10644,10 +10672,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B209" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C209" s="17">
         <v>1810</v>
@@ -10664,10 +10692,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C210" s="17">
         <v>1547</v>
@@ -10684,7 +10712,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B211" s="17" t="s">
         <v>96</v>
@@ -12557,12 +12585,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -12572,14 +12600,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12609,189 +12637,189 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12799,10 +12827,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12810,98 +12838,98 @@
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12909,54 +12937,54 @@
         <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -13166,12 +13194,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13179,12 +13207,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -13210,46 +13238,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -13298,12 +13326,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13312,14 +13340,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13348,57 +13376,57 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13406,10 +13434,10 @@
         <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -13465,24 +13493,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13507,32 +13535,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
@@ -13540,21 +13568,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -13562,13 +13590,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -13576,7 +13604,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -13587,10 +13615,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -13639,7 +13667,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="10"/>
@@ -13647,7 +13675,7 @@
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
@@ -13655,7 +13683,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="6"/>
@@ -13663,7 +13691,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="6"/>
@@ -13671,7 +13699,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13682,43 +13710,43 @@
         <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D11" s="39"/>
     </row>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore VIC-20\250403\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AC4B64-3331-4028-AD2F-665B4330AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C927A9-29F0-436B-8A58-F8F04F0E7D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -893,147 +893,6 @@
     <t>Bridge rectifier</t>
   </si>
   <si>
-    <t>Data/Commodore VIC-20/250403/251027-1of3-IO.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore VIC-20/250403/251027-2of3-CPU-VIC.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore VIC-20/250403/251027-3of3-RAM-ROM.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore VIC-20/250403/Board layout.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 User Port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 Cassette Port.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 Serial.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 Audio-Video.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 Joystick.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/VIC-20 Expansion.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/Power_connector.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6560.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6522.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/555.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS04.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS02.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS138.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS133.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/74LS245.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/NE555.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN74LS04.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/DM74LS02.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/HCF4066B.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/74LS138-139.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN54LS133.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN7408.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component local files/SN74LS245.PDF</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/VIC-20 Color-Colour Memory Map.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/VIC-20 memory map basic screen color.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -1050,12 +909,6 @@
   </si>
   <si>
     <t>My Old Computer; Commodore VIC-20 (Cost Reduced)</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/6502.jpg</t>
-  </si>
-  <si>
-    <t>Data/Commodore shared files/Component images/58725P.jpg</t>
   </si>
   <si>
     <t>Resources</t>
@@ -1142,8 +995,155 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-July-13</t>
+      <t>2025-September-13</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/251027-1of3-IO.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/251027-2of3-CPU-VIC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/251027-3of3-RAM-ROM.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/Board layout.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 User Port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Cassette Port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Serial.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Audio-Video.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Joystick.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Expansion.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power_connector.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6502.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6560.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6522.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/58725P.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/555.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS04.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS02.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS138.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS133.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS245.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE555.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN74LS04.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/DM74LS02.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/HCF4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS138-139.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN54LS133.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7408.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20 Color-Colour Memory Map.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20 memory map basic screen color.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1718,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>234</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1840,7 +1840,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1860,7 +1860,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1880,7 +1880,7 @@
         <v>222</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -1989,9 +1989,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>107</v>
@@ -3038,10 +3038,10 @@
         <v>35</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3058,10 +3058,10 @@
         <v>35</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3207,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>261</v>
@@ -3225,7 +3225,7 @@
         <v>31</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>261</v>
@@ -3493,10 +3493,10 @@
         <v>62</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3511,10 +3511,10 @@
         <v>62</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -3678,12 +3678,12 @@
     </row>
     <row r="153" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E153" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E154" s="1" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -4025,8 +4025,8 @@
   <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4105,22 +4105,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4147,7 +4147,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4160,7 +4160,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>104</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>104</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
         <v>104</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4212,7 +4212,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4225,7 +4225,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>269</v>
@@ -4241,7 +4241,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4267,7 +4267,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4280,7 +4280,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4293,7 +4293,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>216</v>
@@ -4309,7 +4309,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>217</v>
@@ -4325,7 +4325,7 @@
         <v>104</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>218</v>
@@ -4341,7 +4341,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>255</v>
@@ -4357,7 +4357,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>256</v>
@@ -4373,7 +4373,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>256</v>
@@ -4389,7 +4389,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4402,7 +4402,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4415,7 +4415,7 @@
         <v>104</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4428,7 +4428,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4441,7 +4441,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4454,7 +4454,7 @@
         <v>104</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4467,7 +4467,7 @@
         <v>104</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4480,7 +4480,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,7 +4493,7 @@
         <v>104</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4506,7 +4506,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,7 +4519,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4532,7 +4532,7 @@
         <v>104</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4545,7 +4545,7 @@
         <v>104</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>104</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4571,7 +4571,7 @@
         <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="46" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -12643,7 +12643,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12654,7 +12654,7 @@
         <v>219</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12665,7 +12665,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12676,7 +12676,7 @@
         <v>219</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12687,7 +12687,7 @@
         <v>219</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12698,7 +12698,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12709,7 +12709,7 @@
         <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -12720,7 +12720,7 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -12731,7 +12731,7 @@
         <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -12742,7 +12742,7 @@
         <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -12753,7 +12753,7 @@
         <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -12764,7 +12764,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -12775,7 +12775,7 @@
         <v>238</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -12786,7 +12786,7 @@
         <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -12797,7 +12797,7 @@
         <v>237</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -12808,7 +12808,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -12819,7 +12819,7 @@
         <v>237</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12830,7 +12830,7 @@
         <v>253</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12841,7 +12841,7 @@
         <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12852,7 +12852,7 @@
         <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12863,7 +12863,7 @@
         <v>262</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12874,7 +12874,7 @@
         <v>263</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12885,7 +12885,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12896,7 +12896,7 @@
         <v>248</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12907,7 +12907,7 @@
         <v>248</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12918,7 +12918,7 @@
         <v>248</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12929,7 +12929,7 @@
         <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12940,7 +12940,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12951,7 +12951,7 @@
         <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12962,7 +12962,7 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12973,7 +12973,7 @@
         <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12984,7 +12984,7 @@
         <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -13347,7 +13347,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13376,57 +13376,57 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13437,7 +13437,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -13535,21 +13535,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>233</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
@@ -13557,7 +13557,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
@@ -13568,7 +13568,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -13615,10 +13615,10 @@
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -13691,7 +13691,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="6"/>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -13710,43 +13710,43 @@
         <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="D11" s="39"/>
     </row>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C927A9-29F0-436B-8A58-F8F04F0E7D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0E1F3-2DF1-43E3-8F29-8A0A70317B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Board local files" sheetId="9" r:id="rId7"/>
     <sheet name="Board links" sheetId="10" r:id="rId8"/>
     <sheet name="Credits" sheetId="13" r:id="rId9"/>
+    <sheet name="Version match" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -983,6 +984,156 @@
     <t>Schematics shows "4.433618 MHz", so I am in doubts if MHz is correct for this component?</t>
   </si>
   <si>
+    <t>Commodore VIC-20/250403/251027-1of3-IO.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/251027-2of3-CPU-VIC.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/251027-3of3-RAM-ROM.jpg</t>
+  </si>
+  <si>
+    <t>Commodore VIC-20/250403/Board layout.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 User Port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Cassette Port.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Serial.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Audio-Video.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Joystick.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/VIC-20 Expansion.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/Power_connector.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6502.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6560.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/6522.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2364.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2332.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/2114.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/58725P.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/555.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS04.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS02.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/4066.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS138.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS133.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7408.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/7406.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS245.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/NE555.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN74LS04.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/DM74LS02.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/HCF4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS138-139.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN54LS133.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7408.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/SN74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20 Color-Colour Memory Map.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20 memory map basic screen color.jpg</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
+  </si>
+  <si>
+    <t>Part-number</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -995,155 +1146,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-September-13</t>
+      <t>2025-December-13</t>
     </r>
   </si>
   <si>
-    <t>Commodore VIC-20/250403/251027-1of3-IO.jpg</t>
-  </si>
-  <si>
-    <t>Commodore VIC-20/250403/251027-2of3-CPU-VIC.jpg</t>
-  </si>
-  <si>
-    <t>Commodore VIC-20/250403/251027-3of3-RAM-ROM.jpg</t>
-  </si>
-  <si>
-    <t>Commodore VIC-20/250403/Board layout.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 User Port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 Cassette Port.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 Serial.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 Audio-Video.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 Joystick.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/VIC-20 Expansion.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/Power_connector.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6502.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6560.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/6522.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2364.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2332.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/2114.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/58725P.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/555.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS04.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS02.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/4066.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS138.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS133.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7408.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/7406.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS245.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/NE555.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN74LS04.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/DM74LS02.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/HCF4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS138-139.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN54LS133.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7408.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN74LS245.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc12_early_model.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/VIC-20 Color-Colour Memory Map.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/VIC-20 memory map basic screen color.jpg</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Board local files/VIC-20_The_Friendly_Computer_Technical_Manual_(PN_990440).pdf</t>
+    <t>CRT version(s) where this Excel will work</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>2025-December-8</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1757,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1820,7 +1833,7 @@
         <v>234</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
@@ -1840,7 +1853,7 @@
         <v>235</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1860,7 +1873,7 @@
         <v>236</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1880,7 +1893,7 @@
         <v>222</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
@@ -1984,10 +1997,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BD200-C117-4EDC-8034-AF324B9644E5}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1998,40 +2068,41 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -2040,8 +2111,9 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
@@ -2052,16 +2124,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G8" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>63</v>
       </c>
@@ -2071,12 +2146,12 @@
       <c r="C9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -2086,12 +2161,12 @@
       <c r="C10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2101,12 +2176,12 @@
       <c r="C11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>64</v>
       </c>
@@ -2116,12 +2191,12 @@
       <c r="C12" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -2131,12 +2206,12 @@
       <c r="C13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
@@ -2146,12 +2221,12 @@
       <c r="C14" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -2161,12 +2236,12 @@
       <c r="C15" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>75</v>
       </c>
@@ -2176,12 +2251,12 @@
       <c r="C16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>76</v>
       </c>
@@ -2191,12 +2266,12 @@
       <c r="C17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>22</v>
       </c>
@@ -2206,12 +2281,12 @@
       <c r="C18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
@@ -2221,12 +2296,12 @@
       <c r="C19" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
@@ -2236,12 +2311,12 @@
       <c r="C20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
@@ -2251,12 +2326,12 @@
       <c r="C21" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -2266,12 +2341,12 @@
       <c r="C22" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>50</v>
       </c>
@@ -2281,12 +2356,12 @@
       <c r="C23" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>51</v>
       </c>
@@ -2296,12 +2371,12 @@
       <c r="C24" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>52</v>
       </c>
@@ -2311,12 +2386,12 @@
       <c r="C25" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
@@ -2326,12 +2401,12 @@
       <c r="C26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>54</v>
       </c>
@@ -2341,12 +2416,12 @@
       <c r="C27" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>55</v>
       </c>
@@ -2356,12 +2431,12 @@
       <c r="C28" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>56</v>
       </c>
@@ -2371,12 +2446,12 @@
       <c r="C29" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
@@ -2386,12 +2461,12 @@
       <c r="C30" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>58</v>
       </c>
@@ -2401,12 +2476,12 @@
       <c r="C31" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>59</v>
       </c>
@@ -2416,12 +2491,12 @@
       <c r="C32" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>60</v>
       </c>
@@ -2431,15 +2506,15 @@
       <c r="C33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
@@ -2449,12 +2524,12 @@
       <c r="C34" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>95</v>
       </c>
@@ -2464,12 +2539,12 @@
       <c r="C35" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>65</v>
       </c>
@@ -2479,12 +2554,12 @@
       <c r="C36" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="E36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
@@ -2494,12 +2569,12 @@
       <c r="C37" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>77</v>
       </c>
@@ -2509,12 +2584,12 @@
       <c r="C38" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>78</v>
       </c>
@@ -2524,12 +2599,12 @@
       <c r="C39" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>79</v>
       </c>
@@ -2539,12 +2614,12 @@
       <c r="C40" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>80</v>
       </c>
@@ -2554,12 +2629,12 @@
       <c r="C41" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>81</v>
       </c>
@@ -2569,12 +2644,12 @@
       <c r="C42" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>28</v>
       </c>
@@ -2584,12 +2659,12 @@
       <c r="C43" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>82</v>
       </c>
@@ -2599,12 +2674,12 @@
       <c r="C44" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>83</v>
       </c>
@@ -2614,12 +2689,12 @@
       <c r="C45" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="E45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>84</v>
       </c>
@@ -2629,12 +2704,12 @@
       <c r="C46" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>85</v>
       </c>
@@ -2644,12 +2719,12 @@
       <c r="C47" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>86</v>
       </c>
@@ -2659,12 +2734,12 @@
       <c r="C48" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>87</v>
       </c>
@@ -2674,12 +2749,12 @@
       <c r="C49" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="E49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>88</v>
       </c>
@@ -2689,12 +2764,12 @@
       <c r="C50" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>89</v>
       </c>
@@ -2704,12 +2779,12 @@
       <c r="C51" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>90</v>
       </c>
@@ -2719,12 +2794,12 @@
       <c r="C52" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>91</v>
       </c>
@@ -2734,12 +2809,12 @@
       <c r="C53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>92</v>
       </c>
@@ -2749,12 +2824,12 @@
       <c r="C54" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>93</v>
       </c>
@@ -2764,12 +2839,12 @@
       <c r="C55" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>94</v>
       </c>
@@ -2779,12 +2854,12 @@
       <c r="C56" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="E56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>194</v>
       </c>
@@ -2794,12 +2869,12 @@
       <c r="C57" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>185</v>
       </c>
@@ -2809,12 +2884,12 @@
       <c r="C58" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>170</v>
       </c>
@@ -2824,12 +2899,12 @@
       <c r="C59" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>175</v>
       </c>
@@ -2839,12 +2914,12 @@
       <c r="C60" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>181</v>
       </c>
@@ -2854,12 +2929,12 @@
       <c r="C61" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>191</v>
       </c>
@@ -2869,12 +2944,12 @@
       <c r="C62" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>66</v>
       </c>
@@ -2884,12 +2959,12 @@
       <c r="C63" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>203</v>
       </c>
@@ -2899,12 +2974,12 @@
       <c r="C64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>180</v>
       </c>
@@ -2914,12 +2989,12 @@
       <c r="C65" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="E65" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>193</v>
       </c>
@@ -2929,12 +3004,13 @@
       <c r="C66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="1"/>
+      <c r="E66" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>182</v>
       </c>
@@ -2944,12 +3020,13 @@
       <c r="C67" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="1"/>
+      <c r="E67" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>169</v>
       </c>
@@ -2959,12 +3036,12 @@
       <c r="C68" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>167</v>
       </c>
@@ -2974,12 +3051,12 @@
       <c r="C69" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>202</v>
       </c>
@@ -2989,12 +3066,12 @@
       <c r="C70" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="E70" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>183</v>
       </c>
@@ -3004,12 +3081,12 @@
       <c r="C71" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="E71" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>143</v>
       </c>
@@ -3019,12 +3096,12 @@
       <c r="C72" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="E72" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>162</v>
       </c>
@@ -3034,17 +3111,17 @@
       <c r="C73" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="E73" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="G73" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>162</v>
       </c>
@@ -3054,17 +3131,17 @@
       <c r="C74" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="E74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="G74" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>177</v>
       </c>
@@ -3074,12 +3151,12 @@
       <c r="C75" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="E75" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>179</v>
       </c>
@@ -3089,12 +3166,12 @@
       <c r="C76" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="E76" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>209</v>
       </c>
@@ -3104,15 +3181,15 @@
       <c r="C77" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="E77" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>210</v>
       </c>
@@ -3122,15 +3199,15 @@
       <c r="C78" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="E78" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>208</v>
       </c>
@@ -3140,15 +3217,15 @@
       <c r="C79" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>207</v>
       </c>
@@ -3158,15 +3235,15 @@
       <c r="C80" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="E80" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="1"/>
+      <c r="G80" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>211</v>
       </c>
@@ -3176,15 +3253,15 @@
       <c r="C81" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="E81" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="1"/>
+      <c r="G81" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>206</v>
       </c>
@@ -3194,15 +3271,15 @@
       <c r="C82" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="E82" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="1"/>
+      <c r="G82" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>30</v>
       </c>
@@ -3212,15 +3289,15 @@
       <c r="C83" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="E83" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="1"/>
+      <c r="G83" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>31</v>
       </c>
@@ -3230,15 +3307,15 @@
       <c r="C84" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="E84" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>200</v>
       </c>
@@ -3248,12 +3325,12 @@
       <c r="C85" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="E85" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>154</v>
       </c>
@@ -3263,12 +3340,12 @@
       <c r="C86" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="E86" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>149</v>
       </c>
@@ -3278,12 +3355,12 @@
       <c r="C87" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="E87" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>147</v>
       </c>
@@ -3293,12 +3370,12 @@
       <c r="C88" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="E88" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>204</v>
       </c>
@@ -3308,12 +3385,12 @@
       <c r="C89" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="E89" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>197</v>
       </c>
@@ -3323,12 +3400,12 @@
       <c r="C90" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="E90" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>199</v>
       </c>
@@ -3338,12 +3415,12 @@
       <c r="C91" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="E91" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>205</v>
       </c>
@@ -3353,12 +3430,12 @@
       <c r="C92" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="E92" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>152</v>
       </c>
@@ -3368,15 +3445,15 @@
       <c r="C93" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="E93" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="1"/>
+      <c r="G93" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>29</v>
       </c>
@@ -3386,12 +3463,12 @@
       <c r="C94" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="E94" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>166</v>
       </c>
@@ -3401,12 +3478,12 @@
       <c r="C95" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="E95" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>145</v>
       </c>
@@ -3416,12 +3493,12 @@
       <c r="C96" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="E96" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>146</v>
       </c>
@@ -3431,12 +3508,12 @@
       <c r="C97" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>141</v>
       </c>
@@ -3446,12 +3523,12 @@
       <c r="C98" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="E98" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>188</v>
       </c>
@@ -3461,12 +3538,12 @@
       <c r="C99" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="E99" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>99</v>
       </c>
@@ -3476,12 +3553,12 @@
       <c r="C100" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="E100" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>96</v>
       </c>
@@ -3489,17 +3566,18 @@
       <c r="C101" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="1"/>
+      <c r="E101" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="G101" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>96</v>
       </c>
@@ -3507,511 +3585,512 @@
       <c r="C102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="1"/>
+      <c r="E102" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F102" s="14" t="s">
+      <c r="G102" s="14" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E153" s="1" t="s">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="154" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E154" s="1" t="s">
+    <row r="154" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="155" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="5:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="1"/>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E219" s="14"/>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E220" s="14"/>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E221" s="14"/>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E222" s="14"/>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E223" s="14"/>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E224" s="14"/>
-    </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E225" s="14"/>
-    </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E226" s="14"/>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E227" s="14"/>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E228" s="14"/>
-    </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E229" s="14"/>
-    </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E230" s="14"/>
-    </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E231" s="14"/>
-    </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E232" s="14"/>
-    </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E233" s="14"/>
-    </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E234" s="14"/>
-    </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E235" s="14"/>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E236" s="14"/>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E237" s="14"/>
-    </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E238" s="14"/>
-    </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E239" s="14"/>
-    </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E240" s="14"/>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E241" s="14"/>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E242" s="14"/>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E243" s="14"/>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E244" s="14"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E245" s="14"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E246" s="14"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E247" s="14"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E248" s="14"/>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E249" s="14"/>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E250" s="14"/>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E251" s="14"/>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E252" s="14"/>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E253" s="14"/>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E254" s="14"/>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E255" s="14"/>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E256" s="14"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E257" s="14"/>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E258" s="14"/>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E259" s="14"/>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E260" s="14"/>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E261" s="14"/>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E262" s="14"/>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="14"/>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E264" s="14"/>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E265" s="14"/>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E266" s="14"/>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E267" s="14"/>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E268" s="14"/>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E269" s="14"/>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E270" s="14"/>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E271" s="14"/>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E272" s="14"/>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E273" s="14"/>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E274" s="14"/>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E275" s="14"/>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E276" s="14"/>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E277" s="14"/>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E278" s="14"/>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E279" s="14"/>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E280" s="14"/>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E281" s="14"/>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E282" s="14"/>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E283" s="14"/>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E284" s="14"/>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E285" s="14"/>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E286" s="14"/>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E287" s="14"/>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E288" s="14"/>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E289" s="14"/>
-    </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E290" s="14"/>
-    </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E291" s="14"/>
-    </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E292" s="14"/>
-    </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E293" s="14"/>
-    </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E294" s="14"/>
-    </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E295" s="14"/>
-    </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E296" s="14"/>
-    </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E297" s="14"/>
-    </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E298" s="14"/>
-    </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E299" s="14"/>
-    </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E300" s="14"/>
-    </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E301" s="14"/>
-    </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E302" s="14"/>
+    <row r="155" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F219" s="14"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F223" s="14"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F224" s="14"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F225" s="14"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F226" s="14"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F228" s="14"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F229" s="14"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F230" s="14"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F233" s="14"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="14"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F235" s="14"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F236" s="14"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F237" s="14"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F238" s="14"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F239" s="14"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F240" s="14"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F241" s="14"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F242" s="14"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F243" s="14"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F244" s="14"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F245" s="14"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F246" s="14"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F247" s="14"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F248" s="14"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F249" s="14"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F250" s="14"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F251" s="14"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F252" s="14"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F253" s="14"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F254" s="14"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F255" s="14"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F257" s="14"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F258" s="14"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F259" s="14"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F260" s="14"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F261" s="14"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F262" s="14"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F263" s="14"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F264" s="14"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F265" s="14"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F266" s="14"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F267" s="14"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="14"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F269" s="14"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F270" s="14"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F271" s="14"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F272" s="14"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F273" s="14"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F274" s="14"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F275" s="14"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F276" s="14"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F277" s="14"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F278" s="14"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F279" s="14"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F280" s="14"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F281" s="14"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F282" s="14"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F283" s="14"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F284" s="14"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F285" s="14"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F286" s="14"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F287" s="14"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F288" s="14"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F289" s="14"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F290" s="14"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F291" s="14"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F292" s="14"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F293" s="14"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F294" s="14"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F295" s="14"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F296" s="14"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F297" s="14"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F298" s="14"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F299" s="14"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F300" s="14"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F301" s="14"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F302" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G101">
     <sortCondition ref="A9:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4025,8 +4104,10 @@
   <dimension ref="A1:H1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4147,7 +4228,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4160,7 +4241,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4173,7 +4254,7 @@
         <v>104</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4186,7 +4267,7 @@
         <v>104</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,7 +4280,7 @@
         <v>104</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4212,7 +4293,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4225,7 +4306,7 @@
         <v>104</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>269</v>
@@ -4241,7 +4322,7 @@
         <v>104</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4254,7 +4335,7 @@
         <v>104</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4267,7 +4348,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4280,7 +4361,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4293,7 +4374,7 @@
         <v>104</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>216</v>
@@ -4309,7 +4390,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>217</v>
@@ -4325,7 +4406,7 @@
         <v>104</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>218</v>
@@ -4341,7 +4422,7 @@
         <v>104</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>255</v>
@@ -4357,7 +4438,7 @@
         <v>104</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>256</v>
@@ -4373,7 +4454,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>256</v>
@@ -4389,7 +4470,7 @@
         <v>104</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4402,7 +4483,7 @@
         <v>104</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4415,7 +4496,7 @@
         <v>104</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4428,7 +4509,7 @@
         <v>104</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4441,7 +4522,7 @@
         <v>104</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4454,7 +4535,7 @@
         <v>104</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4467,7 +4548,7 @@
         <v>104</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4480,7 +4561,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4493,7 +4574,7 @@
         <v>104</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4506,7 +4587,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,7 +4600,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4532,7 +4613,7 @@
         <v>104</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4545,7 +4626,7 @@
         <v>104</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4558,7 +4639,7 @@
         <v>104</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4571,7 +4652,7 @@
         <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -12643,7 +12724,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12654,7 +12735,7 @@
         <v>219</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12665,7 +12746,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12676,7 +12757,7 @@
         <v>219</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12687,7 +12768,7 @@
         <v>219</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12698,7 +12779,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12709,7 +12790,7 @@
         <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -12720,7 +12801,7 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -12731,7 +12812,7 @@
         <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -12742,7 +12823,7 @@
         <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -12753,7 +12834,7 @@
         <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -12764,7 +12845,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -12775,7 +12856,7 @@
         <v>238</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -12786,7 +12867,7 @@
         <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -12797,7 +12878,7 @@
         <v>237</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -12808,7 +12889,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -12819,7 +12900,7 @@
         <v>237</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12830,7 +12911,7 @@
         <v>253</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12841,7 +12922,7 @@
         <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12852,7 +12933,7 @@
         <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12863,7 +12944,7 @@
         <v>262</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12874,7 +12955,7 @@
         <v>263</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12885,7 +12966,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12896,7 +12977,7 @@
         <v>248</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12907,7 +12988,7 @@
         <v>248</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12918,7 +12999,7 @@
         <v>248</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12929,7 +13010,7 @@
         <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12940,7 +13021,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12951,7 +13032,7 @@
         <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12962,7 +13043,7 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12973,7 +13054,7 @@
         <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12984,7 +13065,7 @@
         <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -13382,7 +13463,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -13393,7 +13474,7 @@
         <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -13404,7 +13485,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -13415,7 +13496,7 @@
         <v>228</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -13426,7 +13507,7 @@
         <v>229</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13437,7 +13518,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0E1F3-2DF1-43E3-8F29-8A0A70317B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B001EC-4033-403A-A2B3-358C1DC00891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1134,6 +1134,15 @@
     <t>Part-number</t>
   </si>
   <si>
+    <t>CRT version(s) where this Excel will work</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>2025-December-8</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1146,17 +1155,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-13</t>
+      <t>2025-December-15</t>
     </r>
-  </si>
-  <si>
-    <t>CRT version(s) where this Excel will work</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>2025-December-8</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1411,6 +1411,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1757,7 +1769,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2036,17 +2048,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2066,13 +2078,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -2118,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>2</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>351</v>
@@ -2136,1558 +2148,1396 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="C20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="14" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="14" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="14" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="C26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="14" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="C50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="E51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="C52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="14" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="C60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="14" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="C61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="14" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="C62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="1">
         <v>6502</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="1">
         <v>6561</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1">
         <v>6560</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="1">
         <v>6522</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="E75" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="C76" s="1">
+        <v>6522</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="14">
-        <v>6522</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E76" s="14" t="s">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2364</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B77" s="14">
+      <c r="G77" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="1">
         <v>2364</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" s="14" t="s">
+      <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="14" t="s">
+      <c r="G78" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B78" s="14">
-        <v>2364</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" s="14" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2332</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" s="14">
-        <v>2332</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="1">
         <v>2114</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="E80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="C81" s="1">
+        <v>2114</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="14" t="s">
+      <c r="G81" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" s="14">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82" s="1">
         <v>2114</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="E82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="14" t="s">
+      <c r="G82" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" s="14">
-        <v>2114</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E82" s="14" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="14" t="s">
+      <c r="G83" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="E84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="14" t="s">
+      <c r="G84" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E84" s="14" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="1">
+        <v>555</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B85" s="14">
-        <v>555</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="14" t="s">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="1">
+        <v>7402</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="14">
-        <v>7402</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="14" t="s">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" s="14" t="s">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="1">
+        <v>4066</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="C95" s="1">
+        <v>7406</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E88" s="14" t="s">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E89" s="14" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E90" s="14" t="s">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B92" s="14">
-        <v>4066</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="14">
-        <v>7406</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="41"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="25"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F130" s="1"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="49"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="49"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="50"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="49"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="51"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="49"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="51"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="51"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="51"/>
     </row>
     <row r="131" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F131" s="1"/>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B001EC-4033-403A-A2B3-358C1DC00891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009C364-6B15-4AC3-8A59-37CC53214640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-December-8</t>
+    <t>2025-December-20</t>
   </si>
   <si>
     <r>
@@ -1155,7 +1155,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-15</t>
+      <t>2025-December-18</t>
     </r>
   </si>
 </sst>
@@ -1409,9 +1409,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1423,6 +1420,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1813,12 +1813,12 @@
         <v>119</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2497,7 +2497,7 @@
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="47" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3513,31 +3513,31 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="49"/>
+      <c r="A104" s="48"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="49"/>
+      <c r="A105" s="48"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="50"/>
+      <c r="A106" s="49"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="49"/>
+      <c r="A110" s="48"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="51"/>
+      <c r="A112" s="50"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="49"/>
+      <c r="A116" s="48"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="51"/>
+      <c r="A118" s="50"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="51"/>
+      <c r="A122" s="50"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="51"/>
+      <c r="A127" s="50"/>
     </row>
     <row r="131" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F131" s="1"/>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009C364-6B15-4AC3-8A59-37CC53214640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5149A56-BCB4-4F92-B51A-13192E41D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-18</t>
+      <t>2025-December-20</t>
     </r>
   </si>
 </sst>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5149A56-BCB4-4F92-B51A-13192E41D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B204AE-BD81-43E0-9FF8-00BE0564F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-20</t>
+      <t>2025-December-22</t>
     </r>
   </si>
 </sst>
@@ -1354,9 +1354,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1424,6 +1421,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1813,12 +1811,12 @@
         <v>119</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2497,7 +2495,7 @@
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="46" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3513,31 +3511,31 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="48"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="48"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="49"/>
+      <c r="A106" s="48"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="48"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="50"/>
+      <c r="A112" s="49"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="48"/>
+      <c r="A116" s="47"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="50"/>
+      <c r="A118" s="49"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="50"/>
+      <c r="A122" s="49"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="50"/>
+      <c r="A127" s="49"/>
     </row>
     <row r="131" spans="6:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F131" s="1"/>
@@ -3964,7 +3962,7 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="64.109375" style="1" customWidth="1"/>
@@ -3977,19 +3975,19 @@
         <v>138</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="29"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="29"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="30"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="14"/>
       <c r="F3" s="14"/>
     </row>
@@ -3998,7 +3996,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="31"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="14"/>
       <c r="F4" s="14"/>
       <c r="H4" s="14"/>
@@ -4008,15 +4006,15 @@
         <v>124</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="14"/>
       <c r="F5" s="14"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="14"/>
       <c r="F6" s="14"/>
     </row>
@@ -4025,7 +4023,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="22"/>
       <c r="E7" s="15"/>
       <c r="F7" s="22"/>
@@ -4059,7 +4057,7 @@
         <v>203</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="14" t="s">
         <v>104</v>
       </c>
@@ -4073,7 +4071,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="14" t="s">
         <v>104</v>
       </c>
@@ -4086,7 +4084,7 @@
         <v>193</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="14" t="s">
         <v>104</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="14" t="s">
         <v>104</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>169</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="14" t="s">
         <v>104</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>167</v>
       </c>
       <c r="B14" s="14"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="14" t="s">
         <v>104</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>202</v>
       </c>
       <c r="B15" s="14"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="14" t="s">
         <v>104</v>
       </c>
@@ -4147,11 +4145,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>183</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="14" t="s">
         <v>104</v>
       </c>
@@ -4167,7 +4165,7 @@
         <v>143</v>
       </c>
       <c r="B17" s="14"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="14" t="s">
         <v>104</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>162</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="14" t="s">
         <v>104</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>177</v>
       </c>
       <c r="B19" s="14"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="14" t="s">
         <v>104</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>179</v>
       </c>
       <c r="B20" s="14"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>209</v>
       </c>
       <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="14" t="s">
         <v>104</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>210</v>
       </c>
       <c r="B22" s="14"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="14" t="s">
         <v>104</v>
       </c>
@@ -4251,7 +4249,7 @@
         <v>208</v>
       </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="14" t="s">
         <v>104</v>
       </c>
@@ -4267,7 +4265,7 @@
         <v>207</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14" t="s">
         <v>104</v>
       </c>
@@ -4283,7 +4281,7 @@
         <v>211</v>
       </c>
       <c r="B25" s="14"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="14" t="s">
         <v>104</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>206</v>
       </c>
       <c r="B26" s="14"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="14" t="s">
         <v>104</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="14" t="s">
         <v>104</v>
       </c>
@@ -4328,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="14"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="14" t="s">
         <v>104</v>
       </c>
@@ -4341,7 +4339,7 @@
         <v>200</v>
       </c>
       <c r="B29" s="14"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="14" t="s">
         <v>104</v>
       </c>
@@ -4354,7 +4352,7 @@
         <v>149</v>
       </c>
       <c r="B30" s="14"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="14" t="s">
         <v>104</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>147</v>
       </c>
       <c r="B31" s="14"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="14" t="s">
         <v>104</v>
       </c>
@@ -4380,7 +4378,7 @@
         <v>205</v>
       </c>
       <c r="B32" s="14"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="14" t="s">
         <v>104</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>204</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="14" t="s">
         <v>104</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>197</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="14" t="s">
         <v>104</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>199</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="14" t="s">
         <v>104</v>
       </c>
@@ -4432,7 +4430,7 @@
         <v>152</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="14" t="s">
         <v>104</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="14" t="s">
         <v>104</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>166</v>
       </c>
       <c r="B38" s="14"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="14" t="s">
         <v>104</v>
       </c>
@@ -4467,11 +4465,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>145</v>
       </c>
       <c r="B39" s="17"/>
-      <c r="C39" s="30"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="14" t="s">
         <v>104</v>
       </c>
@@ -4480,11 +4478,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="44" t="s">
         <v>146</v>
       </c>
       <c r="B40" s="17"/>
-      <c r="C40" s="30"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="14" t="s">
         <v>104</v>
       </c>
@@ -4493,11 +4491,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B41" s="17"/>
-      <c r="C41" s="30"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="14" t="s">
         <v>104</v>
       </c>
@@ -4506,1990 +4504,1990 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B42" s="17"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="14" t="s">
         <v>104</v>
       </c>
       <c r="F42" s="14"/>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="45" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="35"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="14"/>
       <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="35"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="14"/>
       <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="35"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="14"/>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="35"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="14"/>
       <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="34"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="14"/>
       <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="14"/>
       <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="14"/>
       <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="14"/>
       <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="14"/>
       <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="14"/>
       <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="34"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="14"/>
       <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="14"/>
       <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="14"/>
       <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="14"/>
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
-      <c r="C57" s="34"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="14"/>
       <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="14"/>
       <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="34"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="14"/>
       <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="14"/>
       <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="14"/>
       <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="14"/>
       <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
-      <c r="C63" s="34"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="14"/>
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="14"/>
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
-      <c r="C65" s="34"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="14"/>
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="34"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="14"/>
       <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
-      <c r="C67" s="34"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="14"/>
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="34"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="14"/>
       <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="14"/>
       <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="34"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="14"/>
       <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="34"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="14"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="14"/>
       <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="14"/>
       <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="14"/>
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="14"/>
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="14"/>
       <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="14"/>
       <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="14"/>
       <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="14"/>
       <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="33"/>
       <c r="D80" s="14"/>
       <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="14"/>
       <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="14"/>
       <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="33"/>
       <c r="D83" s="14"/>
       <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="33"/>
       <c r="D84" s="14"/>
       <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="34"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="14"/>
       <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="34"/>
+      <c r="C86" s="33"/>
       <c r="D86" s="14"/>
       <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="34"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="14"/>
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="34"/>
+      <c r="C88" s="33"/>
       <c r="D88" s="14"/>
       <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="34"/>
+      <c r="C89" s="33"/>
       <c r="D89" s="14"/>
       <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="34"/>
+      <c r="C90" s="33"/>
       <c r="D90" s="14"/>
       <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="34"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="14"/>
       <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="34"/>
+      <c r="C92" s="33"/>
       <c r="D92" s="14"/>
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="34"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="14"/>
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="34"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="14"/>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="34"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="14"/>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="34"/>
+      <c r="C96" s="33"/>
       <c r="D96" s="14"/>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="34"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="14"/>
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="34"/>
+      <c r="C98" s="33"/>
       <c r="D98" s="14"/>
       <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="34"/>
+      <c r="C99" s="33"/>
       <c r="D99" s="14"/>
       <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="34"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="14"/>
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="34"/>
+      <c r="C101" s="33"/>
       <c r="D101" s="14"/>
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="34"/>
+      <c r="C102" s="33"/>
       <c r="D102" s="14"/>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="34"/>
+      <c r="C103" s="33"/>
       <c r="D103" s="14"/>
       <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="34"/>
+      <c r="C104" s="33"/>
       <c r="D104" s="14"/>
       <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="34"/>
+      <c r="C105" s="33"/>
       <c r="D105" s="14"/>
       <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="34"/>
+      <c r="C106" s="33"/>
       <c r="D106" s="14"/>
       <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="34"/>
+      <c r="C107" s="33"/>
       <c r="D107" s="14"/>
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="34"/>
+      <c r="C108" s="33"/>
       <c r="D108" s="14"/>
       <c r="F108" s="14"/>
     </row>
     <row r="110" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
-      <c r="C110" s="31"/>
+      <c r="C110" s="30"/>
       <c r="E110" s="1"/>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="39"/>
       <c r="B111"/>
       <c r="C111" s="4"/>
       <c r="E111" s="1"/>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="41"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="24"/>
-      <c r="C112" s="36"/>
+      <c r="C112" s="35"/>
       <c r="E112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="39"/>
       <c r="B113"/>
       <c r="C113" s="4"/>
       <c r="E113" s="1"/>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="34"/>
+      <c r="C114" s="33"/>
       <c r="E114" s="1"/>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="34"/>
+      <c r="C115" s="33"/>
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
-      <c r="C116" s="37"/>
+      <c r="C116" s="36"/>
       <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="34"/>
+      <c r="C117" s="33"/>
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="34"/>
+      <c r="C118" s="33"/>
       <c r="E118" s="1"/>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="34"/>
+      <c r="C119" s="33"/>
       <c r="E119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
-      <c r="C120" s="37"/>
+      <c r="C120" s="36"/>
       <c r="E120" s="1"/>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="34"/>
+      <c r="C121" s="33"/>
       <c r="E121" s="1"/>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="34"/>
+      <c r="C122" s="33"/>
       <c r="E122" s="1"/>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="34"/>
+      <c r="C123" s="33"/>
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="34"/>
+      <c r="C124" s="33"/>
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="34"/>
+      <c r="C125" s="33"/>
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="34"/>
+      <c r="C126" s="33"/>
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="34"/>
+      <c r="C127" s="33"/>
       <c r="E127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="34"/>
+      <c r="C128" s="33"/>
       <c r="E128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="34"/>
+      <c r="C129" s="33"/>
       <c r="E129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="34"/>
+      <c r="C130" s="33"/>
       <c r="E130" s="1"/>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="34"/>
+      <c r="C131" s="33"/>
       <c r="E131" s="1"/>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="34"/>
+      <c r="C132" s="33"/>
       <c r="E132" s="1"/>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="34"/>
+      <c r="C133" s="33"/>
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="34"/>
+      <c r="C134" s="33"/>
       <c r="E134" s="1"/>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="34"/>
+      <c r="C135" s="33"/>
       <c r="E135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="34"/>
+      <c r="C136" s="33"/>
       <c r="E136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="34"/>
+      <c r="C137" s="33"/>
       <c r="E137" s="1"/>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="34"/>
+      <c r="C138" s="33"/>
       <c r="E138" s="1"/>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="34"/>
+      <c r="C139" s="33"/>
       <c r="E139" s="1"/>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="34"/>
+      <c r="C140" s="33"/>
       <c r="E140" s="1"/>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="34"/>
+      <c r="C141" s="33"/>
       <c r="E141" s="1"/>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="34"/>
+      <c r="C142" s="33"/>
       <c r="E142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="34"/>
+      <c r="C143" s="33"/>
       <c r="E143" s="1"/>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="34"/>
+      <c r="C144" s="33"/>
       <c r="E144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="34"/>
+      <c r="C145" s="33"/>
       <c r="E145" s="1"/>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="34"/>
+      <c r="C146" s="33"/>
       <c r="E146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="34"/>
+      <c r="C147" s="33"/>
       <c r="E147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="34"/>
+      <c r="C148" s="33"/>
       <c r="E148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="34"/>
+      <c r="C149" s="33"/>
       <c r="E149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="34"/>
+      <c r="C150" s="33"/>
       <c r="E150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="34"/>
+      <c r="C151" s="33"/>
       <c r="E151" s="1"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="34"/>
+      <c r="C152" s="33"/>
       <c r="E152" s="1"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="34"/>
+      <c r="C153" s="33"/>
       <c r="E153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="34"/>
+      <c r="C154" s="33"/>
       <c r="E154" s="1"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="34"/>
+      <c r="C155" s="33"/>
       <c r="E155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="34"/>
+      <c r="C156" s="33"/>
       <c r="E156" s="1"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="34"/>
+      <c r="C157" s="33"/>
       <c r="E157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="34"/>
+      <c r="C158" s="33"/>
       <c r="E158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="34"/>
+      <c r="C159" s="33"/>
       <c r="E159" s="1"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="34"/>
+      <c r="C160" s="33"/>
       <c r="E160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="34"/>
+      <c r="C161" s="33"/>
       <c r="E161" s="1"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="34"/>
+      <c r="C162" s="33"/>
       <c r="E162" s="1"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="34"/>
+      <c r="C163" s="33"/>
       <c r="E163" s="1"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="34"/>
+      <c r="C164" s="33"/>
       <c r="E164" s="1"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="34"/>
+      <c r="C165" s="33"/>
       <c r="E165" s="1"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="34"/>
+      <c r="C166" s="33"/>
       <c r="E166" s="1"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="34"/>
+      <c r="C167" s="33"/>
       <c r="E167" s="1"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="34"/>
+      <c r="C168" s="33"/>
       <c r="E168" s="1"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="34"/>
+      <c r="C169" s="33"/>
       <c r="E169" s="1"/>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="34"/>
+      <c r="C170" s="33"/>
       <c r="E170" s="1"/>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="34"/>
+      <c r="C171" s="33"/>
       <c r="E171" s="1"/>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="34"/>
+      <c r="C172" s="33"/>
       <c r="E172" s="1"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="34"/>
+      <c r="C173" s="33"/>
       <c r="E173" s="1"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="34"/>
+      <c r="C174" s="33"/>
       <c r="E174" s="1"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="34"/>
+      <c r="C175" s="33"/>
       <c r="E175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="34"/>
+      <c r="C176" s="33"/>
       <c r="E176" s="1"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="34"/>
+      <c r="C177" s="33"/>
       <c r="E177" s="1"/>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="34"/>
+      <c r="C178" s="33"/>
       <c r="E178" s="1"/>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="34"/>
+      <c r="C179" s="33"/>
       <c r="E179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="34"/>
+      <c r="C180" s="33"/>
       <c r="E180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="34"/>
+      <c r="C181" s="33"/>
       <c r="E181" s="1"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="34"/>
+      <c r="C182" s="33"/>
       <c r="E182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="3:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="34"/>
+      <c r="C183" s="33"/>
       <c r="E183" s="1"/>
       <c r="G183" s="1"/>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E202" s="42"/>
+      <c r="E202" s="41"/>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E203" s="42"/>
+      <c r="E203" s="41"/>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E204" s="42"/>
+      <c r="E204" s="41"/>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E205" s="42"/>
+      <c r="E205" s="41"/>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E206" s="42"/>
+      <c r="E206" s="41"/>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E207" s="42"/>
+      <c r="E207" s="41"/>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E208" s="42"/>
+      <c r="E208" s="41"/>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E218" s="42"/>
+      <c r="E218" s="41"/>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E220" s="42"/>
+      <c r="E220" s="41"/>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E222" s="43"/>
+      <c r="E222" s="42"/>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E223" s="42"/>
+      <c r="E223" s="41"/>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E224" s="42"/>
+      <c r="E224" s="41"/>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E225" s="42"/>
+      <c r="E225" s="41"/>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E226" s="42"/>
+      <c r="E226" s="41"/>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E227" s="42"/>
+      <c r="E227" s="41"/>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E228" s="44"/>
+      <c r="E228" s="43"/>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E229" s="42"/>
+      <c r="E229" s="41"/>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E230" s="42"/>
+      <c r="E230" s="41"/>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E231" s="42"/>
+      <c r="E231" s="41"/>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E232" s="42"/>
+      <c r="E232" s="41"/>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E233" s="42"/>
+      <c r="E233" s="41"/>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E234" s="42"/>
+      <c r="E234" s="41"/>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E235" s="42"/>
+      <c r="E235" s="41"/>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E236" s="42"/>
+      <c r="E236" s="41"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E237" s="42"/>
+      <c r="E237" s="41"/>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E238" s="42"/>
+      <c r="E238" s="41"/>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E239" s="42"/>
+      <c r="E239" s="41"/>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E240" s="42"/>
+      <c r="E240" s="41"/>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E241" s="42"/>
+      <c r="E241" s="41"/>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E242" s="42"/>
+      <c r="E242" s="41"/>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E243" s="42"/>
+      <c r="E243" s="41"/>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E244" s="42"/>
+      <c r="E244" s="41"/>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E245" s="42"/>
+      <c r="E245" s="41"/>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E246" s="42"/>
+      <c r="E246" s="41"/>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E247" s="42"/>
+      <c r="E247" s="41"/>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E248" s="42"/>
+      <c r="E248" s="41"/>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E249" s="42"/>
+      <c r="E249" s="41"/>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E250" s="42"/>
+      <c r="E250" s="41"/>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E251" s="42"/>
+      <c r="E251" s="41"/>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E252" s="42"/>
+      <c r="E252" s="41"/>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E253" s="42"/>
+      <c r="E253" s="41"/>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E254" s="42"/>
+      <c r="E254" s="41"/>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E255" s="42"/>
+      <c r="E255" s="41"/>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E256" s="42"/>
+      <c r="E256" s="41"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E257" s="42"/>
+      <c r="E257" s="41"/>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E258" s="42"/>
+      <c r="E258" s="41"/>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E259" s="42"/>
+      <c r="E259" s="41"/>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E260" s="42"/>
+      <c r="E260" s="41"/>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E261" s="42"/>
+      <c r="E261" s="41"/>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E262" s="42"/>
+      <c r="E262" s="41"/>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="42"/>
+      <c r="E263" s="41"/>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E264" s="42"/>
+      <c r="E264" s="41"/>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E265" s="42"/>
+      <c r="E265" s="41"/>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E266" s="42"/>
+      <c r="E266" s="41"/>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E267" s="42"/>
+      <c r="E267" s="41"/>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E275" s="42"/>
+      <c r="E275" s="41"/>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E327" s="42"/>
+      <c r="E327" s="41"/>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E346" s="42"/>
+      <c r="E346" s="41"/>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E347" s="42"/>
+      <c r="E347" s="41"/>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E350" s="42"/>
+      <c r="E350" s="41"/>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E351" s="42"/>
+      <c r="E351" s="41"/>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E352" s="42"/>
+      <c r="E352" s="41"/>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E353" s="42"/>
+      <c r="E353" s="41"/>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E354" s="42"/>
+      <c r="E354" s="41"/>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E355" s="42"/>
+      <c r="E355" s="41"/>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E361" s="42"/>
+      <c r="E361" s="41"/>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E362" s="42"/>
+      <c r="E362" s="41"/>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E363" s="42"/>
+      <c r="E363" s="41"/>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E364" s="42"/>
+      <c r="E364" s="41"/>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E365" s="42"/>
+      <c r="E365" s="41"/>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E366" s="42"/>
+      <c r="E366" s="41"/>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E367" s="42"/>
+      <c r="E367" s="41"/>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E369" s="42"/>
+      <c r="E369" s="41"/>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E370" s="42"/>
+      <c r="E370" s="41"/>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E371" s="42"/>
+      <c r="E371" s="41"/>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E372" s="42"/>
+      <c r="E372" s="41"/>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E376" s="42"/>
+      <c r="E376" s="41"/>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E383" s="42"/>
+      <c r="E383" s="41"/>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E387" s="42"/>
+      <c r="E387" s="41"/>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E398" s="42"/>
+      <c r="E398" s="41"/>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E408" s="42"/>
+      <c r="E408" s="41"/>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E429" s="42"/>
+      <c r="E429" s="41"/>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E438" s="42"/>
+      <c r="E438" s="41"/>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E446" s="42"/>
+      <c r="E446" s="41"/>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E455" s="42"/>
+      <c r="E455" s="41"/>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E463" s="42"/>
+      <c r="E463" s="41"/>
     </row>
     <row r="471" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E471" s="42"/>
+      <c r="E471" s="41"/>
     </row>
     <row r="478" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E478" s="42"/>
+      <c r="E478" s="41"/>
     </row>
     <row r="494" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E494" s="43"/>
+      <c r="E494" s="42"/>
     </row>
     <row r="495" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E495" s="43"/>
+      <c r="E495" s="42"/>
     </row>
     <row r="498" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E498" s="43"/>
+      <c r="E498" s="42"/>
     </row>
     <row r="499" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E499" s="42"/>
+      <c r="E499" s="41"/>
     </row>
     <row r="512" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E512" s="42"/>
+      <c r="E512" s="41"/>
     </row>
     <row r="524" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E524" s="42"/>
+      <c r="E524" s="41"/>
     </row>
     <row r="528" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E528" s="42"/>
+      <c r="E528" s="41"/>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E529" s="42"/>
+      <c r="E529" s="41"/>
     </row>
     <row r="530" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E530" s="42"/>
+      <c r="E530" s="41"/>
     </row>
     <row r="531" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E531" s="42"/>
+      <c r="E531" s="41"/>
     </row>
     <row r="532" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E532" s="42"/>
+      <c r="E532" s="41"/>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E533" s="42"/>
+      <c r="E533" s="41"/>
     </row>
     <row r="534" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E534" s="42"/>
+      <c r="E534" s="41"/>
     </row>
     <row r="535" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E535" s="42"/>
+      <c r="E535" s="41"/>
     </row>
     <row r="536" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E536" s="42"/>
+      <c r="E536" s="41"/>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E537" s="42"/>
+      <c r="E537" s="41"/>
     </row>
     <row r="538" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E538" s="42"/>
+      <c r="E538" s="41"/>
     </row>
     <row r="539" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E539" s="42"/>
+      <c r="E539" s="41"/>
     </row>
     <row r="540" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E540" s="42"/>
+      <c r="E540" s="41"/>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E541" s="42"/>
+      <c r="E541" s="41"/>
     </row>
     <row r="542" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E542" s="42"/>
+      <c r="E542" s="41"/>
     </row>
     <row r="543" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E543" s="42"/>
+      <c r="E543" s="41"/>
     </row>
     <row r="544" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E544" s="42"/>
+      <c r="E544" s="41"/>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E545" s="42"/>
+      <c r="E545" s="41"/>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E546" s="42"/>
+      <c r="E546" s="41"/>
     </row>
     <row r="547" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E547" s="42"/>
+      <c r="E547" s="41"/>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E548" s="42"/>
+      <c r="E548" s="41"/>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E549" s="42"/>
+      <c r="E549" s="41"/>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E550" s="42"/>
+      <c r="E550" s="41"/>
     </row>
     <row r="551" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E551" s="42"/>
+      <c r="E551" s="41"/>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E566" s="42"/>
+      <c r="E566" s="41"/>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E568" s="42"/>
+      <c r="E568" s="41"/>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E569" s="42"/>
+      <c r="E569" s="41"/>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E570" s="42"/>
+      <c r="E570" s="41"/>
     </row>
     <row r="571" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E571" s="42"/>
+      <c r="E571" s="41"/>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E572" s="42"/>
+      <c r="E572" s="41"/>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E573" s="42"/>
+      <c r="E573" s="41"/>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E574" s="42"/>
+      <c r="E574" s="41"/>
     </row>
     <row r="575" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E575" s="42"/>
+      <c r="E575" s="41"/>
     </row>
     <row r="576" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E576" s="42"/>
+      <c r="E576" s="41"/>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E577" s="42"/>
+      <c r="E577" s="41"/>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E578" s="42"/>
+      <c r="E578" s="41"/>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E579" s="42"/>
+      <c r="E579" s="41"/>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E580" s="42"/>
+      <c r="E580" s="41"/>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E581" s="42"/>
+      <c r="E581" s="41"/>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E582" s="42"/>
+      <c r="E582" s="41"/>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E583" s="42"/>
+      <c r="E583" s="41"/>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E584" s="42"/>
+      <c r="E584" s="41"/>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E585" s="42"/>
+      <c r="E585" s="41"/>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E586" s="42"/>
+      <c r="E586" s="41"/>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E587" s="42"/>
+      <c r="E587" s="41"/>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E588" s="42"/>
+      <c r="E588" s="41"/>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E589" s="42"/>
+      <c r="E589" s="41"/>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E590" s="42"/>
+      <c r="E590" s="41"/>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E591" s="42"/>
+      <c r="E591" s="41"/>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E592" s="42"/>
+      <c r="E592" s="41"/>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E593" s="42"/>
+      <c r="E593" s="41"/>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E594" s="42"/>
+      <c r="E594" s="41"/>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E595" s="42"/>
+      <c r="E595" s="41"/>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E596" s="42"/>
+      <c r="E596" s="41"/>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E597" s="42"/>
+      <c r="E597" s="41"/>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E598" s="42"/>
+      <c r="E598" s="41"/>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E599" s="42"/>
+      <c r="E599" s="41"/>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E600" s="42"/>
+      <c r="E600" s="41"/>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E601" s="42"/>
+      <c r="E601" s="41"/>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E602" s="42"/>
+      <c r="E602" s="41"/>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E603" s="42"/>
+      <c r="E603" s="41"/>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E604" s="42"/>
+      <c r="E604" s="41"/>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E605" s="42"/>
+      <c r="E605" s="41"/>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E606" s="42"/>
+      <c r="E606" s="41"/>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E607" s="42"/>
+      <c r="E607" s="41"/>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E608" s="42"/>
+      <c r="E608" s="41"/>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E609" s="42"/>
+      <c r="E609" s="41"/>
     </row>
     <row r="610" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E610" s="42"/>
+      <c r="E610" s="41"/>
     </row>
     <row r="611" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E611" s="42"/>
+      <c r="E611" s="41"/>
     </row>
     <row r="612" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E612" s="42"/>
+      <c r="E612" s="41"/>
     </row>
     <row r="613" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E613" s="42"/>
+      <c r="E613" s="41"/>
     </row>
     <row r="614" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E614" s="42"/>
+      <c r="E614" s="41"/>
     </row>
     <row r="615" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E615" s="42"/>
+      <c r="E615" s="41"/>
     </row>
     <row r="617" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E617" s="42"/>
+      <c r="E617" s="41"/>
     </row>
     <row r="618" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E618" s="42"/>
+      <c r="E618" s="41"/>
     </row>
     <row r="619" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E619" s="42"/>
+      <c r="E619" s="41"/>
     </row>
     <row r="620" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E620" s="42"/>
+      <c r="E620" s="41"/>
     </row>
     <row r="621" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E621" s="42"/>
+      <c r="E621" s="41"/>
     </row>
     <row r="622" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E622" s="42"/>
+      <c r="E622" s="41"/>
     </row>
     <row r="623" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E623" s="42"/>
+      <c r="E623" s="41"/>
     </row>
     <row r="624" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E624" s="42"/>
+      <c r="E624" s="41"/>
     </row>
     <row r="625" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E625" s="42"/>
+      <c r="E625" s="41"/>
     </row>
     <row r="626" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E626" s="42"/>
+      <c r="E626" s="41"/>
     </row>
     <row r="627" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E627" s="42"/>
+      <c r="E627" s="41"/>
     </row>
     <row r="628" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E628" s="42"/>
+      <c r="E628" s="41"/>
     </row>
     <row r="629" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E629" s="42"/>
+      <c r="E629" s="41"/>
     </row>
     <row r="630" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E630" s="42"/>
+      <c r="E630" s="41"/>
     </row>
     <row r="631" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E631" s="42"/>
+      <c r="E631" s="41"/>
     </row>
     <row r="632" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E632" s="42"/>
+      <c r="E632" s="41"/>
     </row>
     <row r="633" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E633" s="42"/>
+      <c r="E633" s="41"/>
     </row>
     <row r="634" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E634" s="42"/>
+      <c r="E634" s="41"/>
     </row>
     <row r="635" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E635" s="42"/>
+      <c r="E635" s="41"/>
     </row>
     <row r="636" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E636" s="42"/>
+      <c r="E636" s="41"/>
     </row>
     <row r="637" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E637" s="42"/>
+      <c r="E637" s="41"/>
     </row>
     <row r="638" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E638" s="42"/>
+      <c r="E638" s="41"/>
     </row>
     <row r="639" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E639" s="42"/>
+      <c r="E639" s="41"/>
     </row>
     <row r="640" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E640" s="42"/>
+      <c r="E640" s="41"/>
     </row>
     <row r="641" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E641" s="42"/>
+      <c r="E641" s="41"/>
     </row>
     <row r="642" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E642" s="42"/>
+      <c r="E642" s="41"/>
     </row>
     <row r="643" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E643" s="42"/>
+      <c r="E643" s="41"/>
     </row>
     <row r="644" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E644" s="42"/>
+      <c r="E644" s="41"/>
     </row>
     <row r="645" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E645" s="42"/>
+      <c r="E645" s="41"/>
     </row>
     <row r="646" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E646" s="42"/>
+      <c r="E646" s="41"/>
     </row>
     <row r="647" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E647" s="42"/>
+      <c r="E647" s="41"/>
     </row>
     <row r="648" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E648" s="42"/>
+      <c r="E648" s="41"/>
     </row>
     <row r="649" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E649" s="42"/>
+      <c r="E649" s="41"/>
     </row>
     <row r="650" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E650" s="42"/>
+      <c r="E650" s="41"/>
     </row>
     <row r="651" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E651" s="42"/>
+      <c r="E651" s="41"/>
     </row>
     <row r="652" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E652" s="42"/>
+      <c r="E652" s="41"/>
     </row>
     <row r="653" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E653" s="42"/>
+      <c r="E653" s="41"/>
     </row>
     <row r="654" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E654" s="42"/>
+      <c r="E654" s="41"/>
     </row>
     <row r="655" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E655" s="42"/>
+      <c r="E655" s="41"/>
     </row>
     <row r="656" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E656" s="42"/>
+      <c r="E656" s="41"/>
     </row>
     <row r="657" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E657" s="42"/>
+      <c r="E657" s="41"/>
     </row>
     <row r="658" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E658" s="42"/>
+      <c r="E658" s="41"/>
     </row>
     <row r="659" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E659" s="42"/>
+      <c r="E659" s="41"/>
     </row>
     <row r="660" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E660" s="42"/>
+      <c r="E660" s="41"/>
     </row>
     <row r="661" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E661" s="42"/>
+      <c r="E661" s="41"/>
     </row>
     <row r="662" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E662" s="42"/>
+      <c r="E662" s="41"/>
     </row>
     <row r="663" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E663" s="42"/>
+      <c r="E663" s="41"/>
     </row>
     <row r="664" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E664" s="42"/>
+      <c r="E664" s="41"/>
     </row>
     <row r="674" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E674" s="42"/>
+      <c r="E674" s="41"/>
     </row>
     <row r="704" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E704" s="42"/>
+      <c r="E704" s="41"/>
     </row>
     <row r="714" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E714" s="42"/>
+      <c r="E714" s="41"/>
     </row>
     <row r="725" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E725" s="42"/>
+      <c r="E725" s="41"/>
     </row>
     <row r="726" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E726" s="42"/>
+      <c r="E726" s="41"/>
     </row>
     <row r="727" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E727" s="42"/>
+      <c r="E727" s="41"/>
     </row>
     <row r="728" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E728" s="42"/>
+      <c r="E728" s="41"/>
     </row>
     <row r="729" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E729" s="42"/>
+      <c r="E729" s="41"/>
     </row>
     <row r="730" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E730" s="42"/>
+      <c r="E730" s="41"/>
     </row>
     <row r="731" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E731" s="42"/>
+      <c r="E731" s="41"/>
     </row>
     <row r="732" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E732" s="42"/>
+      <c r="E732" s="41"/>
     </row>
     <row r="733" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E733" s="42"/>
+      <c r="E733" s="41"/>
     </row>
     <row r="734" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E734" s="42"/>
+      <c r="E734" s="41"/>
     </row>
     <row r="735" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E735" s="42"/>
+      <c r="E735" s="41"/>
     </row>
     <row r="736" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E736" s="42"/>
+      <c r="E736" s="41"/>
     </row>
     <row r="737" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E737" s="42"/>
+      <c r="E737" s="41"/>
     </row>
     <row r="738" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E738" s="42"/>
+      <c r="E738" s="41"/>
     </row>
     <row r="739" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E739" s="42"/>
+      <c r="E739" s="41"/>
     </row>
     <row r="740" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E740" s="42"/>
+      <c r="E740" s="41"/>
     </row>
     <row r="742" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E742" s="42"/>
+      <c r="E742" s="41"/>
     </row>
     <row r="743" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E743" s="42"/>
+      <c r="E743" s="41"/>
     </row>
     <row r="744" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E744" s="42"/>
+      <c r="E744" s="41"/>
     </row>
     <row r="745" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E745" s="42"/>
+      <c r="E745" s="41"/>
     </row>
     <row r="746" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E746" s="42"/>
+      <c r="E746" s="41"/>
     </row>
     <row r="747" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E747" s="42"/>
+      <c r="E747" s="41"/>
     </row>
     <row r="748" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E748" s="42"/>
+      <c r="E748" s="41"/>
     </row>
     <row r="749" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E749" s="42"/>
+      <c r="E749" s="41"/>
     </row>
     <row r="750" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E750" s="42"/>
+      <c r="E750" s="41"/>
     </row>
     <row r="751" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E751" s="42"/>
+      <c r="E751" s="41"/>
     </row>
     <row r="752" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E752" s="42"/>
+      <c r="E752" s="41"/>
     </row>
     <row r="753" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E753" s="42"/>
+      <c r="E753" s="41"/>
     </row>
     <row r="754" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E754" s="42"/>
+      <c r="E754" s="41"/>
     </row>
     <row r="755" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E755" s="42"/>
+      <c r="E755" s="41"/>
     </row>
     <row r="758" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E758" s="42"/>
+      <c r="E758" s="41"/>
     </row>
     <row r="762" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E762" s="42"/>
+      <c r="E762" s="41"/>
     </row>
     <row r="763" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E763" s="42"/>
+      <c r="E763" s="41"/>
     </row>
     <row r="764" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E764" s="42"/>
+      <c r="E764" s="41"/>
     </row>
     <row r="765" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E765" s="42"/>
+      <c r="E765" s="41"/>
     </row>
     <row r="768" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E768" s="42"/>
+      <c r="E768" s="41"/>
     </row>
     <row r="769" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E769" s="42"/>
+      <c r="E769" s="41"/>
     </row>
     <row r="770" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E770" s="42"/>
+      <c r="E770" s="41"/>
     </row>
     <row r="771" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E771" s="42"/>
+      <c r="E771" s="41"/>
     </row>
     <row r="774" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E774" s="42"/>
+      <c r="E774" s="41"/>
     </row>
     <row r="775" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E775" s="42"/>
+      <c r="E775" s="41"/>
     </row>
     <row r="776" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E776" s="42"/>
+      <c r="E776" s="41"/>
     </row>
     <row r="777" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E777" s="42"/>
+      <c r="E777" s="41"/>
     </row>
     <row r="778" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E778" s="42"/>
+      <c r="E778" s="41"/>
     </row>
     <row r="779" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E779" s="42"/>
+      <c r="E779" s="41"/>
     </row>
     <row r="780" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E780" s="42"/>
+      <c r="E780" s="41"/>
     </row>
     <row r="781" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E781" s="42"/>
+      <c r="E781" s="41"/>
     </row>
     <row r="782" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E782" s="42"/>
+      <c r="E782" s="41"/>
     </row>
     <row r="783" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E783" s="42"/>
+      <c r="E783" s="41"/>
     </row>
     <row r="784" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E784" s="42"/>
+      <c r="E784" s="41"/>
     </row>
     <row r="785" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E785" s="42"/>
+      <c r="E785" s="41"/>
     </row>
     <row r="786" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E786" s="42"/>
+      <c r="E786" s="41"/>
     </row>
     <row r="787" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E787" s="42"/>
+      <c r="E787" s="41"/>
     </row>
     <row r="789" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E789" s="42"/>
+      <c r="E789" s="41"/>
     </row>
     <row r="790" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E790" s="42"/>
+      <c r="E790" s="41"/>
     </row>
     <row r="791" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E791" s="42"/>
+      <c r="E791" s="41"/>
     </row>
     <row r="792" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E792" s="42"/>
+      <c r="E792" s="41"/>
     </row>
     <row r="793" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E793" s="42"/>
+      <c r="E793" s="41"/>
     </row>
     <row r="794" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E794" s="42"/>
+      <c r="E794" s="41"/>
     </row>
     <row r="795" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E795" s="42"/>
+      <c r="E795" s="41"/>
     </row>
     <row r="796" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E796" s="42"/>
+      <c r="E796" s="41"/>
     </row>
     <row r="797" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E797" s="42"/>
+      <c r="E797" s="41"/>
     </row>
     <row r="798" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E798" s="42"/>
+      <c r="E798" s="41"/>
     </row>
     <row r="799" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E799" s="42"/>
+      <c r="E799" s="41"/>
     </row>
     <row r="800" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E800" s="42"/>
+      <c r="E800" s="41"/>
     </row>
     <row r="801" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E801" s="42"/>
+      <c r="E801" s="41"/>
     </row>
     <row r="802" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E802" s="42"/>
+      <c r="E802" s="41"/>
     </row>
     <row r="804" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E804" s="42"/>
+      <c r="E804" s="41"/>
     </row>
     <row r="805" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E805" s="42"/>
+      <c r="E805" s="41"/>
     </row>
     <row r="806" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E806" s="42"/>
+      <c r="E806" s="41"/>
     </row>
     <row r="807" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E807" s="42"/>
+      <c r="E807" s="41"/>
     </row>
     <row r="808" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E808" s="42"/>
+      <c r="E808" s="41"/>
     </row>
     <row r="809" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E809" s="42"/>
+      <c r="E809" s="41"/>
     </row>
     <row r="810" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E810" s="42"/>
+      <c r="E810" s="41"/>
     </row>
     <row r="811" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E811" s="42"/>
+      <c r="E811" s="41"/>
     </row>
     <row r="812" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E812" s="42"/>
+      <c r="E812" s="41"/>
     </row>
     <row r="813" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E813" s="42"/>
+      <c r="E813" s="41"/>
     </row>
     <row r="814" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E814" s="42"/>
+      <c r="E814" s="41"/>
     </row>
     <row r="815" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E815" s="42"/>
+      <c r="E815" s="41"/>
     </row>
     <row r="816" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E816" s="42"/>
+      <c r="E816" s="41"/>
     </row>
     <row r="817" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E817" s="42"/>
+      <c r="E817" s="41"/>
     </row>
     <row r="819" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E819" s="42"/>
+      <c r="E819" s="41"/>
     </row>
     <row r="820" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E820" s="42"/>
+      <c r="E820" s="41"/>
     </row>
     <row r="821" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E821" s="42"/>
+      <c r="E821" s="41"/>
     </row>
     <row r="822" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E822" s="42"/>
+      <c r="E822" s="41"/>
     </row>
     <row r="823" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E823" s="42"/>
+      <c r="E823" s="41"/>
     </row>
     <row r="824" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E824" s="42"/>
+      <c r="E824" s="41"/>
     </row>
     <row r="825" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E825" s="42"/>
+      <c r="E825" s="41"/>
     </row>
     <row r="826" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E826" s="42"/>
+      <c r="E826" s="41"/>
     </row>
     <row r="827" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E827" s="42"/>
+      <c r="E827" s="41"/>
     </row>
     <row r="828" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E828" s="42"/>
+      <c r="E828" s="41"/>
     </row>
     <row r="829" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E829" s="42"/>
+      <c r="E829" s="41"/>
     </row>
     <row r="830" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E830" s="42"/>
+      <c r="E830" s="41"/>
     </row>
     <row r="831" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E831" s="42"/>
+      <c r="E831" s="41"/>
     </row>
     <row r="832" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E832" s="42"/>
+      <c r="E832" s="41"/>
     </row>
     <row r="833" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E833" s="42"/>
+      <c r="E833" s="41"/>
     </row>
     <row r="834" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E834" s="42"/>
+      <c r="E834" s="41"/>
     </row>
     <row r="835" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E835" s="42"/>
+      <c r="E835" s="41"/>
     </row>
     <row r="836" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E836" s="42"/>
+      <c r="E836" s="41"/>
     </row>
     <row r="837" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E837" s="42"/>
+      <c r="E837" s="41"/>
     </row>
     <row r="838" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E838" s="42"/>
+      <c r="E838" s="41"/>
     </row>
     <row r="839" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E839" s="42"/>
+      <c r="E839" s="41"/>
     </row>
     <row r="840" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E840" s="42"/>
+      <c r="E840" s="41"/>
     </row>
     <row r="841" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E841" s="42"/>
+      <c r="E841" s="41"/>
     </row>
     <row r="842" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E842" s="42"/>
+      <c r="E842" s="41"/>
     </row>
     <row r="843" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E843" s="42"/>
+      <c r="E843" s="41"/>
     </row>
     <row r="844" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E844" s="42"/>
+      <c r="E844" s="41"/>
     </row>
     <row r="845" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E845" s="42"/>
+      <c r="E845" s="41"/>
     </row>
     <row r="846" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E846" s="42"/>
+      <c r="E846" s="41"/>
     </row>
     <row r="848" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E848" s="42"/>
+      <c r="E848" s="41"/>
     </row>
     <row r="861" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E861" s="42"/>
+      <c r="E861" s="41"/>
     </row>
     <row r="875" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E875" s="42"/>
+      <c r="E875" s="41"/>
     </row>
     <row r="877" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E877" s="42"/>
+      <c r="E877" s="41"/>
     </row>
     <row r="890" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E890" s="42"/>
+      <c r="E890" s="41"/>
     </row>
     <row r="904" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E904" s="42"/>
+      <c r="E904" s="41"/>
     </row>
     <row r="906" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E906" s="42"/>
+      <c r="E906" s="41"/>
     </row>
     <row r="919" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E919" s="42"/>
+      <c r="E919" s="41"/>
     </row>
     <row r="933" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E933" s="42"/>
+      <c r="E933" s="41"/>
     </row>
     <row r="936" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E936" s="42"/>
+      <c r="E936" s="41"/>
     </row>
     <row r="937" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E937" s="42"/>
+      <c r="E937" s="41"/>
     </row>
     <row r="938" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E938" s="42"/>
+      <c r="E938" s="41"/>
     </row>
     <row r="939" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E939" s="42"/>
+      <c r="E939" s="41"/>
     </row>
     <row r="940" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E940" s="42"/>
+      <c r="E940" s="41"/>
     </row>
     <row r="941" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E941" s="42"/>
+      <c r="E941" s="41"/>
     </row>
     <row r="942" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E942" s="42"/>
+      <c r="E942" s="41"/>
     </row>
     <row r="943" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E943" s="42"/>
+      <c r="E943" s="41"/>
     </row>
     <row r="944" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E944" s="42"/>
+      <c r="E944" s="41"/>
     </row>
     <row r="945" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E945" s="42"/>
+      <c r="E945" s="41"/>
     </row>
     <row r="946" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E946" s="42"/>
+      <c r="E946" s="41"/>
     </row>
     <row r="947" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E947" s="42"/>
+      <c r="E947" s="41"/>
     </row>
     <row r="948" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E948" s="42"/>
+      <c r="E948" s="41"/>
     </row>
     <row r="949" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E949" s="42"/>
+      <c r="E949" s="41"/>
     </row>
     <row r="958" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E958" s="42"/>
+      <c r="E958" s="41"/>
     </row>
     <row r="975" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E975" s="42"/>
+      <c r="E975" s="41"/>
     </row>
     <row r="992" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E992" s="42"/>
+      <c r="E992" s="41"/>
     </row>
     <row r="1009" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1009" s="42"/>
+      <c r="E1009" s="41"/>
     </row>
     <row r="1026" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1026" s="42"/>
+      <c r="E1026" s="41"/>
     </row>
     <row r="1043" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1043" s="42"/>
+      <c r="E1043" s="41"/>
     </row>
     <row r="1060" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1060" s="42"/>
+      <c r="E1060" s="41"/>
     </row>
     <row r="1077" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1077" s="42"/>
+      <c r="E1077" s="41"/>
     </row>
     <row r="1094" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1094" s="42"/>
+      <c r="E1094" s="41"/>
     </row>
     <row r="1111" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1111" s="42"/>
+      <c r="E1111" s="41"/>
     </row>
     <row r="1128" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1128" s="42"/>
+      <c r="E1128" s="41"/>
     </row>
     <row r="1145" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1145" s="42"/>
+      <c r="E1145" s="41"/>
     </row>
     <row r="1162" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1162" s="42"/>
+      <c r="E1162" s="41"/>
     </row>
     <row r="1179" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1179" s="42"/>
+      <c r="E1179" s="41"/>
     </row>
     <row r="1196" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1196" s="42"/>
+      <c r="E1196" s="41"/>
     </row>
     <row r="1213" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1213" s="42"/>
+      <c r="E1213" s="41"/>
     </row>
     <row r="1236" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1236" s="42"/>
+      <c r="E1236" s="41"/>
     </row>
     <row r="1257" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1257" s="42"/>
+      <c r="E1257" s="41"/>
     </row>
     <row r="1272" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1272" s="42"/>
+      <c r="E1272" s="41"/>
     </row>
     <row r="1287" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1287" s="42"/>
+      <c r="E1287" s="41"/>
     </row>
     <row r="1302" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1302" s="42"/>
+      <c r="E1302" s="41"/>
     </row>
     <row r="1318" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1318" s="42"/>
+      <c r="E1318" s="41"/>
     </row>
     <row r="1326" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1326" s="42"/>
+      <c r="E1326" s="41"/>
     </row>
     <row r="1354" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1354" s="42"/>
+      <c r="E1354" s="41"/>
     </row>
     <row r="1362" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1362" s="42"/>
+      <c r="E1362" s="41"/>
     </row>
     <row r="1369" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1369" s="42"/>
+      <c r="E1369" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13461,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -13471,7 +13469,7 @@
       <c r="B9" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="51" t="s">
         <v>276</v>
       </c>
     </row>
@@ -13571,11 +13569,8 @@
       <c r="A30" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{4BAE391D-D770-4093-A2F6-D0EEB4B62063}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13657,7 +13652,7 @@
       <c r="C9" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13668,7 +13663,7 @@
       <c r="C10" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13679,7 +13674,7 @@
       <c r="C11" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B204AE-BD81-43E0-9FF8-00BE0564F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D582A62-04C1-45C1-968F-FB739F2C8393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1050,9 +1050,6 @@
     <t>Commodore shared files/Component images/4066.jpg</t>
   </si>
   <si>
-    <t>Commodore shared files/Component images/74LS138.jpg</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component images/74LS133.jpg</t>
   </si>
   <si>
@@ -1068,52 +1065,10 @@
     <t>Commodore shared files/Component local files/commodore_pet_vic-20_c64_port_pinouts.pdf</t>
   </si>
   <si>
-    <t>Commodore shared files/Component local files/mos_6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6560_6561_vic.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/mos_2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component local files/2114L_fairchild.pdf</t>
   </si>
   <si>
-    <t>Commodore shared files/Component local files/M58725P-Mitsubishi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/NE555.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN74LS04.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/DM74LS02.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/HCF4066B.PDF</t>
-  </si>
-  <si>
     <t>Commodore shared files/Component local files/74LS138-139.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN54LS133.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7408.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/SN74LS245.PDF</t>
   </si>
   <si>
     <t>Commodore shared files/Board local files/VIC-20_SAMS_ComputerFacts_cc3.pdf</t>
@@ -1157,6 +1112,51 @@
       </rPr>
       <t>2025-December-22</t>
     </r>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6560_6561_vic.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS04.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/555.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS02.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/58725P-Mitsubishi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/54LS133.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7408.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS138.png</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1421,7 +1421,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1741,7 +1740,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1767,7 +1766,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2046,17 +2045,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>44</v>
@@ -3951,11 +3950,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4396,7 +4395,7 @@
         <v>104</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4409,7 +4408,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4422,7 +4421,7 @@
         <v>104</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4435,7 +4434,7 @@
         <v>104</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4448,7 +4447,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4461,7 +4460,7 @@
         <v>104</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4474,7 +4473,7 @@
         <v>104</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4487,7 +4486,7 @@
         <v>104</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4500,7 +4499,7 @@
         <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -12501,8 +12500,8 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12572,7 +12571,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -12583,7 +12582,7 @@
         <v>219</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -12594,7 +12593,7 @@
         <v>219</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -12605,7 +12604,7 @@
         <v>219</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -12616,7 +12615,7 @@
         <v>219</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -12627,7 +12626,7 @@
         <v>219</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -12638,7 +12637,7 @@
         <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -12649,7 +12648,7 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -12660,7 +12659,7 @@
         <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -12671,7 +12670,7 @@
         <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -12682,7 +12681,7 @@
         <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -12693,7 +12692,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -12704,7 +12703,7 @@
         <v>238</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -12715,7 +12714,7 @@
         <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -12726,7 +12725,7 @@
         <v>237</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -12737,7 +12736,7 @@
         <v>237</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -12748,7 +12747,7 @@
         <v>237</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -12759,7 +12758,7 @@
         <v>253</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12770,7 +12769,7 @@
         <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12781,7 +12780,7 @@
         <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12792,7 +12791,7 @@
         <v>262</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12803,7 +12802,7 @@
         <v>263</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12814,7 +12813,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12825,7 +12824,7 @@
         <v>248</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -12836,7 +12835,7 @@
         <v>248</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -12847,7 +12846,7 @@
         <v>248</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -12858,7 +12857,7 @@
         <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12869,7 +12868,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12880,7 +12879,7 @@
         <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12891,7 +12890,7 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12902,7 +12901,7 @@
         <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12913,7 +12912,7 @@
         <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -13311,7 +13310,7 @@
         <v>219</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -13322,7 +13321,7 @@
         <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -13333,7 +13332,7 @@
         <v>224</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -13344,7 +13343,7 @@
         <v>228</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -13355,7 +13354,7 @@
         <v>229</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -13366,7 +13365,7 @@
         <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -13469,7 +13468,7 @@
       <c r="B9" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" t="s">
         <v>276</v>
       </c>
     </row>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D582A62-04C1-45C1-968F-FB739F2C8393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86EA61-D2C9-41AD-A1DD-57E9FE874735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -1098,6 +1098,54 @@
     <t>2025-December-20</t>
   </si>
   <si>
+    <t>Commodore shared files/Component local files/6500_mpu_mar_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6560_6561_vic.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/6522_preliminary_nov_1977.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS04.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/555.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS02.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/4066B.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/58725P-Mitsubishi.pdf</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/54LS133.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7408.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/7406.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component local files/74LS245.PDF</t>
+  </si>
+  <si>
+    <t>Commodore shared files/Component images/74LS138.png</t>
+  </si>
+  <si>
+    <t>2026-February-12</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1110,53 +1158,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-December-22</t>
+      <t>2026-February-9</t>
     </r>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6500_mpu_mar_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6560_6561_vic.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/6522_preliminary_nov_1977.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2364_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/2332_rom_feb_1980.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS04.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/555.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS02.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/4066B.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/58725P-Mitsubishi.pdf</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/54LS133.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7408.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/7406.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component local files/74LS245.PDF</t>
-  </si>
-  <si>
-    <t>Commodore shared files/Component images/74LS138.png</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1743,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2008,7 +2011,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BD200-C117-4EDC-8034-AF324B9644E5}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2056,6 +2059,11 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3950,11 +3958,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4395,7 +4403,7 @@
         <v>104</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4408,7 +4416,7 @@
         <v>104</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4421,7 +4429,7 @@
         <v>104</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -12500,8 +12508,8 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12637,7 +12645,7 @@
         <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -12648,7 +12656,7 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -12659,7 +12667,7 @@
         <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -12670,7 +12678,7 @@
         <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -12681,7 +12689,7 @@
         <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -12692,7 +12700,7 @@
         <v>238</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -12703,7 +12711,7 @@
         <v>238</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -12714,7 +12722,7 @@
         <v>241</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -12758,7 +12766,7 @@
         <v>253</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -12769,7 +12777,7 @@
         <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -12780,7 +12788,7 @@
         <v>244</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -12791,7 +12799,7 @@
         <v>262</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -12802,7 +12810,7 @@
         <v>263</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -12813,7 +12821,7 @@
         <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12857,7 +12865,7 @@
         <v>240</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -12868,7 +12876,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -12879,7 +12887,7 @@
         <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -12890,7 +12898,7 @@
         <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -12901,7 +12909,7 @@
         <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -12912,7 +12920,7 @@
         <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86EA61-D2C9-41AD-A1DD-57E9FE874735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950DFE1-C434-4DA3-BEAC-A3B60036F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -1158,7 +1158,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-9</t>
+      <t>2026-February-10</t>
     </r>
   </si>
 </sst>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>9</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
@@ -12505,7 +12505,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -12639,29 +12639,29 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>249</v>
@@ -12672,29 +12672,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>340</v>
+        <v>238</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>238</v>
@@ -12705,29 +12705,29 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>237</v>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>237</v>
@@ -12749,18 +12749,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>253</v>
@@ -12771,62 +12771,62 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>248</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>248</v>
@@ -12848,51 +12848,51 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>350</v>
+        <v>267</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>145</v>
+      <c r="A38" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>239</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>239</v>
@@ -12913,15 +12913,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>353</v>
-      </c>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
@@ -12940,6 +12932,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
@@ -12955,14 +12948,13 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
@@ -13079,31 +13071,28 @@
       <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="6"/>
+      <c r="A91" s="26"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="24"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
+      <c r="A92" s="23"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="24"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="24"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="25"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950DFE1-C434-4DA3-BEAC-A3B60036F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ED9C2F-9100-4273-9176-3D1A9A83EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1146,6 +1146,9 @@
     <t>2026-February-12</t>
   </si>
   <si>
+    <t>2026-February-21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1158,7 +1161,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2026-February-10</t>
+      <t>2026-February-21</t>
     </r>
   </si>
 </sst>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2011,7 +2014,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BD200-C117-4EDC-8034-AF324B9644E5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2066,8 +2069,14 @@
         <v>355</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
+++ b/Data/Commodore VIC-20/250403/Data VIC20 250403.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore VIC-20\250403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ED9C2F-9100-4273-9176-3D1A9A83EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88D0CD-7E53-40DE-80C9-062205420300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
